--- a/unit_device_data.xlsx
+++ b/unit_device_data.xlsx
@@ -1750,7 +1750,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '93C4EF2E751746C7B142609D91B94092', 'url_called': 'https://api.august.com/locks/93C4EF2E751746C7B142609D91B94092', 'status_code': 200, 'api_response_data': {'LockName': '223', 'Type': 15, 'Created': '2025-05-28T22:09:33.401Z', 'Updated': '2025-05-28T22:09:33.401Z', 'LockID': '93C4EF2E751746C7B142609D91B94092', 'HouseID': '7e7708c6-eb80-4c11-8b4a-b89e0aa2f9ac', 'HouseName': 'Rye', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9310129155310278, 'batteryInfo': {'level': 0.9310129155310278, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-28T13:08:03.084Z', 'lastChangeDate': '2025-05-28T22:09:33.401Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T22:09:33.401Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'cfd4ee63e46c336502a7c0f79ecb052e', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:84:F2', 'SerialNumber': 'LFIEG00113', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T17:59:57.223Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6840779d26c6de8231e07533', 'mfgBridgeID': 'C8WC1004SG', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T21:17:23.676Z', 'updated': '2025-06-26T21:18:02.124Z', 'lastOnline': '2025-06-26T21:18:02.124Z'}, 'locks': [{'_id': '65c03a1a3c112bc4f8bfc51d', 'macAddress': '98:1B:B5:76:84:F2', 'LockID': '93C4EF2E751746C7B142609D91B94092'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '8bc591e4-411a-4c22-a2d0-80081cb47ba9', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '93C4EF2E751746C7B142609D91B94092', 'url_called': 'https://api.august.com/locks/93C4EF2E751746C7B142609D91B94092', 'status_code': 200, 'api_response_data': {'LockName': '223', 'Type': 15, 'Created': '2025-05-28T22:09:33.401Z', 'Updated': '2025-05-28T22:09:33.401Z', 'LockID': '93C4EF2E751746C7B142609D91B94092', 'HouseID': '7e7708c6-eb80-4c11-8b4a-b89e0aa2f9ac', 'HouseName': 'Rye', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9310129155310278, 'batteryInfo': {'level': 0.9310129155310278, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T22:41:01.136Z', 'lastChangeDate': '2025-05-28T22:09:33.401Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T22:09:33.401Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'cfd4ee63e46c336502a7c0f79ecb052e', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:84:F2', 'SerialNumber': 'LFIEG00113', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-01T22:40:59.052Z', 'isLockStatusChanged': True, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6840779d26c6de8231e07533', 'mfgBridgeID': 'C8WC1004SG', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T21:17:23.676Z', 'updated': '2025-06-26T21:18:02.124Z', 'lastOnline': '2025-06-26T21:18:02.124Z'}, 'locks': [{'_id': '65c03a1a3c112bc4f8bfc51d', 'macAddress': '98:1B:B5:76:84:F2', 'LockID': '93C4EF2E751746C7B142609D91B94092'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '8bc591e4-411a-4c22-a2d0-80081cb47ba9', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [{'_id': '6863ac676749b97341213afb', 'type': 'pin', 'lockID': '93C4EF2E751746C7B142609D91B94092', 'userID': '198615c8-9530-44dc-9288-c3b36acfba89', 'state': 'loaded', 'pin': '286754', 'slot': 2, 'accessType': 'always', 'callingUserID': '17fb1dac-6d1b-4690-bee4-6f3701e39855', 'createdAt': '2025-07-01T09:37:43.444Z', 'updatedAt': '2025-07-01T09:37:55.845Z', 'loadedDate': '2025-07-01T09:37:55.845Z', 'firstName': 'ABC', 'lastName': 'ABC', 'unverified': True, 'partnerUserID': 'ABC1751362662192926'}], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L24" t="b">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '0D86C946A7974A5DA108636E1A25470B', 'url_called': 'https://api.august.com/locks/0D86C946A7974A5DA108636E1A25470B', 'status_code': 200, 'api_response_data': {'LockName': '224', 'Type': 15, 'Created': '2025-05-28T18:28:52.582Z', 'Updated': '2025-05-28T18:28:52.582Z', 'LockID': '0D86C946A7974A5DA108636E1A25470B', 'HouseID': '7e7708c6-eb80-4c11-8b4a-b89e0aa2f9ac', 'HouseName': 'Rye', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9355977177510795, 'batteryInfo': {'level': 0.9355977177510795, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T20:17:50.038Z', 'lastChangeDate': '2025-05-28T18:28:52.582Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T18:28:52.582Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'eaa648160ca085242fbdd611c9f4575c', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:1B', 'SerialNumber': 'LFIEG001LH', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T18:01:08.336Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6840768ad81a127ee0004296', 'mfgBridgeID': 'C8WC1004S6', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T17:55:03.793Z', 'updated': '2025-06-26T17:55:37.887Z', 'lastOnline': '2025-06-26T17:55:37.887Z'}, 'locks': [{'_id': '65c03a19816397234ac9d293', 'macAddress': '98:1B:B5:76:87:1B', 'LockID': '0D86C946A7974A5DA108636E1A25470B'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'fbe79747-9764-4cf3-8ac3-262efecebd22', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '0D86C946A7974A5DA108636E1A25470B', 'url_called': 'https://api.august.com/locks/0D86C946A7974A5DA108636E1A25470B', 'status_code': 200, 'api_response_data': {'LockName': '224', 'Type': 15, 'Created': '2025-05-28T18:28:52.582Z', 'Updated': '2025-05-28T18:28:52.582Z', 'LockID': '0D86C946A7974A5DA108636E1A25470B', 'HouseID': '7e7708c6-eb80-4c11-8b4a-b89e0aa2f9ac', 'HouseName': 'Rye', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9355977177510795, 'batteryInfo': {'level': 0.9355977177510795, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-30T22:35:00.347Z', 'lastChangeDate': '2025-05-28T18:28:52.582Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T18:28:52.582Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'eaa648160ca085242fbdd611c9f4575c', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:1B', 'SerialNumber': 'LFIEG001LH', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T06:33:16.384Z', 'isLockStatusChanged': True, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6840768ad81a127ee0004296', 'mfgBridgeID': 'C8WC1004S6', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-07-02T06:29:09.983Z', 'updated': '2025-07-02T06:33:09.061Z', 'lastOnline': '2025-07-02T06:33:09.061Z'}, 'locks': [{'_id': '65c03a19816397234ac9d293', 'macAddress': '98:1B:B5:76:87:1B', 'LockID': '0D86C946A7974A5DA108636E1A25470B'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'fbe79747-9764-4cf3-8ac3-262efecebd22', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L30" t="b">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': 'D202F48302D343659517302B71AF32E8', 'url_called': 'https://api.august.com/locks/D202F48302D343659517302B71AF32E8', 'status_code': 200, 'api_response_data': {'LockName': '225', 'Type': 15, 'Created': '2025-05-28T18:19:51.895Z', 'Updated': '2025-05-28T18:19:51.895Z', 'LockID': 'D202F48302D343659517302B71AF32E8', 'HouseID': '7e7708c6-eb80-4c11-8b4a-b89e0aa2f9ac', 'HouseName': 'Rye', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9417678528589022, 'batteryInfo': {'level': 0.9417678528589022, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T20:20:08.824Z', 'lastChangeDate': '2025-05-28T18:19:51.895Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T18:19:51.895Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '122da3a7f0c62cec9c52cafa86e22ad2', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:3D', 'SerialNumber': 'LFIEG001D4', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T18:04:33.987Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68407512978f170ab4bc64fe', 'mfgBridgeID': 'C8WAS001ZG', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T06:23:24.070Z', 'updated': '2025-06-26T06:25:42.839Z', 'lastOnline': '2025-06-26T06:25:42.839Z'}, 'locks': [{'_id': '65c03a1a3c112b5f98bfc477', 'macAddress': '98:1B:B5:76:86:3D', 'LockID': 'D202F48302D343659517302B71AF32E8'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'c5b782e7-ea40-4ea3-af4a-34c6b44d05df', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': 'D202F48302D343659517302B71AF32E8', 'url_called': 'https://api.august.com/locks/D202F48302D343659517302B71AF32E8', 'status_code': 200, 'api_response_data': {'LockName': '225', 'Type': 15, 'Created': '2025-05-28T18:19:51.895Z', 'Updated': '2025-05-28T18:19:51.895Z', 'LockID': 'D202F48302D343659517302B71AF32E8', 'HouseID': '7e7708c6-eb80-4c11-8b4a-b89e0aa2f9ac', 'HouseName': 'Rye', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.937744174098043, 'batteryInfo': {'level': 0.937744174098043, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-30T19:55:05.408Z', 'lastChangeDate': '2025-05-28T18:19:51.895Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T18:19:51.895Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '122da3a7f0c62cec9c52cafa86e22ad2', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:3D', 'SerialNumber': 'LFIEG001D4', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T06:04:51.298Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68407512978f170ab4bc64fe', 'mfgBridgeID': 'C8WAS001ZG', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-07-01T09:44:19.088Z', 'updated': '2025-07-01T09:44:20.625Z', 'lastOnline': '2025-07-01T09:44:20.625Z'}, 'locks': [{'_id': '65c03a1a3c112b5f98bfc477', 'macAddress': '98:1B:B5:76:86:3D', 'LockID': 'D202F48302D343659517302B71AF32E8'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'c5b782e7-ea40-4ea3-af4a-34c6b44d05df', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L36" t="b">
@@ -2800,7 +2800,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '540886BECD224697B8E6B9E7508DD62D', 'url_called': 'https://api.august.com/locks/540886BECD224697B8E6B9E7508DD62D', 'status_code': 200, 'api_response_data': {'LockName': '226', 'Type': 15, 'Created': '2025-05-28T18:01:02.094Z', 'Updated': '2025-05-28T18:01:02.094Z', 'LockID': '540886BECD224697B8E6B9E7508DD62D', 'HouseID': '7e7708c6-eb80-4c11-8b4a-b89e0aa2f9ac', 'HouseName': 'Rye', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9471995585117838, 'batteryInfo': {'level': 0.9471995585117838, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-28T22:29:27.373Z', 'lastChangeDate': '2025-05-28T18:01:02.094Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T18:01:02.094Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '2554ca5acc34c670b555860ace57f486', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:01', 'SerialNumber': 'LFIEG001KP', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-30T02:06:13.425Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '684073a68a5d85737f876240', 'mfgBridgeID': 'C8WAS00354', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T01:07:12.945Z', 'updated': '2025-06-26T01:07:47.894Z', 'lastOnline': '2025-06-26T01:07:47.894Z'}, 'locks': [{'_id': '65c03a1a3c112bf8b9bfc444', 'macAddress': '98:1B:B5:76:87:01', 'LockID': '540886BECD224697B8E6B9E7508DD62D'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '75de80d8-327b-4df1-ac5c-5129846f964a', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '540886BECD224697B8E6B9E7508DD62D', 'url_called': 'https://api.august.com/locks/540886BECD224697B8E6B9E7508DD62D', 'status_code': 200, 'api_response_data': {'LockName': '226', 'Type': 15, 'Created': '2025-05-28T18:01:02.094Z', 'Updated': '2025-05-28T18:01:02.094Z', 'LockID': '540886BECD224697B8E6B9E7508DD62D', 'HouseID': '7e7708c6-eb80-4c11-8b4a-b89e0aa2f9ac', 'HouseName': 'Rye', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9436542809344246, 'batteryInfo': {'level': 0.9436542809344246, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T21:51:57.872Z', 'lastChangeDate': '2025-05-28T18:01:02.094Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T18:01:02.094Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '2554ca5acc34c670b555860ace57f486', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:01', 'SerialNumber': 'LFIEG001KP', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T02:06:18.517Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '684073a68a5d85737f876240', 'mfgBridgeID': 'C8WAS00354', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T01:07:12.945Z', 'updated': '2025-06-26T01:07:47.894Z', 'lastOnline': '2025-06-26T01:07:47.894Z'}, 'locks': [{'_id': '65c03a1a3c112bf8b9bfc444', 'macAddress': '98:1B:B5:76:87:01', 'LockID': '540886BECD224697B8E6B9E7508DD62D'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '75de80d8-327b-4df1-ac5c-5129846f964a', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L43" t="b">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '317DB68819884CD59ECB975C790B0583', 'url_called': 'https://api.august.com/locks/317DB68819884CD59ECB975C790B0583', 'status_code': 200, 'api_response_data': {'LockName': '227', 'Type': 15, 'Created': '2025-05-28T18:11:04.866Z', 'Updated': '2025-05-28T18:11:04.866Z', 'LockID': '317DB68819884CD59ECB975C790B0583', 'HouseID': '7e7708c6-eb80-4c11-8b4a-b89e0aa2f9ac', 'HouseName': 'Rye', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9535104728274746, 'batteryInfo': {'level': 0.9535104728274746, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T20:18:23.544Z', 'lastChangeDate': '2025-05-28T18:11:04.866Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T18:11:04.866Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '1efb5435db249b2ccc423c808f07ce29', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:8D', 'SerialNumber': 'LFIEG001SA', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T23:59:35.262Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68407449d297e82efb01cb3a', 'mfgBridgeID': 'C8WAS0034Z', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T21:16:55.217Z', 'updated': '2025-06-26T21:17:29.559Z', 'lastOnline': '2025-06-26T21:17:29.559Z'}, 'locks': [{'_id': '65c03a19816397112ac9d24d', 'macAddress': '98:1B:B5:76:87:8D', 'LockID': '317DB68819884CD59ECB975C790B0583'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '5e4a98d6-1eac-49a4-a241-cc7a0ad947d7', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '317DB68819884CD59ECB975C790B0583', 'url_called': 'https://api.august.com/locks/317DB68819884CD59ECB975C790B0583', 'status_code': 200, 'api_response_data': {'LockName': '227', 'Type': 15, 'Created': '2025-05-28T18:11:04.866Z', 'Updated': '2025-05-28T18:11:04.866Z', 'LockID': '317DB68819884CD59ECB975C790B0583', 'HouseID': '7e7708c6-eb80-4c11-8b4a-b89e0aa2f9ac', 'HouseName': 'Rye', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9520185726469208, 'batteryInfo': {'level': 0.9520185726469208, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-30T15:26:32.768Z', 'lastChangeDate': '2025-05-28T18:11:04.866Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T18:11:04.866Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '1efb5435db249b2ccc423c808f07ce29', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:8D', 'SerialNumber': 'LFIEG001SA', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T06:02:39.458Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68407449d297e82efb01cb3a', 'mfgBridgeID': 'C8WAS0034Z', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T21:16:55.217Z', 'updated': '2025-06-26T21:17:29.559Z', 'lastOnline': '2025-06-26T21:17:29.559Z'}, 'locks': [{'_id': '65c03a19816397112ac9d24d', 'macAddress': '98:1B:B5:76:87:8D', 'LockID': '317DB68819884CD59ECB975C790B0583'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '5e4a98d6-1eac-49a4-a241-cc7a0ad947d7', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L49" t="b">
@@ -3518,7 +3518,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '22BB4BC2D9F64155973A72DA7C0B0FDB', 'url_called': 'https://api.august.com/locks/22BB4BC2D9F64155973A72DA7C0B0FDB', 'status_code': 200, 'api_response_data': {'LockName': '228', 'Type': 15, 'Created': '2025-05-28T16:44:50.695Z', 'Updated': '2025-05-28T16:44:50.695Z', 'LockID': '22BB4BC2D9F64155973A72DA7C0B0FDB', 'HouseID': '7e7708c6-eb80-4c11-8b4a-b89e0aa2f9ac', 'HouseName': 'Rye', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9454632933266112, 'batteryInfo': {'level': 0.9454632933266112, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T20:28:56.831Z', 'lastChangeDate': '2025-05-28T16:44:50.695Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T16:44:50.695Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '3731ad75d676d4b7cb34773f89afccfc', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:85:CD', 'SerialNumber': 'LFIEG0018D', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T18:04:06.264Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6840724c47202c40260f6610', 'mfgBridgeID': 'C8WAS001ZW', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T21:16:40.112Z', 'updated': '2025-06-26T21:17:12.232Z', 'lastOnline': '2025-06-26T21:17:12.232Z'}, 'locks': [{'_id': '65c03a1a3c112b67e6bfc4b3', 'macAddress': '98:1B:B5:76:85:CD', 'LockID': '22BB4BC2D9F64155973A72DA7C0B0FDB'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'e1b9513a-9c93-4880-9edb-b35ec9f4994d', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '22BB4BC2D9F64155973A72DA7C0B0FDB', 'url_called': 'https://api.august.com/locks/22BB4BC2D9F64155973A72DA7C0B0FDB', 'status_code': 200, 'api_response_data': {'LockName': '228', 'Type': 15, 'Created': '2025-05-28T16:44:50.695Z', 'Updated': '2025-05-28T16:44:50.695Z', 'LockID': '22BB4BC2D9F64155973A72DA7C0B0FDB', 'HouseID': '7e7708c6-eb80-4c11-8b4a-b89e0aa2f9ac', 'HouseName': 'Rye', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9417678528589022, 'batteryInfo': {'level': 0.9417678528589022, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-30T19:53:51.993Z', 'lastChangeDate': '2025-05-28T16:44:50.695Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T16:44:50.695Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '3731ad75d676d4b7cb34773f89afccfc', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:85:CD', 'SerialNumber': 'LFIEG0018D', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-01T19:43:39.269Z', 'isLockStatusChanged': True, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6840724c47202c40260f6610', 'mfgBridgeID': 'C8WAS001ZW', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T21:16:40.112Z', 'updated': '2025-06-26T21:17:12.232Z', 'lastOnline': '2025-06-26T21:17:12.232Z'}, 'locks': [{'_id': '65c03a1a3c112b67e6bfc4b3', 'macAddress': '98:1B:B5:76:85:CD', 'LockID': '22BB4BC2D9F64155973A72DA7C0B0FDB'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'e1b9513a-9c93-4880-9edb-b35ec9f4994d', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L56" t="b">
@@ -3850,7 +3850,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': 'FBA040EAF052435CAC32EE7A62E85071', 'url_called': 'https://api.august.com/locks/FBA040EAF052435CAC32EE7A62E85071', 'status_code': 200, 'api_response_data': {'LockName': '229', 'Type': 15, 'Created': '2025-05-28T16:53:23.231Z', 'Updated': '2025-05-28T16:53:23.231Z', 'LockID': 'FBA040EAF052435CAC32EE7A62E85071', 'HouseID': '7e7708c6-eb80-4c11-8b4a-b89e0aa2f9ac', 'HouseName': 'Rye', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.937744174098043, 'batteryInfo': {'level': 0.937744174098043, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T20:33:18.039Z', 'lastChangeDate': '2025-05-28T16:53:23.231Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T16:53:23.231Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '9fcd2c657f8e010136196a4d4bffcaf3', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:7E', 'SerialNumber': 'LFIEG001RU', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T18:02:08.423Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '684072f6b84e071224f852b4', 'mfgBridgeID': 'C8WAS00355', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T21:17:07.697Z', 'updated': '2025-06-26T21:17:40.300Z', 'lastOnline': '2025-06-26T21:17:40.300Z'}, 'locks': [{'_id': '65c03a19816397164ac9d256', 'macAddress': '98:1B:B5:76:87:7E', 'LockID': 'FBA040EAF052435CAC32EE7A62E85071'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'c8062b71-b740-4fcb-91d5-b309c4949ec9', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': 'FBA040EAF052435CAC32EE7A62E85071', 'url_called': 'https://api.august.com/locks/FBA040EAF052435CAC32EE7A62E85071', 'status_code': 200, 'api_response_data': {'LockName': '229', 'Type': 15, 'Created': '2025-05-28T16:53:23.231Z', 'Updated': '2025-05-28T16:53:23.231Z', 'LockID': 'FBA040EAF052435CAC32EE7A62E85071', 'HouseID': '7e7708c6-eb80-4c11-8b4a-b89e0aa2f9ac', 'HouseName': 'Rye', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9355977177510795, 'batteryInfo': {'level': 0.9355977177510795, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T08:08:22.062Z', 'lastChangeDate': '2025-05-28T16:53:23.231Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T16:53:23.231Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '9fcd2c657f8e010136196a4d4bffcaf3', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:7E', 'SerialNumber': 'LFIEG001RU', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-01T20:37:50.472Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '684072f6b84e071224f852b4', 'mfgBridgeID': 'C8WAS00355', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-30T20:29:42.171Z', 'updated': '2025-06-30T20:37:42.563Z', 'lastOnline': '2025-06-30T20:37:42.563Z'}, 'locks': [{'_id': '65c03a19816397164ac9d256', 'macAddress': '98:1B:B5:76:87:7E', 'LockID': 'FBA040EAF052435CAC32EE7A62E85071'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'c8062b71-b740-4fcb-91d5-b309c4949ec9', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L62" t="b">
@@ -4182,7 +4182,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '3B31BA9D92BE4887A201B70BBCA822DD', 'url_called': 'https://api.august.com/locks/3B31BA9D92BE4887A201B70BBCA822DD', 'status_code': 200, 'api_response_data': {'LockName': '230', 'Type': 15, 'Created': '2025-05-28T16:29:27.131Z', 'Updated': '2025-05-28T16:29:27.131Z', 'LockID': '3B31BA9D92BE4887A201B70BBCA822DD', 'HouseID': '7e7708c6-eb80-4c11-8b4a-b89e0aa2f9ac', 'HouseName': 'Rye', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9417678528589022, 'batteryInfo': {'level': 0.9417678528589022, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T20:33:55.173Z', 'lastChangeDate': '2025-05-28T16:29:27.131Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T16:29:27.131Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '99a88adbf6d26fb853b40c79cf3b507d', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:85:C0', 'SerialNumber': 'LFIEG0017Z', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T17:21:57.263Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '684071bd0b05f91579edba11', 'mfgBridgeID': 'C8WC1004UE', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T21:16:50.111Z', 'updated': '2025-06-26T21:17:23.635Z', 'lastOnline': '2025-06-26T21:17:23.635Z'}, 'locks': [{'_id': '65c03a1a3c112b45acbfc4bb', 'macAddress': '98:1B:B5:76:85:C0', 'LockID': '3B31BA9D92BE4887A201B70BBCA822DD'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'e397d9ef-873b-4329-b589-96299d1d7a5c', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '3B31BA9D92BE4887A201B70BBCA822DD', 'url_called': 'https://api.august.com/locks/3B31BA9D92BE4887A201B70BBCA822DD', 'status_code': 200, 'api_response_data': {'LockName': '230', 'Type': 15, 'Created': '2025-05-28T16:29:27.131Z', 'Updated': '2025-05-28T16:29:27.131Z', 'LockID': '3B31BA9D92BE4887A201B70BBCA822DD', 'HouseID': '7e7708c6-eb80-4c11-8b4a-b89e0aa2f9ac', 'HouseName': 'Rye', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9397993581551418, 'batteryInfo': {'level': 0.9397993581551418, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-30T16:07:40.890Z', 'lastChangeDate': '2025-05-28T16:29:27.131Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T16:29:27.131Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '99a88adbf6d26fb853b40c79cf3b507d', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:85:C0', 'SerialNumber': 'LFIEG0017Z', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T05:22:06.652Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '684071bd0b05f91579edba11', 'mfgBridgeID': 'C8WC1004UE', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T21:16:50.111Z', 'updated': '2025-06-26T21:17:23.635Z', 'lastOnline': '2025-06-26T21:17:23.635Z'}, 'locks': [{'_id': '65c03a1a3c112b45acbfc4bb', 'macAddress': '98:1B:B5:76:85:C0', 'LockID': '3B31BA9D92BE4887A201B70BBCA822DD'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'e397d9ef-873b-4329-b589-96299d1d7a5c', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L68" t="b">
@@ -4568,7 +4568,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '0D5BB1A8FB8944659AFE198C886C8EDE', 'url_called': 'https://api.august.com/locks/0D5BB1A8FB8944659AFE198C886C8EDE', 'status_code': 200, 'api_response_data': {'LockName': '231', 'Type': 15, 'Created': '2025-05-28T16:11:51.644Z', 'Updated': '2025-05-28T16:11:51.644Z', 'LockID': '0D5BB1A8FB8944659AFE198C886C8EDE', 'HouseID': '7e7708c6-eb80-4c11-8b4a-b89e0aa2f9ac', 'HouseName': 'Rye', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.937744174098043, 'batteryInfo': {'level': 0.937744174098043, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T20:15:13.088Z', 'lastChangeDate': '2025-05-28T16:11:51.644Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T16:11:51.644Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '1b75f180a0d2b18db708398cdee2c67e', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:64', 'SerialNumber': 'LFIEG001QZ', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T18:06:26.885Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6837373311e4e18e4251375b', 'mfgBridgeID': 'C8WC1004WH', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-27T18:04:54.922Z', 'updated': '2025-06-27T18:06:13.356Z', 'lastOnline': '2025-06-27T18:06:13.356Z'}, 'locks': [{'_id': '65c03a1981639788a8c9d269', 'macAddress': '98:1B:B5:76:87:64', 'LockID': '0D5BB1A8FB8944659AFE198C886C8EDE'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '2f1353d1-cb03-446a-99a6-36468323277a', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '0D5BB1A8FB8944659AFE198C886C8EDE', 'url_called': 'https://api.august.com/locks/0D5BB1A8FB8944659AFE198C886C8EDE', 'status_code': 200, 'api_response_data': {'LockName': '231', 'Type': 15, 'Created': '2025-05-28T16:11:51.644Z', 'Updated': '2025-05-28T16:11:51.644Z', 'LockID': '0D5BB1A8FB8944659AFE198C886C8EDE', 'HouseID': '7e7708c6-eb80-4c11-8b4a-b89e0aa2f9ac', 'HouseName': 'Rye', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9333554558324977, 'batteryInfo': {'level': 0.9333554558324977, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-30T16:07:47.302Z', 'lastChangeDate': '2025-05-28T16:11:51.644Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T16:11:51.644Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '1b75f180a0d2b18db708398cdee2c67e', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:64', 'SerialNumber': 'LFIEG001QZ', 'LockStatus': {'status': 'unlocked', 'dateTime': '2025-07-02T06:06:40.498Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6837373311e4e18e4251375b', 'mfgBridgeID': 'C8WC1004WH', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-27T18:04:54.922Z', 'updated': '2025-06-27T18:06:13.356Z', 'lastOnline': '2025-06-27T18:06:13.356Z'}, 'locks': [{'_id': '65c03a1981639788a8c9d269', 'macAddress': '98:1B:B5:76:87:64', 'LockID': '0D5BB1A8FB8944659AFE198C886C8EDE'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '2f1353d1-cb03-446a-99a6-36468323277a', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L75" t="b">
@@ -4900,7 +4900,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': 'CD68802161E44EF29910A345AAF1E3D0', 'url_called': 'https://api.august.com/locks/CD68802161E44EF29910A345AAF1E3D0', 'status_code': 200, 'api_response_data': {'LockName': '232.1', 'Type': 15, 'Created': '2025-05-28T16:00:47.903Z', 'Updated': '2025-05-28T16:00:47.903Z', 'LockID': 'CD68802161E44EF29910A345AAF1E3D0', 'HouseID': '7e7708c6-eb80-4c11-8b4a-b89e0aa2f9ac', 'HouseName': 'Rye', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9417678528589022, 'batteryInfo': {'level': 0.9417678528589022, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T20:37:07.712Z', 'lastChangeDate': '2025-05-28T16:00:47.903Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T16:00:47.903Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'a91825d5ffed1a49f6d0f728af1c2fa4', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:B3', 'SerialNumber': 'LFIEG001TK', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T18:01:31.037Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '683734bbab4d1ba76b2348a9', 'mfgBridgeID': 'C8WC1004UC', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T21:17:21.099Z', 'updated': '2025-06-26T21:17:54.330Z', 'lastOnline': '2025-06-26T21:17:54.330Z'}, 'locks': [{'_id': '65c03a198163977010c9d236', 'macAddress': '98:1B:B5:76:87:B3', 'LockID': 'CD68802161E44EF29910A345AAF1E3D0'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'c72fe030-d775-4176-bed4-5c82fcf67da5', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': 'CD68802161E44EF29910A345AAF1E3D0', 'url_called': 'https://api.august.com/locks/CD68802161E44EF29910A345AAF1E3D0', 'status_code': 200, 'api_response_data': {'LockName': '232.1', 'Type': 15, 'Created': '2025-05-28T16:00:47.903Z', 'Updated': '2025-05-28T16:00:47.903Z', 'LockID': 'CD68802161E44EF29910A345AAF1E3D0', 'HouseID': '7e7708c6-eb80-4c11-8b4a-b89e0aa2f9ac', 'HouseName': 'Rye', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9397993581551418, 'batteryInfo': {'level': 0.9397993581551418, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T22:41:58.322Z', 'lastChangeDate': '2025-05-28T16:00:47.903Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T16:00:47.903Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'a91825d5ffed1a49f6d0f728af1c2fa4', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:B3', 'SerialNumber': 'LFIEG001TK', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T06:01:44.570Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '683734bbab4d1ba76b2348a9', 'mfgBridgeID': 'C8WC1004UC', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T21:17:21.099Z', 'updated': '2025-06-26T21:17:54.330Z', 'lastOnline': '2025-06-26T21:17:54.330Z'}, 'locks': [{'_id': '65c03a198163977010c9d236', 'macAddress': '98:1B:B5:76:87:B3', 'LockID': 'CD68802161E44EF29910A345AAF1E3D0'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'c72fe030-d775-4176-bed4-5c82fcf67da5', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L81" t="b">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '77683D836C6E4FD8A376206539C2BA53', 'url_called': 'https://api.august.com/locks/77683D836C6E4FD8A376206539C2BA53', 'status_code': 200, 'api_response_data': {'LockName': '232.2', 'Type': 15, 'Created': '2025-05-28T15:50:46.610Z', 'Updated': '2025-05-28T15:50:46.610Z', 'LockID': '77683D836C6E4FD8A376206539C2BA53', 'HouseID': '7e7708c6-eb80-4c11-8b4a-b89e0aa2f9ac', 'HouseName': 'Rye', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9417678528589022, 'batteryInfo': {'level': 0.9417678528589022, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T20:34:25.571Z', 'lastChangeDate': '2025-05-28T15:50:46.610Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T15:50:46.610Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'bca71061d044ac9f2b1d03f5ce496774', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:85:C1', 'SerialNumber': 'LFIEG00180', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T18:03:32.081Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68373254defef340f7e20645', 'mfgBridgeID': 'C8WC1004W7', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-19T18:10:00.184Z', 'updated': '2025-06-19T18:11:51.482Z', 'lastOnline': '2025-06-19T18:11:51.482Z'}, 'locks': [{'_id': '65c03a1a816397155bc9d307', 'macAddress': '98:1B:B5:76:85:C1', 'LockID': '77683D836C6E4FD8A376206539C2BA53'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'a6e6b972-6598-498b-bd9f-ba53c4afd312', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '77683D836C6E4FD8A376206539C2BA53', 'url_called': 'https://api.august.com/locks/77683D836C6E4FD8A376206539C2BA53', 'status_code': 200, 'api_response_data': {'LockName': '232.2', 'Type': 15, 'Created': '2025-05-28T15:50:46.610Z', 'Updated': '2025-05-28T15:50:46.610Z', 'LockID': '77683D836C6E4FD8A376206539C2BA53', 'HouseID': '7e7708c6-eb80-4c11-8b4a-b89e0aa2f9ac', 'HouseName': 'Rye', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9397993581551418, 'batteryInfo': {'level': 0.9397993581551418, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-30T22:36:56.359Z', 'lastChangeDate': '2025-05-28T15:50:46.610Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T15:50:46.610Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'bca71061d044ac9f2b1d03f5ce496774', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:85:C1', 'SerialNumber': 'LFIEG00180', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T06:03:41.752Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68373254defef340f7e20645', 'mfgBridgeID': 'C8WC1004W7', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-19T18:10:00.184Z', 'updated': '2025-06-19T18:11:51.482Z', 'lastOnline': '2025-06-19T18:11:51.482Z'}, 'locks': [{'_id': '65c03a1a816397155bc9d307', 'macAddress': '98:1B:B5:76:85:C1', 'LockID': '77683D836C6E4FD8A376206539C2BA53'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'a6e6b972-6598-498b-bd9f-ba53c4afd312', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L88" t="b">
@@ -5618,7 +5618,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': 'FC44F529CC5E490C9E42683B951C6185', 'url_called': 'https://api.august.com/locks/FC44F529CC5E490C9E42683B951C6185', 'status_code': 200, 'api_response_data': {'LockName': '233', 'Type': 15, 'Created': '2025-05-27T15:46:46.533Z', 'Updated': '2025-05-27T15:46:46.533Z', 'LockID': 'FC44F529CC5E490C9E42683B951C6185', 'HouseID': '97f02fea-fe79-4b35-87f2-2eb43733e26b', 'HouseName': 'Lake Villa ', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9397993581551418, 'batteryInfo': {'level': 0.9397993581551418, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T22:38:33.409Z', 'lastChangeDate': '2025-05-27T15:46:46.533Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T15:46:46.533Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '4d6cc3ad3f57dcfe3a19a9c89b9bc5b3', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:58', 'SerialNumber': 'LFIEG001QJ', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T17:59:53.633Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6835dff4ac70913017dd654b', 'mfgBridgeID': 'C8WC1004UH', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-25T17:59:14.268Z', 'updated': '2025-06-25T17:59:50.720Z', 'lastOnline': '2025-06-25T17:59:50.720Z'}, 'locks': [{'_id': '65c03a198163974c74c9d26e', 'macAddress': '98:1B:B5:76:87:58', 'LockID': 'FC44F529CC5E490C9E42683B951C6185'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '9644cecc-5a0f-4e51-86df-1345574a5bf6', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': 'FC44F529CC5E490C9E42683B951C6185', 'url_called': 'https://api.august.com/locks/FC44F529CC5E490C9E42683B951C6185', 'status_code': 200, 'api_response_data': {'LockName': '233', 'Type': 15, 'Created': '2025-05-27T15:46:46.533Z', 'Updated': '2025-05-27T15:46:46.533Z', 'LockID': 'FC44F529CC5E490C9E42683B951C6185', 'HouseID': '97f02fea-fe79-4b35-87f2-2eb43733e26b', 'HouseName': 'Lake Villa ', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9417678528589022, 'batteryInfo': {'level': 0.9417678528589022, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T21:47:20.038Z', 'lastChangeDate': '2025-05-27T15:46:46.533Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T15:46:46.533Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '4d6cc3ad3f57dcfe3a19a9c89b9bc5b3', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:58', 'SerialNumber': 'LFIEG001QJ', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T06:00:07.732Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6835dff4ac70913017dd654b', 'mfgBridgeID': 'C8WC1004UH', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-25T17:59:14.268Z', 'updated': '2025-06-25T17:59:50.720Z', 'lastOnline': '2025-06-25T17:59:50.720Z'}, 'locks': [{'_id': '65c03a198163974c74c9d26e', 'macAddress': '98:1B:B5:76:87:58', 'LockID': 'FC44F529CC5E490C9E42683B951C6185'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '9644cecc-5a0f-4e51-86df-1345574a5bf6', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L94" t="b">
@@ -6004,7 +6004,7 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': 'CED1DD2F08CD437AA93A9A0D7A7CC1E1', 'url_called': 'https://api.august.com/locks/CED1DD2F08CD437AA93A9A0D7A7CC1E1', 'status_code': 200, 'api_response_data': {'LockName': ' 234', 'Type': 15, 'Created': '2025-06-04T15:44:32.925Z', 'Updated': '2025-06-04T15:44:32.925Z', 'LockID': 'CED1DD2F08CD437AA93A9A0D7A7CC1E1', 'HouseID': '97f02fea-fe79-4b35-87f2-2eb43733e26b', 'HouseName': 'Lake Villa ', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9397993581551418, 'batteryInfo': {'level': 0.9397993581551418, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-28T22:28:08.595Z', 'lastChangeDate': '2025-06-04T15:44:32.925Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-30T15:44:32.925Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'f552f73b18b5d06c4850b5ae4e2dec69', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:A5', 'SerialNumber': 'LFIEG001T4', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T18:02:07.204Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6840705e4d72a8c54cd86940', 'mfgBridgeID': 'C8WAS00276', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T17:55:03.604Z', 'updated': '2025-06-26T17:55:35.481Z', 'lastOnline': '2025-06-26T17:55:35.481Z'}, 'locks': [{'_id': '65c03a19816397523fc9d23e', 'macAddress': '98:1B:B5:76:87:A5', 'LockID': 'CED1DD2F08CD437AA93A9A0D7A7CC1E1'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'f7c4e5c7-d8ae-43c4-aa35-0af497c60339', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': 'CED1DD2F08CD437AA93A9A0D7A7CC1E1', 'url_called': 'https://api.august.com/locks/CED1DD2F08CD437AA93A9A0D7A7CC1E1', 'status_code': 200, 'api_response_data': {'LockName': ' 234', 'Type': 15, 'Created': '2025-06-04T15:44:32.925Z', 'Updated': '2025-06-04T15:44:32.925Z', 'LockID': 'CED1DD2F08CD437AA93A9A0D7A7CC1E1', 'HouseID': '97f02fea-fe79-4b35-87f2-2eb43733e26b', 'HouseName': 'Lake Villa ', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9355977177510795, 'batteryInfo': {'level': 0.9355977177510795, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T22:33:26.839Z', 'lastChangeDate': '2025-06-04T15:44:32.925Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-30T15:44:32.925Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'f552f73b18b5d06c4850b5ae4e2dec69', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:A5', 'SerialNumber': 'LFIEG001T4', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T06:02:20.846Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6840705e4d72a8c54cd86940', 'mfgBridgeID': 'C8WAS00276', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T17:55:03.604Z', 'updated': '2025-06-26T17:55:35.481Z', 'lastOnline': '2025-06-26T17:55:35.481Z'}, 'locks': [{'_id': '65c03a19816397523fc9d23e', 'macAddress': '98:1B:B5:76:87:A5', 'LockID': 'CED1DD2F08CD437AA93A9A0D7A7CC1E1'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'f7c4e5c7-d8ae-43c4-aa35-0af497c60339', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L101" t="b">
@@ -6336,7 +6336,7 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': 'C31DACF98BAF4580A1930007A6F8EFF2', 'url_called': 'https://api.august.com/locks/C31DACF98BAF4580A1930007A6F8EFF2', 'status_code': 200, 'api_response_data': {'LockName': '235', 'Type': 15, 'Created': '2025-05-24T15:27:13.464Z', 'Updated': '2025-05-24T15:27:13.464Z', 'LockID': 'C31DACF98BAF4580A1930007A6F8EFF2', 'HouseID': '97f02fea-fe79-4b35-87f2-2eb43733e26b', 'HouseName': 'Lake Villa ', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9417678528589022, 'batteryInfo': {'level': 0.9417678528589022, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T22:38:48.072Z', 'lastChangeDate': '2025-05-24T15:27:13.464Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-19T15:27:13.464Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '4dbf86b4095bc13aee62202ce20194d9', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:AD', 'SerialNumber': 'LFIEG001TD', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T22:53:54.733Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68406f584f10ac9052859539', 'mfgBridgeID': 'C8WAS0026Y', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-27T06:59:06.998Z', 'updated': '2025-06-27T07:01:25.488Z', 'lastOnline': '2025-06-27T07:01:25.488Z'}, 'locks': [{'_id': '65c03a1981639778ddc9d239', 'macAddress': '98:1B:B5:76:87:AD', 'LockID': 'C31DACF98BAF4580A1930007A6F8EFF2'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'e64b50bc-0242-43c3-bbe1-12368f55895c', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': 'C31DACF98BAF4580A1930007A6F8EFF2', 'url_called': 'https://api.august.com/locks/C31DACF98BAF4580A1930007A6F8EFF2', 'status_code': 200, 'api_response_data': {'LockName': '235', 'Type': 15, 'Created': '2025-05-24T15:27:13.464Z', 'Updated': '2025-05-24T15:27:13.464Z', 'LockID': 'C31DACF98BAF4580A1930007A6F8EFF2', 'HouseID': '97f02fea-fe79-4b35-87f2-2eb43733e26b', 'HouseName': 'Lake Villa ', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.937744174098043, 'batteryInfo': {'level': 0.937744174098043, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T22:33:19.459Z', 'lastChangeDate': '2025-05-24T15:27:13.464Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-19T15:27:13.464Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '4dbf86b4095bc13aee62202ce20194d9', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:AD', 'SerialNumber': 'LFIEG001TD', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-01T22:33:17.182Z', 'isLockStatusChanged': True, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68406f584f10ac9052859539', 'mfgBridgeID': 'C8WAS0026Y', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-30T20:27:36.328Z', 'updated': '2025-06-30T20:32:08.951Z', 'lastOnline': '2025-06-30T20:32:08.951Z'}, 'locks': [{'_id': '65c03a1981639778ddc9d239', 'macAddress': '98:1B:B5:76:87:AD', 'LockID': 'C31DACF98BAF4580A1930007A6F8EFF2'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'e64b50bc-0242-43c3-bbe1-12368f55895c', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L107" t="b">
@@ -6668,7 +6668,7 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '6A371AB34C0441C4B3B33638D4B551D6', 'url_called': 'https://api.august.com/locks/6A371AB34C0441C4B3B33638D4B551D6', 'status_code': 200, 'api_response_data': {'LockName': '236', 'Type': 15, 'Created': '2025-05-24T15:11:52.963Z', 'Updated': '2025-05-24T15:11:52.963Z', 'LockID': '6A371AB34C0441C4B3B33638D4B551D6', 'HouseID': '97f02fea-fe79-4b35-87f2-2eb43733e26b', 'HouseName': 'Lake Villa ', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9310129155310278, 'batteryInfo': {'level': 0.9310129155310278, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-28T14:45:16.636Z', 'lastChangeDate': '2025-05-24T15:11:52.963Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-19T15:11:52.963Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '2c8278d844fa999a2e50585eb185f67e', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:9F', 'SerialNumber': 'LFIEG001SY', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T18:02:54.078Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68406ce738f2b1ce7140af04', 'mfgBridgeID': 'C8WAS0026S', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T21:18:06.521Z', 'updated': '2025-06-26T21:18:40.420Z', 'lastOnline': '2025-06-26T21:18:40.420Z'}, 'locks': [{'_id': '65c03a193c112bab67bfc3cf', 'macAddress': '98:1B:B5:76:87:9F', 'LockID': '6A371AB34C0441C4B3B33638D4B551D6'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '4035feed-ad7b-40f1-a6cd-41196c02f3d4', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '6A371AB34C0441C4B3B33638D4B551D6', 'url_called': 'https://api.august.com/locks/6A371AB34C0441C4B3B33638D4B551D6', 'status_code': 200, 'api_response_data': {'LockName': '236', 'Type': 15, 'Created': '2025-05-24T15:11:52.963Z', 'Updated': '2025-05-24T15:11:52.963Z', 'LockID': '6A371AB34C0441C4B3B33638D4B551D6', 'HouseID': '97f02fea-fe79-4b35-87f2-2eb43733e26b', 'HouseName': 'Lake Villa ', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9260094697820023, 'batteryInfo': {'level': 0.9260094697820023, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T22:42:34.442Z', 'lastChangeDate': '2025-05-24T15:11:52.963Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-19T15:11:52.963Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '2c8278d844fa999a2e50585eb185f67e', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:9F', 'SerialNumber': 'LFIEG001SY', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T06:03:07.255Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68406ce738f2b1ce7140af04', 'mfgBridgeID': 'C8WAS0026S', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T21:18:06.521Z', 'updated': '2025-06-26T21:18:40.420Z', 'lastOnline': '2025-06-26T21:18:40.420Z'}, 'locks': [{'_id': '65c03a193c112bab67bfc3cf', 'macAddress': '98:1B:B5:76:87:9F', 'LockID': '6A371AB34C0441C4B3B33638D4B551D6'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '4035feed-ad7b-40f1-a6cd-41196c02f3d4', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L113" t="b">
@@ -7386,7 +7386,7 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': 'E82170672397457DA6DB08B548970BAB', 'url_called': 'https://api.august.com/locks/E82170672397457DA6DB08B548970BAB', 'status_code': 200, 'api_response_data': {'LockName': '237.2', 'Type': 15, 'Created': '2025-05-24T14:27:50.258Z', 'Updated': '2025-05-24T14:27:50.258Z', 'LockID': 'E82170672397457DA6DB08B548970BAB', 'HouseID': '97f02fea-fe79-4b35-87f2-2eb43733e26b', 'HouseName': 'Lake Villa ', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9417678528589022, 'batteryInfo': {'level': 0.9417678528589022, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T19:54:53.301Z', 'lastChangeDate': '2025-05-24T14:27:50.258Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-19T14:27:50.258Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '7d94ff7b66a13244dec5082d6b83df9b', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:EE', 'SerialNumber': 'LFIEG001K1', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T18:03:47.717Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6831d8ff6c12934ef2b58230', 'mfgBridgeID': 'C8WAS002QS', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T06:33:01.717Z', 'updated': '2025-06-26T06:35:25.333Z', 'lastOnline': '2025-06-26T06:35:25.333Z'}, 'locks': [{'_id': '65c03a1a81639757ebc9d2af', 'macAddress': '98:1B:B5:76:86:EE', 'LockID': 'E82170672397457DA6DB08B548970BAB'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'f1898af2-a7fe-45c2-ba45-ac4c224d5c4d', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': 'E82170672397457DA6DB08B548970BAB', 'url_called': 'https://api.august.com/locks/E82170672397457DA6DB08B548970BAB', 'status_code': 200, 'api_response_data': {'LockName': '237.2', 'Type': 15, 'Created': '2025-05-24T14:27:50.258Z', 'Updated': '2025-05-24T14:27:50.258Z', 'LockID': 'E82170672397457DA6DB08B548970BAB', 'HouseID': '97f02fea-fe79-4b35-87f2-2eb43733e26b', 'HouseName': 'Lake Villa ', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9397993581551418, 'batteryInfo': {'level': 0.9397993581551418, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T20:51:43.764Z', 'lastChangeDate': '2025-05-24T14:27:50.258Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-19T14:27:50.258Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '7d94ff7b66a13244dec5082d6b83df9b', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:EE', 'SerialNumber': 'LFIEG001K1', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T06:03:55.406Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6831d8ff6c12934ef2b58230', 'mfgBridgeID': 'C8WAS002QS', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T06:33:01.717Z', 'updated': '2025-06-26T06:35:25.333Z', 'lastOnline': '2025-06-26T06:35:25.333Z'}, 'locks': [{'_id': '65c03a1a81639757ebc9d2af', 'macAddress': '98:1B:B5:76:86:EE', 'LockID': 'E82170672397457DA6DB08B548970BAB'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'f1898af2-a7fe-45c2-ba45-ac4c224d5c4d', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L126" t="b">
@@ -7718,7 +7718,7 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '3A81DF6B9A034C35A2593702E1DD2299', 'url_called': 'https://api.august.com/locks/3A81DF6B9A034C35A2593702E1DD2299', 'status_code': 200, 'api_response_data': {'LockName': '238', 'Type': 15, 'Created': '2025-05-24T14:12:35.882Z', 'Updated': '2025-05-24T14:12:35.882Z', 'LockID': '3A81DF6B9A034C35A2593702E1DD2299', 'HouseID': '97f02fea-fe79-4b35-87f2-2eb43733e26b', 'HouseName': 'Lake Villa ', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9488677508088585, 'batteryInfo': {'level': 0.9488677508088585, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T22:45:20.278Z', 'lastChangeDate': '2025-05-24T14:12:35.882Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-19T14:12:35.882Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '15c7719c1c257147aa06b9a718324819', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:F2', 'SerialNumber': 'LFIEG001K5', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T18:00:30.226Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6831d5ddefdd666ff9f7556a', 'mfgBridgeID': 'C8WAS0025K', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T17:54:19.022Z', 'updated': '2025-06-26T17:54:52.001Z', 'lastOnline': '2025-06-26T17:54:52.001Z'}, 'locks': [{'_id': '65c03a1a8163979b8ac9d2ad', 'macAddress': '98:1B:B5:76:86:F2', 'LockID': '3A81DF6B9A034C35A2593702E1DD2299'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '3ff861df-8e4a-4ba8-a3be-79fb2aa15829', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '3A81DF6B9A034C35A2593702E1DD2299', 'url_called': 'https://api.august.com/locks/3A81DF6B9A034C35A2593702E1DD2299', 'status_code': 200, 'api_response_data': {'LockName': '238', 'Type': 15, 'Created': '2025-05-24T14:12:35.882Z', 'Updated': '2025-05-24T14:12:35.882Z', 'LockID': '3A81DF6B9A034C35A2593702E1DD2299', 'HouseID': '97f02fea-fe79-4b35-87f2-2eb43733e26b', 'HouseName': 'Lake Villa ', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9471995585117838, 'batteryInfo': {'level': 0.9471995585117838, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-30T22:42:46.628Z', 'lastChangeDate': '2025-05-24T14:12:35.882Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-19T14:12:35.882Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '15c7719c1c257147aa06b9a718324819', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:F2', 'SerialNumber': 'LFIEG001K5', 'LockStatus': {'status': 'unknown', 'dateTime': '2025-07-02T06:01:18.534Z', 'isLockStatusChanged': False, 'valid': True, 'unknownReason': 'unknown_error_during_connect', 'doorState': 'unknown'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6831d5ddefdd666ff9f7556a', 'mfgBridgeID': 'C8WAS0025K', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-07-01T17:59:04.992Z', 'updated': '2025-07-01T18:01:17.687Z', 'lastOnline': '2025-07-01T18:01:17.687Z'}, 'locks': [{'_id': '65c03a1a8163979b8ac9d2ad', 'macAddress': '98:1B:B5:76:86:F2', 'LockID': '3A81DF6B9A034C35A2593702E1DD2299'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '3ff861df-8e4a-4ba8-a3be-79fb2aa15829', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L132" t="b">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': 'C63426AB40A04A1E8A35C204BC420DB5', 'url_called': 'https://api.august.com/locks/C63426AB40A04A1E8A35C204BC420DB5', 'status_code': 200, 'api_response_data': {'LockName': '239', 'Type': 15, 'Created': '2025-05-27T15:32:55.227Z', 'Updated': '2025-05-27T15:32:55.227Z', 'LockID': 'C63426AB40A04A1E8A35C204BC420DB5', 'HouseID': '97f02fea-fe79-4b35-87f2-2eb43733e26b', 'HouseName': 'Lake Villa ', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9285656944121001, 'batteryInfo': {'level': 0.9285656944121001, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T22:45:37.015Z', 'lastChangeDate': '2025-05-27T15:32:55.227Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T15:32:55.227Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '188aa8538f00598dbb869a124b9b5972', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:EA', 'SerialNumber': 'LFIEG001JX', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T20:25:27.739Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6835dc8afa30b83dbee72a88', 'mfgBridgeID': 'C8WAS00254', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T06:52:06.752Z', 'updated': '2025-06-26T06:54:26.204Z', 'lastOnline': '2025-06-26T06:54:26.204Z'}, 'locks': [{'_id': '65c03a1a816397a8a6c9d2b1', 'macAddress': '98:1B:B5:76:86:EA', 'LockID': 'C63426AB40A04A1E8A35C204BC420DB5'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '8918cb47-a644-46e8-9b1b-6b49ce0aae04', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': 'C63426AB40A04A1E8A35C204BC420DB5', 'url_called': 'https://api.august.com/locks/C63426AB40A04A1E8A35C204BC420DB5', 'status_code': 200, 'api_response_data': {'LockName': '239', 'Type': 15, 'Created': '2025-05-27T15:32:55.227Z', 'Updated': '2025-05-27T15:32:55.227Z', 'LockID': 'C63426AB40A04A1E8A35C204BC420DB5', 'HouseID': '97f02fea-fe79-4b35-87f2-2eb43733e26b', 'HouseName': 'Lake Villa ', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9260094697820023, 'batteryInfo': {'level': 0.9260094697820023, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T22:47:07.179Z', 'lastChangeDate': '2025-05-27T15:32:55.227Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T15:32:55.227Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '188aa8538f00598dbb869a124b9b5972', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:EA', 'SerialNumber': 'LFIEG001JX', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-01T22:47:05.578Z', 'isLockStatusChanged': True, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6835dc8afa30b83dbee72a88', 'mfgBridgeID': 'C8WAS00254', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T06:52:06.752Z', 'updated': '2025-06-26T06:54:26.204Z', 'lastOnline': '2025-06-26T06:54:26.204Z'}, 'locks': [{'_id': '65c03a1a816397a8a6c9d2b1', 'macAddress': '98:1B:B5:76:86:EA', 'LockID': 'C63426AB40A04A1E8A35C204BC420DB5'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '8918cb47-a644-46e8-9b1b-6b49ce0aae04', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L139" t="b">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': 'B91C09FF647140949BD651096CF25C0E', 'url_called': 'https://api.august.com/locks/B91C09FF647140949BD651096CF25C0E', 'status_code': 200, 'api_response_data': {'LockName': '240', 'Type': 15, 'Created': '2025-05-24T13:47:33.056Z', 'Updated': '2025-05-24T13:47:33.056Z', 'LockID': 'B91C09FF647140949BD651096CF25C0E', 'HouseID': '97f02fea-fe79-4b35-87f2-2eb43733e26b', 'HouseName': 'Lake Villa ', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9355977177510795, 'batteryInfo': {'level': 0.9355977177510795, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T22:45:38.174Z', 'lastChangeDate': '2025-05-24T13:47:33.056Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-19T13:47:33.056Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'de08b0d6915ba56ca6f2f6580649f3b0', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:52', 'SerialNumber': 'LFIEG001DU', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-30T01:09:18.488Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68406be6063d3b64465b4763', 'mfgBridgeID': 'C8WAS0025J', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-25T17:54:28.133Z', 'updated': '2025-06-25T19:02:49.624Z', 'lastOnline': '2025-06-25T19:02:49.624Z'}, 'locks': [{'_id': '65c03a1a816397ffc1c9d2c7', 'macAddress': '98:1B:B5:76:86:52', 'LockID': 'B91C09FF647140949BD651096CF25C0E'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'ec8bf45e-5804-4df4-a940-4ef864bafa32', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': 'B91C09FF647140949BD651096CF25C0E', 'url_called': 'https://api.august.com/locks/B91C09FF647140949BD651096CF25C0E', 'status_code': 200, 'api_response_data': {'LockName': '240', 'Type': 15, 'Created': '2025-05-24T13:47:33.056Z', 'Updated': '2025-05-24T13:47:33.056Z', 'LockID': 'B91C09FF647140949BD651096CF25C0E', 'HouseID': '97f02fea-fe79-4b35-87f2-2eb43733e26b', 'HouseName': 'Lake Villa ', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9333554558324977, 'batteryInfo': {'level': 0.9333554558324977, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-30T22:41:41.842Z', 'lastChangeDate': '2025-05-24T13:47:33.056Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-19T13:47:33.056Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'de08b0d6915ba56ca6f2f6580649f3b0', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:52', 'SerialNumber': 'LFIEG001DU', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T01:09:27.992Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68406be6063d3b64465b4763', 'mfgBridgeID': 'C8WAS0025J', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-25T17:54:28.133Z', 'updated': '2025-06-25T19:02:49.624Z', 'lastOnline': '2025-06-25T19:02:49.624Z'}, 'locks': [{'_id': '65c03a1a816397ffc1c9d2c7', 'macAddress': '98:1B:B5:76:86:52', 'LockID': 'B91C09FF647140949BD651096CF25C0E'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'ec8bf45e-5804-4df4-a940-4ef864bafa32', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L145" t="b">
@@ -8768,7 +8768,7 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': 'D9158CA3763646DB9190646F3031829D', 'url_called': 'https://api.august.com/locks/D9158CA3763646DB9190646F3031829D', 'status_code': 200, 'api_response_data': {'LockName': '241', 'Type': 15, 'Created': '2025-05-24T12:47:27.968Z', 'Updated': '2025-05-24T12:47:27.968Z', 'LockID': 'D9158CA3763646DB9190646F3031829D', 'HouseID': '97f02fea-fe79-4b35-87f2-2eb43733e26b', 'HouseName': 'Lake Villa ', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9233400085249741, 'batteryInfo': {'level': 0.9233400085249741, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T22:45:57.233Z', 'lastChangeDate': '2025-05-24T12:47:27.968Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-19T12:47:27.968Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '0c50641f5a2ce69695bbfca2694f3cf7', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:2D', 'SerialNumber': 'LFIEG001P4', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-30T03:36:06.768Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6831c11b507b62ec8b8df5f9', 'mfgBridgeID': 'C8WAS0026R', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T01:07:08.932Z', 'updated': '2025-06-26T01:07:42.340Z', 'lastOnline': '2025-06-26T01:07:42.340Z'}, 'locks': [{'_id': '65c03a198163977dcfc9d28a', 'macAddress': '98:1B:B5:76:87:2D', 'LockID': 'D9158CA3763646DB9190646F3031829D'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '8feb557b-90d0-4714-9dad-572fc61c5651', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': 'D9158CA3763646DB9190646F3031829D', 'url_called': 'https://api.august.com/locks/D9158CA3763646DB9190646F3031829D', 'status_code': 200, 'api_response_data': {'LockName': '241', 'Type': 15, 'Created': '2025-05-24T12:47:27.968Z', 'Updated': '2025-05-24T12:47:27.968Z', 'LockID': 'D9158CA3763646DB9190646F3031829D', 'HouseID': '97f02fea-fe79-4b35-87f2-2eb43733e26b', 'HouseName': 'Lake Villa ', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9285656944121001, 'batteryInfo': {'level': 0.9285656944121001, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T22:47:23.953Z', 'lastChangeDate': '2025-05-24T12:47:27.968Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-19T12:47:27.968Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '0c50641f5a2ce69695bbfca2694f3cf7', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:2D', 'SerialNumber': 'LFIEG001P4', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T03:36:15.780Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6831c11b507b62ec8b8df5f9', 'mfgBridgeID': 'C8WAS0026R', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T01:07:08.932Z', 'updated': '2025-06-26T01:07:42.340Z', 'lastOnline': '2025-06-26T01:07:42.340Z'}, 'locks': [{'_id': '65c03a198163977dcfc9d28a', 'macAddress': '98:1B:B5:76:87:2D', 'LockID': 'D9158CA3763646DB9190646F3031829D'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '8feb557b-90d0-4714-9dad-572fc61c5651', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L151" t="b">
@@ -9046,7 +9046,7 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '5CF05DE352B546558AA3CC7BA18C44A1', 'url_called': 'https://api.august.com/locks/5CF05DE352B546558AA3CC7BA18C44A1', 'status_code': 200, 'api_response_data': {'LockName': '242', 'Type': 15, 'Created': '2025-05-24T13:22:44.140Z', 'Updated': '2025-05-24T13:22:44.140Z', 'LockID': '5CF05DE352B546558AA3CC7BA18C44A1', 'HouseID': '97f02fea-fe79-4b35-87f2-2eb43733e26b', 'HouseName': 'Lake Villa ', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.937744174098043, 'batteryInfo': {'level': 0.937744174098043, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T22:45:41.852Z', 'lastChangeDate': '2025-05-24T13:22:44.140Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-19T13:22:44.140Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '8c2adfba7273df408a9452c1e157310c', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:3B', 'SerialNumber': 'LFIEG001D2', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T20:47:05.984Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68406b4d8c7c0a35c6f5e5ad', 'mfgBridgeID': 'C8WAS0027H', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-16T17:10:02.537Z', 'updated': '2025-06-17T22:02:06.452Z', 'lastOnline': '2025-06-17T22:02:06.452Z'}, 'locks': [{'_id': '65c03a1a816397137dc9d2d6', 'macAddress': '98:1B:B5:76:86:3B', 'LockID': '5CF05DE352B546558AA3CC7BA18C44A1'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'a8e057fe-77db-4af0-8beb-1bed0d53656b', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '5CF05DE352B546558AA3CC7BA18C44A1', 'url_called': 'https://api.august.com/locks/5CF05DE352B546558AA3CC7BA18C44A1', 'status_code': 200, 'api_response_data': {'LockName': '242', 'Type': 15, 'Created': '2025-05-24T13:22:44.140Z', 'Updated': '2025-05-24T13:22:44.140Z', 'LockID': '5CF05DE352B546558AA3CC7BA18C44A1', 'HouseID': '97f02fea-fe79-4b35-87f2-2eb43733e26b', 'HouseName': 'Lake Villa ', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9355977177510795, 'batteryInfo': {'level': 0.9355977177510795, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T22:47:16.806Z', 'lastChangeDate': '2025-05-24T13:22:44.140Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-19T13:22:44.140Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '8c2adfba7273df408a9452c1e157310c', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:3B', 'SerialNumber': 'LFIEG001D2', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-01T22:47:15.662Z', 'isLockStatusChanged': True, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68406b4d8c7c0a35c6f5e5ad', 'mfgBridgeID': 'C8WAS0027H', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-16T17:10:02.537Z', 'updated': '2025-06-17T22:02:06.452Z', 'lastOnline': '2025-06-17T22:02:06.452Z'}, 'locks': [{'_id': '65c03a1a816397137dc9d2d6', 'macAddress': '98:1B:B5:76:86:3B', 'LockID': '5CF05DE352B546558AA3CC7BA18C44A1'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'a8e057fe-77db-4af0-8beb-1bed0d53656b', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L156" t="b">
@@ -9378,7 +9378,7 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '2E68B36606FC453CB35143751AD0F1A2', 'url_called': 'https://api.august.com/locks/2E68B36606FC453CB35143751AD0F1A2', 'status_code': 200, 'api_response_data': {'LockName': '243.1', 'Type': 15, 'Created': '2025-05-20T19:44:40.458Z', 'Updated': '2025-05-20T19:44:40.458Z', 'LockID': '2E68B36606FC453CB35143751AD0F1A2', 'HouseID': 'c27b9d29-6b4a-48e6-be75-7fa16ee78cd4', 'HouseName': 'Quincy', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9699441535994993, 'batteryInfo': {'level': 0.9699441535994993, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-28T21:16:15.937Z', 'lastChangeDate': '2025-05-20T19:44:40.458Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-15T19:44:40.458Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'df407df6e0fa5aa6ab7f0d94facaf866', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:6E', 'SerialNumber': 'LFIEG001R9', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T23:59:35.428Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '682cdd18103ad743afe287d1', 'mfgBridgeID': 'C8WAS00263', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-28T10:18:22.695Z', 'updated': '2025-06-28T10:19:12.970Z', 'lastOnline': '2025-06-28T10:19:12.970Z'}, 'locks': [{'_id': '65c03a1981639733ffc9d25e', 'macAddress': '98:1B:B5:76:87:6E', 'LockID': '2E68B36606FC453CB35143751AD0F1A2'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '15c28160-0660-4e11-8f3b-d01ac940ee95', 'ruleHash': {}, 'invitations': [{'invitationID': '4c59d3da-1b97-4e12-8145-62ead0897b0c', 'identifier': 'tel:+917990354874', 'deviceID': '2E68B36606FC453CB35143751AD0F1A2', 'deviceType': 'lock', 'rule': 'always', 'type': 'superuser', 'DateCreated': 1747925526386, 'callingUserID': 'f9d50410-134c-4452-8a14-02826f80de07', 'Name': 'Mitul Nakum ', 'createdAt': '2025-05-22T14:52:06.386Z', 'updatedAt': '2025-05-22T14:52:06.386Z'}], 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '2E68B36606FC453CB35143751AD0F1A2', 'url_called': 'https://api.august.com/locks/2E68B36606FC453CB35143751AD0F1A2', 'status_code': 200, 'api_response_data': {'LockName': '243.1', 'Type': 15, 'Created': '2025-05-20T19:44:40.458Z', 'Updated': '2025-05-20T19:44:40.458Z', 'LockID': '2E68B36606FC453CB35143751AD0F1A2', 'HouseID': 'c27b9d29-6b4a-48e6-be75-7fa16ee78cd4', 'HouseName': 'Quincy', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9687736455634877, 'batteryInfo': {'level': 0.9687736455634877, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-30T22:42:12.259Z', 'lastChangeDate': '2025-05-20T19:44:40.458Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-15T19:44:40.458Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'df407df6e0fa5aa6ab7f0d94facaf866', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:6E', 'SerialNumber': 'LFIEG001R9', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T00:33:00.150Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '682cdd18103ad743afe287d1', 'mfgBridgeID': 'C8WAS00263', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-30T12:31:36.017Z', 'updated': '2025-06-30T12:32:47.658Z', 'lastOnline': '2025-06-30T12:32:47.658Z'}, 'locks': [{'_id': '65c03a1981639733ffc9d25e', 'macAddress': '98:1B:B5:76:87:6E', 'LockID': '2E68B36606FC453CB35143751AD0F1A2'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '15c28160-0660-4e11-8f3b-d01ac940ee95', 'ruleHash': {}, 'invitations': [{'invitationID': '4c59d3da-1b97-4e12-8145-62ead0897b0c', 'identifier': 'tel:+917990354874', 'deviceID': '2E68B36606FC453CB35143751AD0F1A2', 'deviceType': 'lock', 'rule': 'always', 'type': 'superuser', 'DateCreated': 1747925526386, 'callingUserID': 'f9d50410-134c-4452-8a14-02826f80de07', 'Name': 'Mitul Nakum ', 'createdAt': '2025-05-22T14:52:06.386Z', 'updatedAt': '2025-05-22T14:52:06.386Z'}], 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L162" t="b">
@@ -9764,7 +9764,7 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '6F51BDF68ABC411A8D00C6A5C856D5FB', 'url_called': 'https://api.august.com/locks/6F51BDF68ABC411A8D00C6A5C856D5FB', 'status_code': 200, 'api_response_data': {'LockName': '243.2', 'Type': 15, 'Created': '2025-05-20T19:29:10.740Z', 'Updated': '2025-05-20T19:29:10.740Z', 'LockID': '6F51BDF68ABC411A8D00C6A5C856D5FB', 'HouseID': 'c27b9d29-6b4a-48e6-be75-7fa16ee78cd4', 'HouseName': 'Quincy', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.937744174098043, 'batteryInfo': {'level': 0.937744174098043, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-29T13:37:40.092Z', 'lastChangeDate': '2025-05-20T19:29:10.740Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-15T19:29:10.740Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '94e3cb38294a400c873fc454cbd506b6', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:49', 'SerialNumber': 'LFIEG001Q2', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-30T00:21:25.465Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '682cd9945b34545986eb6813', 'mfgBridgeID': 'C8WAS0026W', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T21:16:58.851Z', 'updated': '2025-06-26T21:17:32.556Z', 'lastOnline': '2025-06-26T21:17:32.556Z'}, 'locks': [{'_id': '65c03a19816397d60cc9d276', 'macAddress': '98:1B:B5:76:87:49', 'LockID': '6F51BDF68ABC411A8D00C6A5C856D5FB'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'c461642f-1f87-4e85-aa59-2768ba5224fb', 'ruleHash': {}, 'invitations': [{'invitationID': '4b28c6cb-7cf8-4fde-bfa7-528c205b2f00', 'identifier': 'tel:+917990354874', 'deviceID': '6F51BDF68ABC411A8D00C6A5C856D5FB', 'deviceType': 'lock', 'rule': 'always', 'type': 'superuser', 'DateCreated': 1747925529951, 'callingUserID': 'f9d50410-134c-4452-8a14-02826f80de07', 'Name': 'Mitul Nakum ', 'createdAt': '2025-05-22T14:52:09.951Z', 'updatedAt': '2025-05-22T14:52:09.951Z'}], 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '6F51BDF68ABC411A8D00C6A5C856D5FB', 'url_called': 'https://api.august.com/locks/6F51BDF68ABC411A8D00C6A5C856D5FB', 'status_code': 200, 'api_response_data': {'LockName': '243.2', 'Type': 15, 'Created': '2025-05-20T19:29:10.740Z', 'Updated': '2025-05-20T19:29:10.740Z', 'LockID': '6F51BDF68ABC411A8D00C6A5C856D5FB', 'HouseID': 'c27b9d29-6b4a-48e6-be75-7fa16ee78cd4', 'HouseName': 'Quincy', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9417678528589022, 'batteryInfo': {'level': 0.9417678528589022, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T23:00:16.781Z', 'lastChangeDate': '2025-05-20T19:29:10.740Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-15T19:29:10.740Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '94e3cb38294a400c873fc454cbd506b6', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:49', 'SerialNumber': 'LFIEG001Q2', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-01T23:00:14.946Z', 'isLockStatusChanged': True, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '682cd9945b34545986eb6813', 'mfgBridgeID': 'C8WAS0026W', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T21:16:58.851Z', 'updated': '2025-06-26T21:17:32.556Z', 'lastOnline': '2025-06-26T21:17:32.556Z'}, 'locks': [{'_id': '65c03a19816397d60cc9d276', 'macAddress': '98:1B:B5:76:87:49', 'LockID': '6F51BDF68ABC411A8D00C6A5C856D5FB'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'c461642f-1f87-4e85-aa59-2768ba5224fb', 'ruleHash': {}, 'invitations': [{'invitationID': '4b28c6cb-7cf8-4fde-bfa7-528c205b2f00', 'identifier': 'tel:+917990354874', 'deviceID': '6F51BDF68ABC411A8D00C6A5C856D5FB', 'deviceType': 'lock', 'rule': 'always', 'type': 'superuser', 'DateCreated': 1747925529951, 'callingUserID': 'f9d50410-134c-4452-8a14-02826f80de07', 'Name': 'Mitul Nakum ', 'createdAt': '2025-05-22T14:52:09.951Z', 'updatedAt': '2025-05-22T14:52:09.951Z'}], 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L169" t="b">
@@ -10096,7 +10096,7 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': 'B093D5045E754033BC2427754E957899', 'url_called': 'https://api.august.com/locks/B093D5045E754033BC2427754E957899', 'status_code': 200, 'api_response_data': {'LockName': '244', 'Type': 15, 'Created': '2025-05-20T19:59:14.088Z', 'Updated': '2025-05-20T19:59:14.088Z', 'LockID': 'B093D5045E754033BC2427754E957899', 'HouseID': 'c27b9d29-6b4a-48e6-be75-7fa16ee78cd4', 'HouseName': 'Quincy', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9520185726469208, 'batteryInfo': {'level': 0.9520185726469208, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T23:02:03.744Z', 'lastChangeDate': '2025-05-20T19:59:14.088Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-15T19:59:14.088Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'df38ea9b41e16d02cb9182020fa00197', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:68', 'SerialNumber': 'LFIEG001R3', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T20:13:34.034Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '682ce06d1a8ef512f491a343', 'mfgBridgeID': 'C8WAS00277', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T01:07:33.742Z', 'updated': '2025-06-26T01:08:06.954Z', 'lastOnline': '2025-06-26T01:08:06.954Z'}, 'locks': [{'_id': '65c03a193c112b2f9fbfc3fb', 'macAddress': '98:1B:B5:76:87:68', 'LockID': 'B093D5045E754033BC2427754E957899'}], 'enhancedStatus': {'WifiModuleConnectionIssueCount': 2}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '65c8fd29-bb25-4577-b117-ba1a51759e15', 'ruleHash': {}, 'invitations': [{'invitationID': '23b991a8-dd5a-4c09-a208-4dbef1bd7a94', 'identifier': 'tel:+917990354874', 'deviceID': 'B093D5045E754033BC2427754E957899', 'deviceType': 'lock', 'rule': 'always', 'type': 'superuser', 'DateCreated': 1747925525646, 'callingUserID': 'f9d50410-134c-4452-8a14-02826f80de07', 'Name': 'Mitul Nakum ', 'createdAt': '2025-05-22T14:52:05.646Z', 'updatedAt': '2025-05-22T14:52:05.646Z'}], 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': 'B093D5045E754033BC2427754E957899', 'url_called': 'https://api.august.com/locks/B093D5045E754033BC2427754E957899', 'status_code': 200, 'api_response_data': {'LockName': '244', 'Type': 15, 'Created': '2025-05-20T19:59:14.088Z', 'Updated': '2025-05-20T19:59:14.088Z', 'LockID': 'B093D5045E754033BC2427754E957899', 'HouseID': 'c27b9d29-6b4a-48e6-be75-7fa16ee78cd4', 'HouseName': 'Quincy', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9488677508088585, 'batteryInfo': {'level': 0.9488677508088585, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-30T19:02:19.594Z', 'lastChangeDate': '2025-05-20T19:59:14.088Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-15T19:59:14.088Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'df38ea9b41e16d02cb9182020fa00197', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:68', 'SerialNumber': 'LFIEG001R3', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-01T20:13:42.834Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '682ce06d1a8ef512f491a343', 'mfgBridgeID': 'C8WAS00277', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T01:07:33.742Z', 'updated': '2025-06-26T01:08:06.954Z', 'lastOnline': '2025-06-26T01:08:06.954Z'}, 'locks': [{'_id': '65c03a193c112b2f9fbfc3fb', 'macAddress': '98:1B:B5:76:87:68', 'LockID': 'B093D5045E754033BC2427754E957899'}], 'enhancedStatus': {'WifiModuleConnectionIssueCount': 2}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '65c8fd29-bb25-4577-b117-ba1a51759e15', 'ruleHash': {}, 'invitations': [{'invitationID': '23b991a8-dd5a-4c09-a208-4dbef1bd7a94', 'identifier': 'tel:+917990354874', 'deviceID': 'B093D5045E754033BC2427754E957899', 'deviceType': 'lock', 'rule': 'always', 'type': 'superuser', 'DateCreated': 1747925525646, 'callingUserID': 'f9d50410-134c-4452-8a14-02826f80de07', 'Name': 'Mitul Nakum ', 'createdAt': '2025-05-22T14:52:05.646Z', 'updatedAt': '2025-05-22T14:52:05.646Z'}], 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L175" t="b">
@@ -10428,7 +10428,7 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '17D0B3E68FF147FD9041609B84A9D3D0', 'url_called': 'https://api.august.com/locks/17D0B3E68FF147FD9041609B84A9D3D0', 'status_code': 200, 'api_response_data': {'LockName': '245', 'Type': 15, 'Created': '2025-05-20T20:14:35.159Z', 'Updated': '2025-05-20T20:14:35.159Z', 'LockID': '17D0B3E68FF147FD9041609B84A9D3D0', 'HouseID': 'c27b9d29-6b4a-48e6-be75-7fa16ee78cd4', 'HouseName': 'Quincy', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9417678528589022, 'batteryInfo': {'level': 0.9417678528589022, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T23:01:56.950Z', 'lastChangeDate': '2025-05-20T20:14:35.159Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-15T20:14:35.159Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'f2a30b6bd794ab3c4de2b3ba88ae8722', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:1B', 'SerialNumber': 'LFIEG001C0', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T22:06:18.612Z', 'isLockStatusChanged': True, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '682ce4257aaa7aa80ef3b2dd', 'mfgBridgeID': 'C8WAS00268', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-29T22:04:23.634Z', 'updated': '2025-06-29T22:06:12.736Z', 'lastOnline': '2025-06-29T22:06:12.736Z'}, 'locks': [{'_id': '65c03a1a8163978081c9d2e0', 'macAddress': '98:1B:B5:76:86:1B', 'LockID': '17D0B3E68FF147FD9041609B84A9D3D0'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '73122d63-8382-40b6-9df4-6d7779ff8df8', 'ruleHash': {}, 'invitations': [{'invitationID': 'aee5dae5-b039-4bfa-80b7-4f37435fef03', 'identifier': 'tel:+917990354874', 'deviceID': '17D0B3E68FF147FD9041609B84A9D3D0', 'deviceType': 'lock', 'rule': 'always', 'type': 'superuser', 'DateCreated': 1747925530836, 'callingUserID': 'f9d50410-134c-4452-8a14-02826f80de07', 'Name': 'Mitul Nakum ', 'createdAt': '2025-05-22T14:52:10.836Z', 'updatedAt': '2025-05-22T14:52:10.836Z'}], 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '17D0B3E68FF147FD9041609B84A9D3D0', 'url_called': 'https://api.august.com/locks/17D0B3E68FF147FD9041609B84A9D3D0', 'status_code': 200, 'api_response_data': {'LockName': '245', 'Type': 15, 'Created': '2025-05-20T20:14:35.159Z', 'Updated': '2025-05-20T20:14:35.159Z', 'LockID': '17D0B3E68FF147FD9041609B84A9D3D0', 'HouseID': 'c27b9d29-6b4a-48e6-be75-7fa16ee78cd4', 'HouseName': 'Quincy', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9417678528589022, 'batteryInfo': {'level': 0.9417678528589022, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T14:11:40.962Z', 'lastChangeDate': '2025-05-20T20:14:35.159Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-15T20:14:35.159Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'f2a30b6bd794ab3c4de2b3ba88ae8722', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:1B', 'SerialNumber': 'LFIEG001C0', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-01T22:06:29.543Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '682ce4257aaa7aa80ef3b2dd', 'mfgBridgeID': 'C8WAS00268', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-29T22:04:23.634Z', 'updated': '2025-06-29T22:06:12.736Z', 'lastOnline': '2025-06-29T22:06:12.736Z'}, 'locks': [{'_id': '65c03a1a8163978081c9d2e0', 'macAddress': '98:1B:B5:76:86:1B', 'LockID': '17D0B3E68FF147FD9041609B84A9D3D0'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '73122d63-8382-40b6-9df4-6d7779ff8df8', 'ruleHash': {}, 'invitations': [{'invitationID': 'aee5dae5-b039-4bfa-80b7-4f37435fef03', 'identifier': 'tel:+917990354874', 'deviceID': '17D0B3E68FF147FD9041609B84A9D3D0', 'deviceType': 'lock', 'rule': 'always', 'type': 'superuser', 'DateCreated': 1747925530836, 'callingUserID': 'f9d50410-134c-4452-8a14-02826f80de07', 'Name': 'Mitul Nakum ', 'createdAt': '2025-05-22T14:52:10.836Z', 'updatedAt': '2025-05-22T14:52:10.836Z'}], 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L181" t="b">
@@ -10814,7 +10814,7 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '83274CBA537D4B5CB1C55B1AF7DC53D2', 'url_called': 'https://api.august.com/locks/83274CBA537D4B5CB1C55B1AF7DC53D2', 'status_code': 200, 'api_response_data': {'LockName': '246', 'Type': 15, 'Created': '2025-05-20T20:25:26.453Z', 'Updated': '2025-05-20T20:25:26.453Z', 'LockID': '83274CBA537D4B5CB1C55B1AF7DC53D2', 'HouseID': 'c27b9d29-6b4a-48e6-be75-7fa16ee78cd4', 'HouseName': 'Quincy', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9520185726469208, 'batteryInfo': {'level': 0.9520185726469208, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T23:01:50.127Z', 'lastChangeDate': '2025-05-20T20:25:26.453Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-15T20:25:26.453Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '1317ec417e86fae88f7508a1eb5ae4f4', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:85:25', 'SerialNumber': 'LFIEG0012T', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T20:42:47.166Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '682ce6ec3ab67d1927c12a37', 'mfgBridgeID': 'C8WC1004WD', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-12T13:21:11.351Z', 'updated': '2025-06-17T22:02:05.040Z', 'lastOnline': '2025-06-17T22:02:05.040Z'}, 'locks': [{'_id': '65c03a1a816397e9b9c9d345', 'macAddress': '98:1B:B5:76:85:25', 'LockID': '83274CBA537D4B5CB1C55B1AF7DC53D2'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '5361234d-5749-4962-932a-e05162d8bed6', 'ruleHash': {}, 'invitations': [{'invitationID': '35688046-15a0-44b2-8e1c-9b6e82df05fc', 'identifier': 'tel:+917990354874', 'deviceID': '83274CBA537D4B5CB1C55B1AF7DC53D2', 'deviceType': 'lock', 'rule': 'always', 'type': 'superuser', 'DateCreated': 1747925527303, 'callingUserID': 'f9d50410-134c-4452-8a14-02826f80de07', 'Name': 'Mitul Nakum ', 'createdAt': '2025-05-22T14:52:07.303Z', 'updatedAt': '2025-05-22T14:52:07.303Z'}], 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '83274CBA537D4B5CB1C55B1AF7DC53D2', 'url_called': 'https://api.august.com/locks/83274CBA537D4B5CB1C55B1AF7DC53D2', 'status_code': 200, 'api_response_data': {'LockName': '246', 'Type': 15, 'Created': '2025-05-20T20:25:26.453Z', 'Updated': '2025-05-20T20:25:26.453Z', 'LockID': '83274CBA537D4B5CB1C55B1AF7DC53D2', 'HouseID': 'c27b9d29-6b4a-48e6-be75-7fa16ee78cd4', 'HouseName': 'Quincy', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9504725386759674, 'batteryInfo': {'level': 0.9504725386759674, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-30T23:01:10.865Z', 'lastChangeDate': '2025-05-20T20:25:26.453Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-15T20:25:26.453Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '1317ec417e86fae88f7508a1eb5ae4f4', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:85:25', 'SerialNumber': 'LFIEG0012T', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-01T20:48:00.951Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '682ce6ec3ab67d1927c12a37', 'mfgBridgeID': 'C8WC1004WD', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-30T08:47:29.334Z', 'updated': '2025-06-30T08:47:44.160Z', 'lastOnline': '2025-06-30T08:47:44.160Z'}, 'locks': [{'_id': '65c03a1a816397e9b9c9d345', 'macAddress': '98:1B:B5:76:85:25', 'LockID': '83274CBA537D4B5CB1C55B1AF7DC53D2'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '5361234d-5749-4962-932a-e05162d8bed6', 'ruleHash': {}, 'invitations': [{'invitationID': '35688046-15a0-44b2-8e1c-9b6e82df05fc', 'identifier': 'tel:+917990354874', 'deviceID': '83274CBA537D4B5CB1C55B1AF7DC53D2', 'deviceType': 'lock', 'rule': 'always', 'type': 'superuser', 'DateCreated': 1747925527303, 'callingUserID': 'f9d50410-134c-4452-8a14-02826f80de07', 'Name': 'Mitul Nakum ', 'createdAt': '2025-05-22T14:52:07.303Z', 'updatedAt': '2025-05-22T14:52:07.303Z'}], 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L188" t="b">
@@ -11532,7 +11532,7 @@
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '89478142C9594FAD9210FF79E422496E', 'url_called': 'https://api.august.com/locks/89478142C9594FAD9210FF79E422496E', 'status_code': 200, 'api_response_data': {'LockName': '248', 'Type': 15, 'Created': '2025-05-20T20:51:18.441Z', 'Updated': '2025-05-20T20:51:18.441Z', 'LockID': '89478142C9594FAD9210FF79E422496E', 'HouseID': 'c27b9d29-6b4a-48e6-be75-7fa16ee78cd4', 'HouseName': 'Quincy', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9471995585117838, 'batteryInfo': {'level': 0.9471995585117838, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T23:01:43.694Z', 'lastChangeDate': '2025-05-20T20:51:18.441Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-15T20:51:18.441Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '146e8dbb65b8c15df8b531f045fa7f55', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:85:B0', 'SerialNumber': 'LFIEG0017E', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T21:29:33.946Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '682ced3574defa71529d391c', 'mfgBridgeID': 'C8WC1004W3', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-27T21:28:19.325Z', 'updated': '2025-06-27T21:29:15.854Z', 'lastOnline': '2025-06-27T21:29:15.854Z'}, 'locks': [{'_id': '65c03a1a816397def0c9d30d', 'macAddress': '98:1B:B5:76:85:B0', 'LockID': '89478142C9594FAD9210FF79E422496E'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '06a11c72-7a8f-4f76-ae44-da510f5b43ed', 'ruleHash': {}, 'invitations': [{'invitationID': 'c7a8f09a-b816-408f-90bd-808017b4288e', 'identifier': 'tel:+917990354874', 'deviceID': '89478142C9594FAD9210FF79E422496E', 'deviceType': 'lock', 'rule': 'always', 'type': 'superuser', 'DateCreated': 1747925530401, 'callingUserID': 'f9d50410-134c-4452-8a14-02826f80de07', 'Name': 'Mitul Nakum ', 'createdAt': '2025-05-22T14:52:10.401Z', 'updatedAt': '2025-05-22T14:52:10.401Z'}], 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '89478142C9594FAD9210FF79E422496E', 'url_called': 'https://api.august.com/locks/89478142C9594FAD9210FF79E422496E', 'status_code': 200, 'api_response_data': {'LockName': '248', 'Type': 15, 'Created': '2025-05-20T20:51:18.441Z', 'Updated': '2025-05-20T20:51:18.441Z', 'LockID': '89478142C9594FAD9210FF79E422496E', 'HouseID': 'c27b9d29-6b4a-48e6-be75-7fa16ee78cd4', 'HouseName': 'Quincy', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9454632933266112, 'batteryInfo': {'level': 0.9454632933266112, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T20:39:50.644Z', 'lastChangeDate': '2025-05-20T20:51:18.441Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-15T20:51:18.441Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '146e8dbb65b8c15df8b531f045fa7f55', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:85:B0', 'SerialNumber': 'LFIEG0017E', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-01T21:29:45.661Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '682ced3574defa71529d391c', 'mfgBridgeID': 'C8WC1004W3', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-27T21:28:19.325Z', 'updated': '2025-06-27T21:29:15.854Z', 'lastOnline': '2025-06-27T21:29:15.854Z'}, 'locks': [{'_id': '65c03a1a816397def0c9d30d', 'macAddress': '98:1B:B5:76:85:B0', 'LockID': '89478142C9594FAD9210FF79E422496E'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '06a11c72-7a8f-4f76-ae44-da510f5b43ed', 'ruleHash': {}, 'invitations': [{'invitationID': 'c7a8f09a-b816-408f-90bd-808017b4288e', 'identifier': 'tel:+917990354874', 'deviceID': '89478142C9594FAD9210FF79E422496E', 'deviceType': 'lock', 'rule': 'always', 'type': 'superuser', 'DateCreated': 1747925530401, 'callingUserID': 'f9d50410-134c-4452-8a14-02826f80de07', 'Name': 'Mitul Nakum ', 'createdAt': '2025-05-22T14:52:10.401Z', 'updatedAt': '2025-05-22T14:52:10.401Z'}], 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L201" t="b">
@@ -11918,7 +11918,7 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '56BD5DC0BF0A404899B3DFA2C26561A1', 'url_called': 'https://api.august.com/locks/56BD5DC0BF0A404899B3DFA2C26561A1', 'status_code': 200, 'api_response_data': {'LockName': '249', 'Type': 15, 'Created': '2025-05-20T21:03:20.163Z', 'Updated': '2025-05-20T21:03:20.163Z', 'LockID': '56BD5DC0BF0A404899B3DFA2C26561A1', 'HouseID': 'c27b9d29-6b4a-48e6-be75-7fa16ee78cd4', 'HouseName': 'Quincy', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9535104728274746, 'batteryInfo': {'level': 0.9535104728274746, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T23:01:34.189Z', 'lastChangeDate': '2025-05-20T21:03:20.163Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-15T21:03:20.163Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '0497d1127f7f43279fdf38bde6350e39', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:15', 'SerialNumber': 'LFIEG001AT', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T21:14:32.527Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '682cef75dd684b1400ecb167', 'mfgBridgeID': 'C8WAS0027Q', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-12T20:47:14.212Z', 'updated': '2025-06-17T22:02:04.415Z', 'lastOnline': '2025-06-17T22:02:04.415Z'}, 'locks': [{'_id': '65c03a1a8163974aadc9d2e3', 'macAddress': '98:1B:B5:76:86:15', 'LockID': '56BD5DC0BF0A404899B3DFA2C26561A1'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '0b6f98a8-66e2-41f7-853a-5fb291804748', 'ruleHash': {}, 'invitations': [{'invitationID': '05956294-4d52-4edc-ab51-cc00611d745b', 'identifier': 'tel:+917990354874', 'deviceID': '56BD5DC0BF0A404899B3DFA2C26561A1', 'deviceType': 'lock', 'rule': 'always', 'type': 'superuser', 'DateCreated': 1747925525056, 'callingUserID': 'f9d50410-134c-4452-8a14-02826f80de07', 'Name': 'Mitul Nakum ', 'createdAt': '2025-05-22T14:52:05.056Z', 'updatedAt': '2025-05-22T14:52:05.056Z'}], 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '56BD5DC0BF0A404899B3DFA2C26561A1', 'url_called': 'https://api.august.com/locks/56BD5DC0BF0A404899B3DFA2C26561A1', 'status_code': 200, 'api_response_data': {'LockName': '249', 'Type': 15, 'Created': '2025-05-20T21:03:20.163Z', 'Updated': '2025-05-20T21:03:20.163Z', 'LockID': '56BD5DC0BF0A404899B3DFA2C26561A1', 'HouseID': 'c27b9d29-6b4a-48e6-be75-7fa16ee78cd4', 'HouseName': 'Quincy', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9504725386759674, 'batteryInfo': {'level': 0.9504725386759674, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T23:01:18.248Z', 'lastChangeDate': '2025-05-20T21:03:20.163Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-15T21:03:20.163Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '0497d1127f7f43279fdf38bde6350e39', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:15', 'SerialNumber': 'LFIEG001AT', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-01T23:01:16.739Z', 'isLockStatusChanged': True, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '682cef75dd684b1400ecb167', 'mfgBridgeID': 'C8WAS0027Q', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-30T20:30:09.981Z', 'updated': '2025-06-30T20:32:40.171Z', 'lastOnline': '2025-06-30T20:32:40.171Z'}, 'locks': [{'_id': '65c03a1a8163974aadc9d2e3', 'macAddress': '98:1B:B5:76:86:15', 'LockID': '56BD5DC0BF0A404899B3DFA2C26561A1'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '0b6f98a8-66e2-41f7-853a-5fb291804748', 'ruleHash': {}, 'invitations': [{'invitationID': '05956294-4d52-4edc-ab51-cc00611d745b', 'identifier': 'tel:+917990354874', 'deviceID': '56BD5DC0BF0A404899B3DFA2C26561A1', 'deviceType': 'lock', 'rule': 'always', 'type': 'superuser', 'DateCreated': 1747925525056, 'callingUserID': 'f9d50410-134c-4452-8a14-02826f80de07', 'Name': 'Mitul Nakum ', 'createdAt': '2025-05-22T14:52:05.056Z', 'updatedAt': '2025-05-22T14:52:05.056Z'}], 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L208" t="b">
@@ -12304,7 +12304,7 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '2AA7F0575793436EA22B94827A69380B', 'url_called': 'https://api.august.com/locks/2AA7F0575793436EA22B94827A69380B', 'status_code': 200, 'api_response_data': {'LockName': '250', 'Type': 15, 'Created': '2025-05-20T21:13:48.576Z', 'Updated': '2025-05-20T21:13:48.576Z', 'LockID': '2AA7F0575793436EA22B94827A69380B', 'HouseID': 'c27b9d29-6b4a-48e6-be75-7fa16ee78cd4', 'HouseName': 'Quincy', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9471995585117838, 'batteryInfo': {'level': 0.9471995585117838, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-28T17:05:08.233Z', 'lastChangeDate': '2025-05-20T21:13:48.576Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-15T21:13:48.576Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '9c732182bd8f1b97a1073149ac469e95', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:75:49:B9', 'SerialNumber': 'LFICQ0018L', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T21:32:45.931Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '682cf2bdd85dec4249e46392', 'mfgBridgeID': 'C8WC1004WA', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-29T09:32:15.743Z', 'updated': '2025-06-29T09:32:33.153Z', 'lastOnline': '2025-06-29T09:32:33.153Z'}, 'locks': [{'_id': '660239130924f88ffeb0052c', 'macAddress': '98:1B:B5:75:49:B9', 'LockID': '2AA7F0575793436EA22B94827A69380B'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '92c33a99-181d-44e5-ae77-0eb3b06a7382', 'ruleHash': {}, 'invitations': [{'invitationID': 'c6ca6004-8273-41cf-bd25-e99093529d52', 'identifier': 'tel:+917990354874', 'deviceID': '2AA7F0575793436EA22B94827A69380B', 'deviceType': 'lock', 'rule': 'always', 'type': 'superuser', 'DateCreated': 1747925527973, 'callingUserID': 'f9d50410-134c-4452-8a14-02826f80de07', 'Name': 'Mitul Nakum ', 'createdAt': '2025-05-22T14:52:07.973Z', 'updatedAt': '2025-05-22T14:52:07.973Z'}], 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '2AA7F0575793436EA22B94827A69380B', 'url_called': 'https://api.august.com/locks/2AA7F0575793436EA22B94827A69380B', 'status_code': 200, 'api_response_data': {'LockName': '250', 'Type': 15, 'Created': '2025-05-20T21:13:48.576Z', 'Updated': '2025-05-20T21:13:48.576Z', 'LockID': '2AA7F0575793436EA22B94827A69380B', 'HouseID': 'c27b9d29-6b4a-48e6-be75-7fa16ee78cd4', 'HouseName': 'Quincy', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9454632933266112, 'batteryInfo': {'level': 0.9454632933266112, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T17:09:38.995Z', 'lastChangeDate': '2025-05-20T21:13:48.576Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-15T21:13:48.576Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '9c732182bd8f1b97a1073149ac469e95', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:75:49:B9', 'SerialNumber': 'LFICQ0018L', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-01T21:41:00.293Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '682cf2bdd85dec4249e46392', 'mfgBridgeID': 'C8WC1004WA', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-30T09:38:22.579Z', 'updated': '2025-06-30T09:40:36.149Z', 'lastOnline': '2025-06-30T09:40:36.149Z'}, 'locks': [{'_id': '660239130924f88ffeb0052c', 'macAddress': '98:1B:B5:75:49:B9', 'LockID': '2AA7F0575793436EA22B94827A69380B'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '92c33a99-181d-44e5-ae77-0eb3b06a7382', 'ruleHash': {}, 'invitations': [{'invitationID': 'c6ca6004-8273-41cf-bd25-e99093529d52', 'identifier': 'tel:+917990354874', 'deviceID': '2AA7F0575793436EA22B94827A69380B', 'deviceType': 'lock', 'rule': 'always', 'type': 'superuser', 'DateCreated': 1747925527973, 'callingUserID': 'f9d50410-134c-4452-8a14-02826f80de07', 'Name': 'Mitul Nakum ', 'createdAt': '2025-05-22T14:52:07.973Z', 'updatedAt': '2025-05-22T14:52:07.973Z'}], 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L215" t="b">
@@ -12636,7 +12636,7 @@
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': 'D1D87F1F121D4FFF9407C16608F1A2A4', 'url_called': 'https://api.august.com/locks/D1D87F1F121D4FFF9407C16608F1A2A4', 'status_code': 200, 'api_response_data': {'LockName': '251', 'Type': 15, 'Created': '2025-05-21T13:55:49.162Z', 'Updated': '2025-05-21T13:55:49.162Z', 'LockID': 'D1D87F1F121D4FFF9407C16608F1A2A4', 'HouseID': 'c27b9d29-6b4a-48e6-be75-7fa16ee78cd4', 'HouseName': 'Quincy', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9260094697820023, 'batteryInfo': {'level': 0.9260094697820023, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-28T23:31:06.297Z', 'lastChangeDate': '2025-05-21T13:55:49.162Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-16T13:55:49.162Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'd4f5fbb9eb6aab88e14c5c820d7e80c6', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:75:49:BA', 'SerialNumber': 'LFICQ0018P', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T23:42:59.647Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '682ddcc43e875f431d80734c', 'mfgBridgeID': 'C8WC1004WE', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-27T11:40:36.235Z', 'updated': '2025-06-27T11:41:09.591Z', 'lastOnline': '2025-06-27T11:41:09.591Z'}, 'locks': [{'_id': '660239130924f8af2fb0052e', 'macAddress': '98:1B:B5:75:49:BA', 'LockID': 'D1D87F1F121D4FFF9407C16608F1A2A4'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'caf93293-3a4e-4630-abef-05145aca2801', 'ruleHash': {}, 'invitations': [{'invitationID': '3415848a-6e9a-4dba-97f8-323ebbb08b4f', 'identifier': 'tel:+917990354874', 'deviceID': 'D1D87F1F121D4FFF9407C16608F1A2A4', 'deviceType': 'lock', 'rule': 'always', 'type': 'superuser', 'DateCreated': 1747925531957, 'callingUserID': 'f9d50410-134c-4452-8a14-02826f80de07', 'Name': 'Mitul Nakum ', 'createdAt': '2025-05-22T14:52:11.957Z', 'updatedAt': '2025-05-22T14:52:11.957Z'}], 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': 'D1D87F1F121D4FFF9407C16608F1A2A4', 'url_called': 'https://api.august.com/locks/D1D87F1F121D4FFF9407C16608F1A2A4', 'status_code': 200, 'api_response_data': {'LockName': '251', 'Type': 15, 'Created': '2025-05-21T13:55:49.162Z', 'Updated': '2025-05-21T13:55:49.162Z', 'LockID': 'D1D87F1F121D4FFF9407C16608F1A2A4', 'HouseID': 'c27b9d29-6b4a-48e6-be75-7fa16ee78cd4', 'HouseName': 'Quincy', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9260094697820023, 'batteryInfo': {'level': 0.9260094697820023, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T22:02:16.048Z', 'lastChangeDate': '2025-05-21T13:55:49.162Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-16T13:55:49.162Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'd4f5fbb9eb6aab88e14c5c820d7e80c6', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:75:49:BA', 'SerialNumber': 'LFICQ0018P', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-01T23:43:11.286Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '682ddcc43e875f431d80734c', 'mfgBridgeID': 'C8WC1004WE', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-30T11:40:50.726Z', 'updated': '2025-06-30T11:41:24.037Z', 'lastOnline': '2025-06-30T11:41:24.037Z'}, 'locks': [{'_id': '660239130924f8af2fb0052e', 'macAddress': '98:1B:B5:75:49:BA', 'LockID': 'D1D87F1F121D4FFF9407C16608F1A2A4'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'caf93293-3a4e-4630-abef-05145aca2801', 'ruleHash': {}, 'invitations': [{'invitationID': '3415848a-6e9a-4dba-97f8-323ebbb08b4f', 'identifier': 'tel:+917990354874', 'deviceID': 'D1D87F1F121D4FFF9407C16608F1A2A4', 'deviceType': 'lock', 'rule': 'always', 'type': 'superuser', 'DateCreated': 1747925531957, 'callingUserID': 'f9d50410-134c-4452-8a14-02826f80de07', 'Name': 'Mitul Nakum ', 'createdAt': '2025-05-22T14:52:11.957Z', 'updatedAt': '2025-05-22T14:52:11.957Z'}], 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L221" t="b">
@@ -14404,7 +14404,7 @@
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '5D796E6C02D8446EA8CCC0FFE79373D6', 'url_called': 'https://api.august.com/locks/5D796E6C02D8446EA8CCC0FFE79373D6', 'status_code': 200, 'api_response_data': {'LockName': '324', 'Type': 15, 'Created': '2025-05-28T15:36:19.167Z', 'Updated': '2025-05-28T15:36:19.167Z', 'LockID': '5D796E6C02D8446EA8CCC0FFE79373D6', 'HouseID': '7e7708c6-eb80-4c11-8b4a-b89e0aa2f9ac', 'HouseName': 'Rye', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9417678528589022, 'batteryInfo': {'level': 0.9417678528589022, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T20:07:47.428Z', 'lastChangeDate': '2025-05-28T15:36:19.167Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T15:36:19.167Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '84314858835858cd5aad1fe9b952acc9', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:92', 'SerialNumber': 'LFIEG001SG', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T18:03:04.206Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68372efe05b02816eb237b42', 'mfgBridgeID': 'C8WC1004YP', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T17:55:26.242Z', 'updated': '2025-06-26T17:56:01.833Z', 'lastOnline': '2025-06-26T17:56:01.833Z'}, 'locks': [{'_id': '65c03a198163975cf9c9d249', 'macAddress': '98:1B:B5:76:87:92', 'LockID': '5D796E6C02D8446EA8CCC0FFE79373D6'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '170773ba-c273-43cb-a408-add2b67c1ec1', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '5D796E6C02D8446EA8CCC0FFE79373D6', 'url_called': 'https://api.august.com/locks/5D796E6C02D8446EA8CCC0FFE79373D6', 'status_code': 200, 'api_response_data': {'LockName': '324', 'Type': 15, 'Created': '2025-05-28T15:36:19.167Z', 'Updated': '2025-05-28T15:36:19.167Z', 'LockID': '5D796E6C02D8446EA8CCC0FFE79373D6', 'HouseID': '7e7708c6-eb80-4c11-8b4a-b89e0aa2f9ac', 'HouseName': 'Rye', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9417678528589022, 'batteryInfo': {'level': 0.9417678528589022, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-30T15:04:28.830Z', 'lastChangeDate': '2025-05-28T15:36:19.167Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T15:36:19.167Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '84314858835858cd5aad1fe9b952acc9', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:92', 'SerialNumber': 'LFIEG001SG', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T06:03:19.240Z', 'isLockStatusChanged': True, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68372efe05b02816eb237b42', 'mfgBridgeID': 'C8WC1004YP', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-30T20:29:11.240Z', 'updated': '2025-06-30T21:39:37.474Z', 'lastOnline': '2025-06-30T21:39:37.474Z'}, 'locks': [{'_id': '65c03a198163975cf9c9d249', 'macAddress': '98:1B:B5:76:87:92', 'LockID': '5D796E6C02D8446EA8CCC0FFE79373D6'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '170773ba-c273-43cb-a408-add2b67c1ec1', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L253" t="b">
@@ -14520,7 +14520,7 @@
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '10134616C7314E2CBC744ACD52178B2D', 'url_called': 'https://api.august.com/locks/10134616C7314E2CBC744ACD52178B2D', 'status_code': 200, 'api_response_data': {'LockName': '325', 'Type': 15, 'Created': '2025-05-28T15:26:20.909Z', 'Updated': '2025-05-28T15:26:20.909Z', 'LockID': '10134616C7314E2CBC744ACD52178B2D', 'HouseID': '7e7708c6-eb80-4c11-8b4a-b89e0aa2f9ac', 'HouseName': 'Rye', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9333554558324977, 'batteryInfo': {'level': 0.9333554558324977, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T20:01:24.128Z', 'lastChangeDate': '2025-05-28T15:26:20.909Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T15:26:20.909Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '1f423f9e7c3d708a1b224e01b9a738b4', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:70', 'SerialNumber': 'LFIEG001RC', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T18:00:37.201Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68372c9f49918d9a5bee05f0', 'mfgBridgeID': 'C8WC1004XU', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T06:58:14.419Z', 'updated': '2025-06-26T06:59:47.159Z', 'lastOnline': '2025-06-26T06:59:47.159Z'}, 'locks': [{'_id': '65c03a19816397044ac9d25c', 'macAddress': '98:1B:B5:76:87:70', 'LockID': '10134616C7314E2CBC744ACD52178B2D'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '76a6c396-9d54-4490-a034-cb9f965e1a38', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '10134616C7314E2CBC744ACD52178B2D', 'url_called': 'https://api.august.com/locks/10134616C7314E2CBC744ACD52178B2D', 'status_code': 200, 'api_response_data': {'LockName': '325', 'Type': 15, 'Created': '2025-05-28T15:26:20.909Z', 'Updated': '2025-05-28T15:26:20.909Z', 'LockID': '10134616C7314E2CBC744ACD52178B2D', 'HouseID': '7e7708c6-eb80-4c11-8b4a-b89e0aa2f9ac', 'HouseName': 'Rye', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9333554558324977, 'batteryInfo': {'level': 0.9333554558324977, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-30T14:56:49.388Z', 'lastChangeDate': '2025-05-28T15:26:20.909Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T15:26:20.909Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '1f423f9e7c3d708a1b224e01b9a738b4', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:70', 'SerialNumber': 'LFIEG001RC', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T06:01:03.349Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68372c9f49918d9a5bee05f0', 'mfgBridgeID': 'C8WC1004XU', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T06:58:14.419Z', 'updated': '2025-06-26T06:59:47.159Z', 'lastOnline': '2025-06-26T06:59:47.159Z'}, 'locks': [{'_id': '65c03a19816397044ac9d25c', 'macAddress': '98:1B:B5:76:87:70', 'LockID': '10134616C7314E2CBC744ACD52178B2D'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '76a6c396-9d54-4490-a034-cb9f965e1a38', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L255" t="b">
@@ -14636,7 +14636,7 @@
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': 'E5C9C878FBBE4EB79E91E8AA8EB4710F', 'url_called': 'https://api.august.com/locks/E5C9C878FBBE4EB79E91E8AA8EB4710F', 'status_code': 200, 'api_response_data': {'LockName': '326', 'Type': 15, 'Created': '2025-05-28T15:03:36.649Z', 'Updated': '2025-05-28T15:03:36.649Z', 'LockID': 'E5C9C878FBBE4EB79E91E8AA8EB4710F', 'HouseID': '7e7708c6-eb80-4c11-8b4a-b89e0aa2f9ac', 'HouseName': 'Rye', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9417678528589022, 'batteryInfo': {'level': 0.9417678528589022, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-28T22:32:25.606Z', 'lastChangeDate': '2025-05-28T15:03:36.649Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T15:03:36.649Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '5bb7297dc99fe9e02553f9e439ad4e14', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:75:4A:96', 'SerialNumber': 'LFICQ001H0', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T21:33:28.656Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68372737b703c848d5ee35d5', 'mfgBridgeID': 'C8WC1004WK', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-19T18:10:30.516Z', 'updated': '2025-06-19T18:11:54.344Z', 'lastOnline': '2025-06-19T18:11:54.344Z'}, 'locks': [{'_id': '660239120924f81e0cb004d0', 'macAddress': '98:1B:B5:75:4A:96', 'LockID': 'E5C9C878FBBE4EB79E91E8AA8EB4710F'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'fa6fdeb7-e2b7-4cea-acfa-490d0119ef26', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': 'E5C9C878FBBE4EB79E91E8AA8EB4710F', 'url_called': 'https://api.august.com/locks/E5C9C878FBBE4EB79E91E8AA8EB4710F', 'status_code': 200, 'api_response_data': {'LockName': '326', 'Type': 15, 'Created': '2025-05-28T15:03:36.649Z', 'Updated': '2025-05-28T15:03:36.649Z', 'LockID': 'E5C9C878FBBE4EB79E91E8AA8EB4710F', 'HouseID': '7e7708c6-eb80-4c11-8b4a-b89e0aa2f9ac', 'HouseName': 'Rye', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9417678528589022, 'batteryInfo': {'level': 0.9417678528589022, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-30T14:36:43.386Z', 'lastChangeDate': '2025-05-28T15:03:36.649Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T15:03:36.649Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '5bb7297dc99fe9e02553f9e439ad4e14', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:75:4A:96', 'SerialNumber': 'LFICQ001H0', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-01T21:33:39.445Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68372737b703c848d5ee35d5', 'mfgBridgeID': 'C8WC1004WK', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-07-01T13:44:25.195Z', 'updated': '2025-07-01T13:45:17.386Z', 'lastOnline': '2025-07-01T13:45:17.386Z'}, 'locks': [{'_id': '660239120924f81e0cb004d0', 'macAddress': '98:1B:B5:75:4A:96', 'LockID': 'E5C9C878FBBE4EB79E91E8AA8EB4710F'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'fa6fdeb7-e2b7-4cea-acfa-490d0119ef26', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L257" t="b">
@@ -14752,7 +14752,7 @@
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '378E4404E8B24630B90D3F92F79E8C1F', 'url_called': 'https://api.august.com/locks/378E4404E8B24630B90D3F92F79E8C1F', 'status_code': 200, 'api_response_data': {'LockName': '327', 'Type': 15, 'Created': '2025-05-28T15:14:31.300Z', 'Updated': '2025-05-28T15:14:31.300Z', 'LockID': '378E4404E8B24630B90D3F92F79E8C1F', 'HouseID': '7e7708c6-eb80-4c11-8b4a-b89e0aa2f9ac', 'HouseName': 'Rye', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.937744174098043, 'batteryInfo': {'level': 0.937744174098043, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T21:32:27.259Z', 'lastChangeDate': '2025-05-28T15:14:31.300Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T15:14:31.300Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'd921cc961ac09c9476b3bc078cfb1a5d', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:75:4A:94', 'SerialNumber': 'LFICQ001GY', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T18:00:18.408Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '683729fabd80d662b6c1ff55', 'mfgBridgeID': 'C8WC1004UR', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T21:16:44.974Z', 'updated': '2025-06-26T21:17:18.244Z', 'lastOnline': '2025-06-26T21:17:18.244Z'}, 'locks': [{'_id': '660239120924f8b254b004d1', 'macAddress': '98:1B:B5:75:4A:94', 'LockID': '378E4404E8B24630B90D3F92F79E8C1F'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'e289e639-8602-453a-ab2e-00afcfe03b80', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '378E4404E8B24630B90D3F92F79E8C1F', 'url_called': 'https://api.august.com/locks/378E4404E8B24630B90D3F92F79E8C1F', 'status_code': 200, 'api_response_data': {'LockName': '327', 'Type': 15, 'Created': '2025-05-28T15:14:31.300Z', 'Updated': '2025-05-28T15:14:31.300Z', 'LockID': '378E4404E8B24630B90D3F92F79E8C1F', 'HouseID': '7e7708c6-eb80-4c11-8b4a-b89e0aa2f9ac', 'HouseName': 'Rye', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9355977177510795, 'batteryInfo': {'level': 0.9355977177510795, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-30T14:45:45.981Z', 'lastChangeDate': '2025-05-28T15:14:31.300Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T15:14:31.300Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'd921cc961ac09c9476b3bc078cfb1a5d', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:75:4A:94', 'SerialNumber': 'LFICQ001GY', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T06:00:31.068Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '683729fabd80d662b6c1ff55', 'mfgBridgeID': 'C8WC1004UR', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T21:16:44.974Z', 'updated': '2025-06-26T21:17:18.244Z', 'lastOnline': '2025-06-26T21:17:18.244Z'}, 'locks': [{'_id': '660239120924f8b254b004d1', 'macAddress': '98:1B:B5:75:4A:94', 'LockID': '378E4404E8B24630B90D3F92F79E8C1F'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'e289e639-8602-453a-ab2e-00afcfe03b80', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L259" t="b">
@@ -14868,7 +14868,7 @@
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '310CBDCC657340D9A1E56C4A00A15701', 'url_called': 'https://api.august.com/locks/310CBDCC657340D9A1E56C4A00A15701', 'status_code': 200, 'api_response_data': {'LockName': '328', 'Type': 15, 'Created': '2025-05-28T14:45:59.923Z', 'Updated': '2025-05-28T14:45:59.923Z', 'LockID': '310CBDCC657340D9A1E56C4A00A15701', 'HouseID': '7e7708c6-eb80-4c11-8b4a-b89e0aa2f9ac', 'HouseName': 'Rye', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9355977177510795, 'batteryInfo': {'level': 0.9355977177510795, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T20:02:06.189Z', 'lastChangeDate': '2025-05-28T14:45:59.923Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T14:45:59.923Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '400665e68bdeb2fb4a790f2930cccee1', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:75:4A:97', 'SerialNumber': 'LFICQ001H1', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T18:03:43.743Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68372302e36fa12e924ee238', 'mfgBridgeID': 'C8WC1004US', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T01:07:06.217Z', 'updated': '2025-06-26T01:07:40.768Z', 'lastOnline': '2025-06-26T01:07:40.768Z'}, 'locks': [{'_id': '660239120924f8ad07b004cf', 'macAddress': '98:1B:B5:75:4A:97', 'LockID': '310CBDCC657340D9A1E56C4A00A15701'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '92e1911e-c7d8-43bd-9d4d-c74eb665d5ce', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '310CBDCC657340D9A1E56C4A00A15701', 'url_called': 'https://api.august.com/locks/310CBDCC657340D9A1E56C4A00A15701', 'status_code': 200, 'api_response_data': {'LockName': '328', 'Type': 15, 'Created': '2025-05-28T14:45:59.923Z', 'Updated': '2025-05-28T14:45:59.923Z', 'LockID': '310CBDCC657340D9A1E56C4A00A15701', 'HouseID': '7e7708c6-eb80-4c11-8b4a-b89e0aa2f9ac', 'HouseName': 'Rye', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9355977177510795, 'batteryInfo': {'level': 0.9355977177510795, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-30T14:55:19.912Z', 'lastChangeDate': '2025-05-28T14:45:59.923Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T14:45:59.923Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '400665e68bdeb2fb4a790f2930cccee1', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:75:4A:97', 'SerialNumber': 'LFICQ001H1', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T06:03:53.515Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68372302e36fa12e924ee238', 'mfgBridgeID': 'C8WC1004US', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T01:07:06.217Z', 'updated': '2025-06-26T01:07:40.768Z', 'lastOnline': '2025-06-26T01:07:40.768Z'}, 'locks': [{'_id': '660239120924f8ad07b004cf', 'macAddress': '98:1B:B5:75:4A:97', 'LockID': '310CBDCC657340D9A1E56C4A00A15701'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '92e1911e-c7d8-43bd-9d4d-c74eb665d5ce', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L261" t="b">
@@ -14984,7 +14984,7 @@
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '4AFEAB4124AB46FF907EE2CE5FAF13AB', 'url_called': 'https://api.august.com/locks/4AFEAB4124AB46FF907EE2CE5FAF13AB', 'status_code': 200, 'api_response_data': {'LockName': '329', 'Type': 15, 'Created': '2025-05-28T14:54:57.936Z', 'Updated': '2025-05-28T14:54:57.936Z', 'LockID': '4AFEAB4124AB46FF907EE2CE5FAF13AB', 'HouseID': '7e7708c6-eb80-4c11-8b4a-b89e0aa2f9ac', 'HouseName': 'Rye', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9333554558324977, 'batteryInfo': {'level': 0.9333554558324977, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T19:58:14.096Z', 'lastChangeDate': '2025-05-28T14:54:57.936Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T14:54:57.936Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '242af5fc36d594cb25ef6ee7ca6f63a9', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:75:4A:88', 'SerialNumber': 'LFICQ001GH', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T18:02:26.645Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6837250509f381047b4d9869', 'mfgBridgeID': 'C8WC1004WG', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T21:16:45.395Z', 'updated': '2025-06-26T21:17:19.669Z', 'lastOnline': '2025-06-26T21:17:19.669Z'}, 'locks': [{'_id': '660239120924f860f5b004d8', 'macAddress': '98:1B:B5:75:4A:88', 'LockID': '4AFEAB4124AB46FF907EE2CE5FAF13AB'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '9e465872-3ea1-4f16-85ed-92c237904d5a', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '4AFEAB4124AB46FF907EE2CE5FAF13AB', 'url_called': 'https://api.august.com/locks/4AFEAB4124AB46FF907EE2CE5FAF13AB', 'status_code': 200, 'api_response_data': {'LockName': '329', 'Type': 15, 'Created': '2025-05-28T14:54:57.936Z', 'Updated': '2025-05-28T14:54:57.936Z', 'LockID': '4AFEAB4124AB46FF907EE2CE5FAF13AB', 'HouseID': '7e7708c6-eb80-4c11-8b4a-b89e0aa2f9ac', 'HouseName': 'Rye', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9310129155310278, 'batteryInfo': {'level': 0.9310129155310278, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-30T18:02:28.679Z', 'lastChangeDate': '2025-05-28T14:54:57.936Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T14:54:57.936Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '242af5fc36d594cb25ef6ee7ca6f63a9', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:75:4A:88', 'SerialNumber': 'LFICQ001GH', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T06:02:31.147Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6837250509f381047b4d9869', 'mfgBridgeID': 'C8WC1004WG', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-30T15:25:33.448Z', 'updated': '2025-06-30T15:26:13.740Z', 'lastOnline': '2025-06-30T15:26:13.740Z'}, 'locks': [{'_id': '660239120924f860f5b004d8', 'macAddress': '98:1B:B5:75:4A:88', 'LockID': '4AFEAB4124AB46FF907EE2CE5FAF13AB'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '9e465872-3ea1-4f16-85ed-92c237904d5a', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L263" t="b">
@@ -15100,7 +15100,7 @@
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '6C9ADF0E060F4B468DB47C0D86C560E8', 'url_called': 'https://api.august.com/locks/6C9ADF0E060F4B468DB47C0D86C560E8', 'status_code': 200, 'api_response_data': {'LockName': '330', 'Type': 15, 'Created': '2025-05-28T14:09:04.938Z', 'Updated': '2025-05-28T14:09:04.938Z', 'LockID': '6C9ADF0E060F4B468DB47C0D86C560E8', 'HouseID': '7e7708c6-eb80-4c11-8b4a-b89e0aa2f9ac', 'HouseName': 'Rye', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9454632933266112, 'batteryInfo': {'level': 0.9454632933266112, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T19:59:01.167Z', 'lastChangeDate': '2025-05-28T14:09:04.938Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T14:09:04.938Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '492d9de367ee293632de449f8c14dd94', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:75:4A:85', 'SerialNumber': 'LFICQ001GE', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T17:59:15.621Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68371ab1082fc167370edf9d', 'mfgBridgeID': 'C8WC1004WS', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T06:56:59.955Z', 'updated': '2025-06-26T06:59:18.141Z', 'lastOnline': '2025-06-26T06:59:18.141Z'}, 'locks': [{'_id': '660239120924f89a64b004dd', 'macAddress': '98:1B:B5:75:4A:85', 'LockID': '6C9ADF0E060F4B468DB47C0D86C560E8'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '063dc2b0-d912-4c38-a60f-5e174afe588e', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '6C9ADF0E060F4B468DB47C0D86C560E8', 'url_called': 'https://api.august.com/locks/6C9ADF0E060F4B468DB47C0D86C560E8', 'status_code': 200, 'api_response_data': {'LockName': '330', 'Type': 15, 'Created': '2025-05-28T14:09:04.938Z', 'Updated': '2025-05-28T14:09:04.938Z', 'LockID': '6C9ADF0E060F4B468DB47C0D86C560E8', 'HouseID': '7e7708c6-eb80-4c11-8b4a-b89e0aa2f9ac', 'HouseName': 'Rye', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9436542809344246, 'batteryInfo': {'level': 0.9436542809344246, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T22:37:17.671Z', 'lastChangeDate': '2025-05-28T14:09:04.938Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T14:09:04.938Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '492d9de367ee293632de449f8c14dd94', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:75:4A:85', 'SerialNumber': 'LFICQ001GE', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-01T22:37:16.558Z', 'isLockStatusChanged': True, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68371ab1082fc167370edf9d', 'mfgBridgeID': 'C8WC1004WS', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T06:56:59.955Z', 'updated': '2025-06-26T06:59:18.141Z', 'lastOnline': '2025-06-26T06:59:18.141Z'}, 'locks': [{'_id': '660239120924f89a64b004dd', 'macAddress': '98:1B:B5:75:4A:85', 'LockID': '6C9ADF0E060F4B468DB47C0D86C560E8'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '063dc2b0-d912-4c38-a60f-5e174afe588e', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L265" t="b">
@@ -15216,7 +15216,7 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '14418E1CB2ED494BB4BE676C4E0B8311', 'url_called': 'https://api.august.com/locks/14418E1CB2ED494BB4BE676C4E0B8311', 'status_code': 200, 'api_response_data': {'LockName': '331', 'Type': 15, 'Created': '2025-05-28T13:59:10.349Z', 'Updated': '2025-05-28T13:59:10.349Z', 'LockID': '14418E1CB2ED494BB4BE676C4E0B8311', 'HouseID': '7e7708c6-eb80-4c11-8b4a-b89e0aa2f9ac', 'HouseName': 'Rye', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9417678528589022, 'batteryInfo': {'level': 0.9417678528589022, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T19:56:05.967Z', 'lastChangeDate': '2025-05-28T13:59:10.349Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T13:59:10.349Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '2d25c21e09ca0f0ac978dcacb49577f3', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:75:4A:9F', 'SerialNumber': 'LFICQ001H9', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T19:20:52.108Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '683717fb7a52beec57a6f36a', 'mfgBridgeID': 'C8WC1004U7', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-19T18:09:02.713Z', 'updated': '2025-06-19T18:11:53.382Z', 'lastOnline': '2025-06-19T18:11:53.382Z'}, 'locks': [{'_id': '660239120924f8951fb004cd', 'macAddress': '98:1B:B5:75:4A:9F', 'LockID': '14418E1CB2ED494BB4BE676C4E0B8311'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'c9aa7141-daac-4156-87cf-3c6efd3108c1', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '14418E1CB2ED494BB4BE676C4E0B8311', 'url_called': 'https://api.august.com/locks/14418E1CB2ED494BB4BE676C4E0B8311', 'status_code': 200, 'api_response_data': {'LockName': '331', 'Type': 15, 'Created': '2025-05-28T13:59:10.349Z', 'Updated': '2025-05-28T13:59:10.349Z', 'LockID': '14418E1CB2ED494BB4BE676C4E0B8311', 'HouseID': '7e7708c6-eb80-4c11-8b4a-b89e0aa2f9ac', 'HouseName': 'Rye', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9417678528589022, 'batteryInfo': {'level': 0.9417678528589022, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-30T21:49:09.857Z', 'lastChangeDate': '2025-05-28T13:59:10.349Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T13:59:10.349Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '2d25c21e09ca0f0ac978dcacb49577f3', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:75:4A:9F', 'SerialNumber': 'LFICQ001H9', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-01T19:21:01.879Z', 'isLockStatusChanged': True, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '683717fb7a52beec57a6f36a', 'mfgBridgeID': 'C8WC1004U7', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-30T20:27:20.792Z', 'updated': '2025-06-30T20:28:43.068Z', 'lastOnline': '2025-06-30T20:28:43.068Z'}, 'locks': [{'_id': '660239120924f8951fb004cd', 'macAddress': '98:1B:B5:75:4A:9F', 'LockID': '14418E1CB2ED494BB4BE676C4E0B8311'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'c9aa7141-daac-4156-87cf-3c6efd3108c1', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L267" t="b">
@@ -15436,7 +15436,7 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': 'E7BB364323794B4095B26CD721E28FDB', 'url_called': 'https://api.august.com/locks/E7BB364323794B4095B26CD721E28FDB', 'status_code': 200, 'api_response_data': {'LockName': '332.1', 'Type': 15, 'Created': '2025-05-28T13:47:39.023Z', 'Updated': '2025-05-28T13:47:39.023Z', 'LockID': 'E7BB364323794B4095B26CD721E28FDB', 'HouseID': '7e7708c6-eb80-4c11-8b4a-b89e0aa2f9ac', 'HouseName': 'Rye', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9436542809344246, 'batteryInfo': {'level': 0.9436542809344246, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-28T15:18:57.017Z', 'lastChangeDate': '2025-05-28T13:47:39.023Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T13:47:39.023Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '44e7dbeb581a416e014b1af24b1e75a0', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:85:F5', 'SerialNumber': 'LFIEG0019R', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T18:00:08.985Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68371575887fa459c4ebfe0b', 'mfgBridgeID': 'C8WAS00383', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T17:55:41.490Z', 'updated': '2025-06-26T17:56:15.128Z', 'lastOnline': '2025-06-26T17:56:15.128Z'}, 'locks': [{'_id': '65c03a1a8163970517c9d2f3', 'macAddress': '98:1B:B5:76:85:F5', 'LockID': 'E7BB364323794B4095B26CD721E28FDB'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '99a8224b-ff1f-4cf1-b5c2-8e0b9de64633', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': 'E7BB364323794B4095B26CD721E28FDB', 'url_called': 'https://api.august.com/locks/E7BB364323794B4095B26CD721E28FDB', 'status_code': 200, 'api_response_data': {'LockName': '332.1', 'Type': 15, 'Created': '2025-05-28T13:47:39.023Z', 'Updated': '2025-05-28T13:47:39.023Z', 'LockID': 'E7BB364323794B4095B26CD721E28FDB', 'HouseID': '7e7708c6-eb80-4c11-8b4a-b89e0aa2f9ac', 'HouseName': 'Rye', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9417678528589022, 'batteryInfo': {'level': 0.9417678528589022, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T15:48:48.908Z', 'lastChangeDate': '2025-05-28T13:47:39.023Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T13:47:39.023Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '44e7dbeb581a416e014b1af24b1e75a0', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:85:F5', 'SerialNumber': 'LFIEG0019R', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T06:00:17.704Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68371575887fa459c4ebfe0b', 'mfgBridgeID': 'C8WAS00383', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T17:55:41.490Z', 'updated': '2025-06-26T17:56:15.128Z', 'lastOnline': '2025-06-26T17:56:15.128Z'}, 'locks': [{'_id': '65c03a1a8163970517c9d2f3', 'macAddress': '98:1B:B5:76:85:F5', 'LockID': 'E7BB364323794B4095B26CD721E28FDB'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '99a8224b-ff1f-4cf1-b5c2-8e0b9de64633', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L271" t="b">
@@ -15876,7 +15876,7 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '92D6C1E7E10A4A2ABBF483AA2D55F4D0', 'url_called': 'https://api.august.com/locks/92D6C1E7E10A4A2ABBF483AA2D55F4D0', 'status_code': 200, 'api_response_data': {'LockName': '332.2 ', 'Type': 15, 'Created': '2025-05-28T13:37:16.778Z', 'Updated': '2025-05-28T13:37:16.778Z', 'LockID': '92D6C1E7E10A4A2ABBF483AA2D55F4D0', 'HouseID': '7e7708c6-eb80-4c11-8b4a-b89e0aa2f9ac', 'HouseName': 'Rye', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9355977177510795, 'batteryInfo': {'level': 0.9355977177510795, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T19:56:07.966Z', 'lastChangeDate': '2025-05-28T13:37:16.778Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T13:37:16.778Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'c3d81ba9f6171fc88c2ff532bcc5724a', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:2A', 'SerialNumber': 'LFIEG001CG', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T18:01:03.641Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6837130eeebc56f93a31341e', 'mfgBridgeID': 'C8WAS0037W', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-27T06:53:28.141Z', 'updated': '2025-06-27T06:55:47.669Z', 'lastOnline': '2025-06-27T06:55:47.669Z'}, 'locks': [{'_id': '65c03a1a8163972ad0c9d2dc', 'macAddress': '98:1B:B5:76:86:2A', 'LockID': '92D6C1E7E10A4A2ABBF483AA2D55F4D0'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '04fc9722-484f-4ede-9f46-ead86ce394f7', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '92D6C1E7E10A4A2ABBF483AA2D55F4D0', 'url_called': 'https://api.august.com/locks/92D6C1E7E10A4A2ABBF483AA2D55F4D0', 'status_code': 200, 'api_response_data': {'LockName': '332.2 ', 'Type': 15, 'Created': '2025-05-28T13:37:16.778Z', 'Updated': '2025-05-28T13:37:16.778Z', 'LockID': '92D6C1E7E10A4A2ABBF483AA2D55F4D0', 'HouseID': '7e7708c6-eb80-4c11-8b4a-b89e0aa2f9ac', 'HouseName': 'Rye', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9355977177510795, 'batteryInfo': {'level': 0.9355977177510795, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-30T21:50:37.297Z', 'lastChangeDate': '2025-05-28T13:37:16.778Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T13:37:16.778Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'c3d81ba9f6171fc88c2ff532bcc5724a', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:2A', 'SerialNumber': 'LFIEG001CG', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T06:01:12.395Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6837130eeebc56f93a31341e', 'mfgBridgeID': 'C8WAS0037W', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-27T06:53:28.141Z', 'updated': '2025-06-27T06:55:47.669Z', 'lastOnline': '2025-06-27T06:55:47.669Z'}, 'locks': [{'_id': '65c03a1a8163972ad0c9d2dc', 'macAddress': '98:1B:B5:76:86:2A', 'LockID': '92D6C1E7E10A4A2ABBF483AA2D55F4D0'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '04fc9722-484f-4ede-9f46-ead86ce394f7', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L279" t="b">
@@ -16208,7 +16208,7 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '061826E8E2F04AD98D202116EE28E5B1', 'url_called': 'https://api.august.com/locks/061826E8E2F04AD98D202116EE28E5B1', 'status_code': 200, 'api_response_data': {'LockName': '333', 'Type': 15, 'Created': '2025-05-27T15:58:35.194Z', 'Updated': '2025-05-27T15:58:35.194Z', 'LockID': '061826E8E2F04AD98D202116EE28E5B1', 'HouseID': '97f02fea-fe79-4b35-87f2-2eb43733e26b', 'HouseName': 'Lake Villa ', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9436542809344246, 'batteryInfo': {'level': 0.9436542809344246, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T22:31:36.536Z', 'lastChangeDate': '2025-05-27T15:58:35.194Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T15:58:35.194Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '9311f4a17af4db0cbf90d23c7a25d358', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:2F', 'SerialNumber': 'LFIEG001CP', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T18:01:58.311Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6835e2b2cda1ed6b32b500d6', 'mfgBridgeID': 'C8WAS0038D', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T06:47:31.707Z', 'updated': '2025-06-26T09:10:36.433Z', 'lastOnline': '2025-06-26T09:10:36.433Z'}, 'locks': [{'_id': '65c03a1a8163977379c9d2da', 'macAddress': '98:1B:B5:76:86:2F', 'LockID': '061826E8E2F04AD98D202116EE28E5B1'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '849c70aa-181c-4d15-96e9-2e474d20f382', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [{'_id': '68553e9eccb1e24609327fef', 'type': 'pin', 'lockID': '061826E8E2F04AD98D202116EE28E5B1', 'userID': '043b7f01-6d5d-4421-a26a-6ebd05b5c06a', 'state': 'loaded', 'pin': '163279', 'slot': 2, 'accessType': 'always', 'callingUserID': '17fb1dac-6d1b-4690-bee4-6f3701e39855', 'createdAt': '2025-06-20T10:57:34.319Z', 'updatedAt': '2025-06-20T10:57:45.347Z', 'loadedDate': '2025-06-20T10:57:45.347Z', 'firstName': 'John ', 'lastName': 'Doe', 'unverified': True, 'partnerUserID': 'John1750417052761536'}, {'_id': '68553ee3ccb1e25edd3280a0', 'type': 'pin', 'lockID': '061826E8E2F04AD98D202116EE28E5B1', 'userID': '089cbea3-4662-40e9-abf1-c09a55f5cbb8', 'state': 'loaded', 'pin': '957744', 'slot': 4, 'accessType': 'recurring', 'callingUserID': '17fb1dac-6d1b-4690-bee4-6f3701e39855', 'accessTimes': 'STARTSEC=37680;ENDSEC=59280', 'accessRecurrence': 'FREQ=WEEKLY;BYDAY=MO,TH', 'createdAt': '2025-06-20T10:58:43.183Z', 'updatedAt': '2025-06-20T10:58:55.397Z', 'loadedDate': '2025-06-20T10:58:55.397Z', 'firstName': 'John ', 'lastName': 'Doe', 'unverified': True, 'partnerUserID': 'John1750417121718748'}, {'_id': '68553f45ccb1e26433328129', 'type': 'pin', 'lockID': '061826E8E2F04AD98D202116EE28E5B1', 'userID': 'fbf245b5-f724-4743-8c22-e1f7ca7987dd', 'state': 'loaded', 'pin': '237592', 'slot': 6, 'accessType': 'temporary', 'callingUserID': '17fb1dac-6d1b-4690-bee4-6f3701e39855', 'accessStartTime': '2025-06-20T16:29:00.000Z', 'accessEndTime': '2026-06-20T00:00:00.000Z', 'accessTimes': 'DTSTART=2025-06-20T16:29:00.000Z;DTEND=2026-06-20T00:00:00.000Z', 'createdAt': '2025-06-20T11:00:21.024Z', 'updatedAt': '2025-06-20T11:00:33.954Z', 'loadedDate': '2025-06-20T11:00:33.954Z', 'firstName': 'John ', 'lastName': 'Doe', 'unverified': True, 'partnerUserID': 'John1750417219164065'}], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '061826E8E2F04AD98D202116EE28E5B1', 'url_called': 'https://api.august.com/locks/061826E8E2F04AD98D202116EE28E5B1', 'status_code': 200, 'api_response_data': {'LockName': '333', 'Type': 15, 'Created': '2025-05-27T15:58:35.194Z', 'Updated': '2025-05-27T15:58:35.194Z', 'LockID': '061826E8E2F04AD98D202116EE28E5B1', 'HouseID': '97f02fea-fe79-4b35-87f2-2eb43733e26b', 'HouseName': 'Lake Villa ', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9417678528589022, 'batteryInfo': {'level': 0.9417678528589022, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T21:19:42.399Z', 'lastChangeDate': '2025-05-27T15:58:35.194Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T15:58:35.194Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '9311f4a17af4db0cbf90d23c7a25d358', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:2F', 'SerialNumber': 'LFIEG001CP', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T06:02:09.333Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6835e2b2cda1ed6b32b500d6', 'mfgBridgeID': 'C8WAS0038D', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T06:47:31.707Z', 'updated': '2025-06-26T09:10:36.433Z', 'lastOnline': '2025-06-26T09:10:36.433Z'}, 'locks': [{'_id': '65c03a1a8163977379c9d2da', 'macAddress': '98:1B:B5:76:86:2F', 'LockID': '061826E8E2F04AD98D202116EE28E5B1'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '849c70aa-181c-4d15-96e9-2e474d20f382', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [{'_id': '68553e9eccb1e24609327fef', 'type': 'pin', 'lockID': '061826E8E2F04AD98D202116EE28E5B1', 'userID': '043b7f01-6d5d-4421-a26a-6ebd05b5c06a', 'state': 'loaded', 'pin': '163279', 'slot': 2, 'accessType': 'always', 'callingUserID': '17fb1dac-6d1b-4690-bee4-6f3701e39855', 'createdAt': '2025-06-20T10:57:34.319Z', 'updatedAt': '2025-06-20T10:57:45.347Z', 'loadedDate': '2025-06-20T10:57:45.347Z', 'firstName': 'John ', 'lastName': 'Doe', 'unverified': True, 'partnerUserID': 'John1750417052761536'}, {'_id': '68553ee3ccb1e25edd3280a0', 'type': 'pin', 'lockID': '061826E8E2F04AD98D202116EE28E5B1', 'userID': '089cbea3-4662-40e9-abf1-c09a55f5cbb8', 'state': 'loaded', 'pin': '957744', 'slot': 4, 'accessType': 'recurring', 'callingUserID': '17fb1dac-6d1b-4690-bee4-6f3701e39855', 'accessTimes': 'STARTSEC=37680;ENDSEC=59280', 'accessRecurrence': 'FREQ=WEEKLY;BYDAY=MO,TH', 'createdAt': '2025-06-20T10:58:43.183Z', 'updatedAt': '2025-06-20T10:58:55.397Z', 'loadedDate': '2025-06-20T10:58:55.397Z', 'firstName': 'John ', 'lastName': 'Doe', 'unverified': True, 'partnerUserID': 'John1750417121718748'}, {'_id': '68553f45ccb1e26433328129', 'type': 'pin', 'lockID': '061826E8E2F04AD98D202116EE28E5B1', 'userID': 'fbf245b5-f724-4743-8c22-e1f7ca7987dd', 'state': 'loaded', 'pin': '237592', 'slot': 6, 'accessType': 'temporary', 'callingUserID': '17fb1dac-6d1b-4690-bee4-6f3701e39855', 'accessStartTime': '2025-06-20T16:29:00.000Z', 'accessEndTime': '2026-06-20T00:00:00.000Z', 'accessTimes': 'DTSTART=2025-06-20T16:29:00.000Z;DTEND=2026-06-20T00:00:00.000Z', 'createdAt': '2025-06-20T11:00:21.024Z', 'updatedAt': '2025-06-20T11:00:33.954Z', 'loadedDate': '2025-06-20T11:00:33.954Z', 'firstName': 'John ', 'lastName': 'Doe', 'unverified': True, 'partnerUserID': 'John1750417219164065'}], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L285" t="b">
@@ -16594,7 +16594,7 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '8943CC170AFA49789FCB24CD1E1D73BD', 'url_called': 'https://api.august.com/locks/8943CC170AFA49789FCB24CD1E1D73BD', 'status_code': 200, 'api_response_data': {'LockName': '334', 'Type': 15, 'Created': '2025-05-27T14:54:52.474Z', 'Updated': '2025-05-27T14:54:52.474Z', 'LockID': '8943CC170AFA49789FCB24CD1E1D73BD', 'HouseID': '97f02fea-fe79-4b35-87f2-2eb43733e26b', 'HouseName': 'Lake Villa ', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9417678528589022, 'batteryInfo': {'level': 0.9417678528589022, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T18:16:44.152Z', 'lastChangeDate': '2025-05-27T14:54:52.474Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T14:54:52.474Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'bf17df32bef181879fcf5cbbf0ebce07', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:43', 'SerialNumber': 'LFIEG001DA', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T17:59:49.079Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6835d3bf5a3a7d02eae4dc6b', 'mfgBridgeID': 'C8WC1004J5', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T06:59:20.649Z', 'updated': '2025-06-26T07:00:08.361Z', 'lastOnline': '2025-06-26T07:00:08.361Z'}, 'locks': [{'_id': '65c03a1a3c112b540abfc475', 'macAddress': '98:1B:B5:76:86:43', 'LockID': '8943CC170AFA49789FCB24CD1E1D73BD'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'e11e6614-13a4-48af-8d19-8cee17959e58', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '8943CC170AFA49789FCB24CD1E1D73BD', 'url_called': 'https://api.august.com/locks/8943CC170AFA49789FCB24CD1E1D73BD', 'status_code': 200, 'api_response_data': {'LockName': '334', 'Type': 15, 'Created': '2025-05-27T14:54:52.474Z', 'Updated': '2025-05-27T14:54:52.474Z', 'LockID': '8943CC170AFA49789FCB24CD1E1D73BD', 'HouseID': '97f02fea-fe79-4b35-87f2-2eb43733e26b', 'HouseName': 'Lake Villa ', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9417678528589022, 'batteryInfo': {'level': 0.9417678528589022, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T21:12:05.804Z', 'lastChangeDate': '2025-05-27T14:54:52.474Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T14:54:52.474Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'bf17df32bef181879fcf5cbbf0ebce07', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:43', 'SerialNumber': 'LFIEG001DA', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T06:00:15.807Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6835d3bf5a3a7d02eae4dc6b', 'mfgBridgeID': 'C8WC1004J5', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-30T20:27:12.131Z', 'updated': '2025-06-30T20:28:06.334Z', 'lastOnline': '2025-06-30T20:28:06.334Z'}, 'locks': [{'_id': '65c03a1a3c112b540abfc475', 'macAddress': '98:1B:B5:76:86:43', 'LockID': '8943CC170AFA49789FCB24CD1E1D73BD'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'e11e6614-13a4-48af-8d19-8cee17959e58', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L292" t="b">
@@ -17034,7 +17034,7 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '62A6B3593C764243B19D1E4BD0B9B489', 'url_called': 'https://api.august.com/locks/62A6B3593C764243B19D1E4BD0B9B489', 'status_code': 200, 'api_response_data': {'LockName': '335', 'Type': 15, 'Created': '2025-05-27T14:43:57.273Z', 'Updated': '2025-05-27T14:43:57.273Z', 'LockID': '62A6B3593C764243B19D1E4BD0B9B489', 'HouseID': '97f02fea-fe79-4b35-87f2-2eb43733e26b', 'HouseName': 'Lake Villa ', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9355977177510795, 'batteryInfo': {'level': 0.9355977177510795, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T22:31:15.694Z', 'lastChangeDate': '2025-05-27T14:43:57.273Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T14:43:57.273Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'ddd21838b412e1faa52cfafb7c2c0b5a', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:35', 'SerialNumber': 'LFIEG001CW', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T18:02:16.228Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6835d13afe51498492be72cd', 'mfgBridgeID': 'C8WC1004P2', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T21:17:29.051Z', 'updated': '2025-06-26T21:18:02.410Z', 'lastOnline': '2025-06-26T21:18:02.410Z'}, 'locks': [{'_id': '65c03a1a8163972948c9d2d8', 'macAddress': '98:1B:B5:76:86:35', 'LockID': '62A6B3593C764243B19D1E4BD0B9B489'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'bdd8abb9-b201-43f9-a848-00f0f8adc9d2', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '62A6B3593C764243B19D1E4BD0B9B489', 'url_called': 'https://api.august.com/locks/62A6B3593C764243B19D1E4BD0B9B489', 'status_code': 200, 'api_response_data': {'LockName': '335', 'Type': 15, 'Created': '2025-05-27T14:43:57.273Z', 'Updated': '2025-05-27T14:43:57.273Z', 'LockID': '62A6B3593C764243B19D1E4BD0B9B489', 'HouseID': '97f02fea-fe79-4b35-87f2-2eb43733e26b', 'HouseName': 'Lake Villa ', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9333554558324977, 'batteryInfo': {'level': 0.9333554558324977, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-02T06:02:33.579Z', 'lastChangeDate': '2025-05-27T14:43:57.273Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T14:43:57.273Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'ddd21838b412e1faa52cfafb7c2c0b5a', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:35', 'SerialNumber': 'LFIEG001CW', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T06:02:31.720Z', 'isLockStatusChanged': True, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6835d13afe51498492be72cd', 'mfgBridgeID': 'C8WC1004P2', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T21:17:29.051Z', 'updated': '2025-06-26T21:18:02.410Z', 'lastOnline': '2025-06-26T21:18:02.410Z'}, 'locks': [{'_id': '65c03a1a8163972948c9d2d8', 'macAddress': '98:1B:B5:76:86:35', 'LockID': '62A6B3593C764243B19D1E4BD0B9B489'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'bdd8abb9-b201-43f9-a848-00f0f8adc9d2', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L300" t="b">
@@ -17366,7 +17366,7 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': 'BF1F118356524B7F8511AB70446D9555', 'url_called': 'https://api.august.com/locks/BF1F118356524B7F8511AB70446D9555', 'status_code': 200, 'api_response_data': {'LockName': '336', 'Type': 15, 'Created': '2025-05-27T14:31:39.326Z', 'Updated': '2025-05-27T14:31:39.326Z', 'LockID': 'BF1F118356524B7F8511AB70446D9555', 'HouseID': '97f02fea-fe79-4b35-87f2-2eb43733e26b', 'HouseName': 'Lake Villa ', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9436542809344246, 'batteryInfo': {'level': 0.9436542809344246, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T22:31:13.858Z', 'lastChangeDate': '2025-05-27T14:31:39.326Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T14:31:39.326Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '03e5140d5a6db72ecc6af40b6f131b3a', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:46', 'SerialNumber': 'LFIEG001DE', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T18:00:05.318Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6835cea1933c9017ac327279', 'mfgBridgeID': 'C8WC1004YJ', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T06:08:25.883Z', 'updated': '2025-06-26T06:10:45.206Z', 'lastOnline': '2025-06-26T06:10:45.206Z'}, 'locks': [{'_id': '65c03a1a3c112b4da6bfc474', 'macAddress': '98:1B:B5:76:86:46', 'LockID': 'BF1F118356524B7F8511AB70446D9555'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'e42c5646-d5e5-408f-b074-22348459bc6d', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': 'BF1F118356524B7F8511AB70446D9555', 'url_called': 'https://api.august.com/locks/BF1F118356524B7F8511AB70446D9555', 'status_code': 200, 'api_response_data': {'LockName': '336', 'Type': 15, 'Created': '2025-05-27T14:31:39.326Z', 'Updated': '2025-05-27T14:31:39.326Z', 'LockID': 'BF1F118356524B7F8511AB70446D9555', 'HouseID': '97f02fea-fe79-4b35-87f2-2eb43733e26b', 'HouseName': 'Lake Villa ', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9436542809344246, 'batteryInfo': {'level': 0.9436542809344246, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-30T12:46:24.760Z', 'lastChangeDate': '2025-05-27T14:31:39.326Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T14:31:39.326Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '03e5140d5a6db72ecc6af40b6f131b3a', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:46', 'SerialNumber': 'LFIEG001DE', 'LockStatus': {'status': 'unknown', 'dateTime': '2025-07-02T06:13:52.423Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'unknown'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6835cea1933c9017ac327279', 'mfgBridgeID': 'C8WC1004YJ', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'offline', 'lastOffline': '2025-07-02T06:13:52.424Z', 'updated': '2025-07-02T06:13:52.424Z', 'lastOnline': '2025-07-02T06:05:06.275Z'}, 'locks': [{'_id': '65c03a1a3c112b4da6bfc474', 'macAddress': '98:1B:B5:76:86:46', 'LockID': 'BF1F118356524B7F8511AB70446D9555'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'e42c5646-d5e5-408f-b074-22348459bc6d', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L306" t="b">
@@ -17698,7 +17698,7 @@
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '661D7EB4D68C4BF29190D1A397E047A5', 'url_called': 'https://api.august.com/locks/661D7EB4D68C4BF29190D1A397E047A5', 'status_code': 200, 'api_response_data': {'LockName': '337.1', 'Type': 15, 'Created': '2025-05-27T14:19:40.818Z', 'Updated': '2025-05-27T14:19:40.818Z', 'LockID': '661D7EB4D68C4BF29190D1A397E047A5', 'HouseID': '97f02fea-fe79-4b35-87f2-2eb43733e26b', 'HouseName': 'Lake Villa ', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9436542809344246, 'batteryInfo': {'level': 0.9436542809344246, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T22:30:56.325Z', 'lastChangeDate': '2025-05-27T14:19:40.818Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T14:19:40.818Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '13f980e83a930121887014cb467e5d57', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:85:BA', 'SerialNumber': 'LFIEG0017S', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T18:01:56.396Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6835cb8bb703c832f4ee319f', 'mfgBridgeID': 'C8WC1004SF', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T21:16:33.953Z', 'updated': '2025-06-26T21:17:07.523Z', 'lastOnline': '2025-06-26T21:17:07.523Z'}, 'locks': [{'_id': '65c03a1a8163972f64c9d30a', 'macAddress': '98:1B:B5:76:85:BA', 'LockID': '661D7EB4D68C4BF29190D1A397E047A5'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'c7319a31-df53-4e04-82f7-9007956b73a8', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '661D7EB4D68C4BF29190D1A397E047A5', 'url_called': 'https://api.august.com/locks/661D7EB4D68C4BF29190D1A397E047A5', 'status_code': 200, 'api_response_data': {'LockName': '337.1', 'Type': 15, 'Created': '2025-05-27T14:19:40.818Z', 'Updated': '2025-05-27T14:19:40.818Z', 'LockID': '661D7EB4D68C4BF29190D1A397E047A5', 'HouseID': '97f02fea-fe79-4b35-87f2-2eb43733e26b', 'HouseName': 'Lake Villa ', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9397993581551418, 'batteryInfo': {'level': 0.9397993581551418, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T19:31:38.402Z', 'lastChangeDate': '2025-05-27T14:19:40.818Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T14:19:40.818Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '13f980e83a930121887014cb467e5d57', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:85:BA', 'SerialNumber': 'LFIEG0017S', 'LockStatus': {'status': 'unknown', 'dateTime': '2025-07-02T05:14:58.343Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'unknown'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6835cb8bb703c832f4ee319f', 'mfgBridgeID': 'C8WC1004SF', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'offline', 'lastOffline': '2025-07-02T05:14:58.344Z', 'updated': '2025-07-02T05:14:58.344Z', 'lastOnline': '2025-07-02T05:09:28.981Z'}, 'locks': [{'_id': '65c03a1a8163972f64c9d30a', 'macAddress': '98:1B:B5:76:85:BA', 'LockID': '661D7EB4D68C4BF29190D1A397E047A5'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'c7319a31-df53-4e04-82f7-9007956b73a8', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L312" t="b">
@@ -18084,7 +18084,7 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '0379BE10594F4287912DA962A8F3781A', 'url_called': 'https://api.august.com/locks/0379BE10594F4287912DA962A8F3781A', 'status_code': 200, 'api_response_data': {'LockName': '337.2', 'Type': 15, 'Created': '2025-05-27T14:09:45.542Z', 'Updated': '2025-05-27T14:09:45.542Z', 'LockID': '0379BE10594F4287912DA962A8F3781A', 'HouseID': '97f02fea-fe79-4b35-87f2-2eb43733e26b', 'HouseName': 'Lake Villa ', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9333554558324977, 'batteryInfo': {'level': 0.9333554558324977, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T22:30:55.422Z', 'lastChangeDate': '2025-05-27T14:09:45.542Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T14:09:45.542Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '64316cba04852e435080cfc0efa0fac0', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:85:D9', 'SerialNumber': 'LFIEG0018T', 'LockStatus': {'status': 'unknown', 'dateTime': '2025-06-30T03:50:09.744Z', 'isLockStatusChanged': False, 'valid': True, 'unknownReason': 'unknown_error_during_connect', 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6835c90c62bbcdddb0150f9b', 'mfgBridgeID': 'C8WC1004K3', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-25T17:56:18.861Z', 'updated': '2025-06-25T18:02:58.855Z', 'lastOnline': '2025-06-25T18:02:58.855Z'}, 'locks': [{'_id': '65c03a1a8163970db9c9d2fd', 'macAddress': '98:1B:B5:76:85:D9', 'LockID': '0379BE10594F4287912DA962A8F3781A'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'b7cdd5d2-3517-469d-bea3-deedc7060346', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '0379BE10594F4287912DA962A8F3781A', 'url_called': 'https://api.august.com/locks/0379BE10594F4287912DA962A8F3781A', 'status_code': 200, 'api_response_data': {'LockName': '337.2', 'Type': 15, 'Created': '2025-05-27T14:09:45.542Z', 'Updated': '2025-05-27T14:09:45.542Z', 'LockID': '0379BE10594F4287912DA962A8F3781A', 'HouseID': '97f02fea-fe79-4b35-87f2-2eb43733e26b', 'HouseName': 'Lake Villa ', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9260094697820023, 'batteryInfo': {'level': 0.9260094697820023, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T22:37:06.705Z', 'lastChangeDate': '2025-05-27T14:09:45.542Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T14:09:45.542Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '64316cba04852e435080cfc0efa0fac0', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:85:D9', 'SerialNumber': 'LFIEG0018T', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-01T22:37:02.371Z', 'isLockStatusChanged': True, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6835c90c62bbcdddb0150f9b', 'mfgBridgeID': 'C8WC1004K3', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-07-01T15:03:01.788Z', 'updated': '2025-07-01T16:18:25.207Z', 'lastOnline': '2025-07-01T16:18:25.207Z'}, 'locks': [{'_id': '65c03a1a8163970db9c9d2fd', 'macAddress': '98:1B:B5:76:85:D9', 'LockID': '0379BE10594F4287912DA962A8F3781A'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'b7cdd5d2-3517-469d-bea3-deedc7060346', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L319" t="b">
@@ -18416,7 +18416,7 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '4A26C110BC1D4F679933325FE5446473', 'url_called': 'https://api.august.com/locks/4A26C110BC1D4F679933325FE5446473', 'status_code': 200, 'api_response_data': {'LockName': '338', 'Type': 15, 'Created': '2025-05-27T13:57:25.970Z', 'Updated': '2025-05-27T13:57:25.970Z', 'LockID': '4A26C110BC1D4F679933325FE5446473', 'HouseID': '97f02fea-fe79-4b35-87f2-2eb43733e26b', 'HouseName': 'Lake Villa ', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9436542809344246, 'batteryInfo': {'level': 0.9436542809344246, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T18:48:05.905Z', 'lastChangeDate': '2025-05-27T13:57:25.970Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T13:57:25.970Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '048c5728ab9b60a3fec50ac56418abaf', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:1E', 'SerialNumber': 'LFIEG001LL', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T17:59:56.439Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6835c665475bd2cc2ce8f626', 'mfgBridgeID': 'C8WAS00252', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-19T18:10:10.912Z', 'updated': '2025-06-19T18:11:51.096Z', 'lastOnline': '2025-06-19T18:11:51.096Z'}, 'locks': [{'_id': '65c03a19816397d4b9c9d291', 'macAddress': '98:1B:B5:76:87:1E', 'LockID': '4A26C110BC1D4F679933325FE5446473'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '45c03b51-3291-46fe-a74a-6f4d940ea1c0', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '4A26C110BC1D4F679933325FE5446473', 'url_called': 'https://api.august.com/locks/4A26C110BC1D4F679933325FE5446473', 'status_code': 200, 'api_response_data': {'LockName': '338', 'Type': 15, 'Created': '2025-05-27T13:57:25.970Z', 'Updated': '2025-05-27T13:57:25.970Z', 'LockID': '4A26C110BC1D4F679933325FE5446473', 'HouseID': '97f02fea-fe79-4b35-87f2-2eb43733e26b', 'HouseName': 'Lake Villa ', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9436542809344246, 'batteryInfo': {'level': 0.9436542809344246, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T19:42:24.151Z', 'lastChangeDate': '2025-05-27T13:57:25.970Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T13:57:25.970Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '048c5728ab9b60a3fec50ac56418abaf', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:1E', 'SerialNumber': 'LFIEG001LL', 'LockStatus': {'status': 'unknown', 'dateTime': '2025-07-02T06:00:40.006Z', 'isLockStatusChanged': True, 'valid': True, 'unknownReason': 'unknown_error_during_connect', 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6835c665475bd2cc2ce8f626', 'mfgBridgeID': 'C8WAS00252', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-19T18:10:10.912Z', 'updated': '2025-06-19T18:11:51.096Z', 'lastOnline': '2025-06-19T18:11:51.096Z'}, 'locks': [{'_id': '65c03a19816397d4b9c9d291', 'macAddress': '98:1B:B5:76:87:1E', 'LockID': '4A26C110BC1D4F679933325FE5446473'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '45c03b51-3291-46fe-a74a-6f4d940ea1c0', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L325" t="b">
@@ -18802,7 +18802,7 @@
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': 'D9E25C385E2F4DC993D7D74B59D19C03', 'url_called': 'https://api.august.com/locks/D9E25C385E2F4DC993D7D74B59D19C03', 'status_code': 200, 'api_response_data': {'LockName': '339', 'Type': 15, 'Created': '2025-05-27T13:28:38.037Z', 'Updated': '2025-05-27T13:28:38.037Z', 'LockID': 'D9E25C385E2F4DC993D7D74B59D19C03', 'HouseID': '97f02fea-fe79-4b35-87f2-2eb43733e26b', 'HouseName': 'Lake Villa ', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9397993581551418, 'batteryInfo': {'level': 0.9397993581551418, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T18:49:41.330Z', 'lastChangeDate': '2025-05-27T13:28:38.037Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T13:28:38.037Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '4d271a7a2b213007440660fbe7bc1fbc', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:38', 'SerialNumber': 'LFIEG001PG', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-30T04:45:34.331Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6835bf59f7a86a2bc03f7f11', 'mfgBridgeID': 'C8WAS0025E', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-28T04:41:23.036Z', 'updated': '2025-06-28T04:45:17.664Z', 'lastOnline': '2025-06-28T04:45:17.664Z'}, 'locks': [{'_id': '65c03a193c112b3496bfc41c', 'macAddress': '98:1B:B5:76:87:38', 'LockID': 'D9E25C385E2F4DC993D7D74B59D19C03'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '35499f5b-58f5-4c8d-a86a-4df631468551', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': 'D9E25C385E2F4DC993D7D74B59D19C03', 'url_called': 'https://api.august.com/locks/D9E25C385E2F4DC993D7D74B59D19C03', 'status_code': 200, 'api_response_data': {'LockName': '339', 'Type': 15, 'Created': '2025-05-27T13:28:38.037Z', 'Updated': '2025-05-27T13:28:38.037Z', 'LockID': 'D9E25C385E2F4DC993D7D74B59D19C03', 'HouseID': '97f02fea-fe79-4b35-87f2-2eb43733e26b', 'HouseName': 'Lake Villa ', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.937744174098043, 'batteryInfo': {'level': 0.937744174098043, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T19:31:08.144Z', 'lastChangeDate': '2025-05-27T13:28:38.037Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T13:28:38.037Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '4d271a7a2b213007440660fbe7bc1fbc', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:38', 'SerialNumber': 'LFIEG001PG', 'LockStatus': {'status': 'unknown', 'dateTime': '2025-07-02T04:51:22.726Z', 'isLockStatusChanged': True, 'valid': True, 'unknownReason': 'unknown_error_during_connect', 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6835bf59f7a86a2bc03f7f11', 'mfgBridgeID': 'C8WAS0025E', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-07-01T04:49:24.080Z', 'updated': '2025-07-01T04:50:35.753Z', 'lastOnline': '2025-07-01T04:50:35.753Z'}, 'locks': [{'_id': '65c03a193c112b3496bfc41c', 'macAddress': '98:1B:B5:76:87:38', 'LockID': 'D9E25C385E2F4DC993D7D74B59D19C03'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '35499f5b-58f5-4c8d-a86a-4df631468551', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L332" t="b">
@@ -19134,7 +19134,7 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': 'A76A6645FF5A4E83B088C8762C47D248', 'url_called': 'https://api.august.com/locks/A76A6645FF5A4E83B088C8762C47D248', 'status_code': 200, 'api_response_data': {'LockName': '340', 'Type': 15, 'Created': '2025-05-27T13:15:50.913Z', 'Updated': '2025-05-27T13:15:50.913Z', 'LockID': 'A76A6645FF5A4E83B088C8762C47D248', 'HouseID': '97f02fea-fe79-4b35-87f2-2eb43733e26b', 'HouseName': 'Lake Villa ', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9471995585117838, 'batteryInfo': {'level': 0.9471995585117838, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T22:30:21.178Z', 'lastChangeDate': '2025-05-27T13:15:50.913Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T13:15:50.913Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'aed3310e94e9233d001085728283a1e4', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:45', 'SerialNumber': 'LFIEG001PY', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-30T04:50:17.151Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6835bcec263fd29e2191e356', 'mfgBridgeID': 'C8WAS00257', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T21:17:53.241Z', 'updated': '2025-06-26T21:17:55.611Z', 'lastOnline': '2025-06-26T21:17:55.611Z'}, 'locks': [{'_id': '65c03a193c112b60dfbfc414', 'macAddress': '98:1B:B5:76:87:45', 'LockID': 'A76A6645FF5A4E83B088C8762C47D248'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '800c48d8-0f3a-4a67-940f-887254dde5aa', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': 'A76A6645FF5A4E83B088C8762C47D248', 'url_called': 'https://api.august.com/locks/A76A6645FF5A4E83B088C8762C47D248', 'status_code': 200, 'api_response_data': {'LockName': '340', 'Type': 15, 'Created': '2025-05-27T13:15:50.913Z', 'Updated': '2025-05-27T13:15:50.913Z', 'LockID': 'A76A6645FF5A4E83B088C8762C47D248', 'HouseID': '97f02fea-fe79-4b35-87f2-2eb43733e26b', 'HouseName': 'Lake Villa ', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9454632933266112, 'batteryInfo': {'level': 0.9454632933266112, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T19:13:28.789Z', 'lastChangeDate': '2025-05-27T13:15:50.913Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T13:15:50.913Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'aed3310e94e9233d001085728283a1e4', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:45', 'SerialNumber': 'LFIEG001PY', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T04:50:43.443Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6835bcec263fd29e2191e356', 'mfgBridgeID': 'C8WAS00257', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T21:17:53.241Z', 'updated': '2025-06-26T21:17:55.611Z', 'lastOnline': '2025-06-26T21:17:55.611Z'}, 'locks': [{'_id': '65c03a193c112b60dfbfc414', 'macAddress': '98:1B:B5:76:87:45', 'LockID': 'A76A6645FF5A4E83B088C8762C47D248'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '800c48d8-0f3a-4a67-940f-887254dde5aa', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L338" t="b">
@@ -19466,7 +19466,7 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': 'BD74665BAE7444D8A5DF47E967F201E8', 'url_called': 'https://api.august.com/locks/BD74665BAE7444D8A5DF47E967F201E8', 'status_code': 200, 'api_response_data': {'LockName': '341', 'Type': 15, 'Created': '2025-05-27T12:50:22.023Z', 'Updated': '2025-05-27T12:50:22.023Z', 'LockID': 'BD74665BAE7444D8A5DF47E967F201E8', 'HouseID': '97f02fea-fe79-4b35-87f2-2eb43733e26b', 'HouseName': 'Lake Villa ', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.937744174098043, 'batteryInfo': {'level': 0.937744174098043, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-28T17:02:44.593Z', 'lastChangeDate': '2025-05-27T12:50:22.023Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T12:50:22.023Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '5a9cb5703ac30f2a23cbcb77b6fede74', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:85:F7', 'SerialNumber': 'LFIEG0019T', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-30T01:51:19.749Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6835c2c4b9fe95acdb0f4f3f', 'mfgBridgeID': 'C8WAS00260', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-12T13:21:31.214Z', 'updated': '2025-06-17T22:02:04.674Z', 'lastOnline': '2025-06-17T22:02:04.674Z'}, 'locks': [{'_id': '65c03a1a81639750cdc9d2f2', 'macAddress': '98:1B:B5:76:85:F7', 'LockID': 'BD74665BAE7444D8A5DF47E967F201E8'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '7ed5c543-7698-4ac1-8162-3be98c1ae982', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': 'BD74665BAE7444D8A5DF47E967F201E8', 'url_called': 'https://api.august.com/locks/BD74665BAE7444D8A5DF47E967F201E8', 'status_code': 200, 'api_response_data': {'LockName': '341', 'Type': 15, 'Created': '2025-05-27T12:50:22.023Z', 'Updated': '2025-05-27T12:50:22.023Z', 'LockID': 'BD74665BAE7444D8A5DF47E967F201E8', 'HouseID': '97f02fea-fe79-4b35-87f2-2eb43733e26b', 'HouseName': 'Lake Villa ', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9355977177510795, 'batteryInfo': {'level': 0.9355977177510795, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T18:51:55.470Z', 'lastChangeDate': '2025-05-27T12:50:22.023Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T12:50:22.023Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '5a9cb5703ac30f2a23cbcb77b6fede74', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:85:F7', 'SerialNumber': 'LFIEG0019T', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T01:51:29.975Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6835c2c4b9fe95acdb0f4f3f', 'mfgBridgeID': 'C8WAS00260', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-12T13:21:31.214Z', 'updated': '2025-06-17T22:02:04.674Z', 'lastOnline': '2025-06-17T22:02:04.674Z'}, 'locks': [{'_id': '65c03a1a81639750cdc9d2f2', 'macAddress': '98:1B:B5:76:85:F7', 'LockID': 'BD74665BAE7444D8A5DF47E967F201E8'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '7ed5c543-7698-4ac1-8162-3be98c1ae982', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L344" t="b">
@@ -19798,7 +19798,7 @@
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '1227F13116654C65A2F1E3E044455FC2', 'url_called': 'https://api.august.com/locks/1227F13116654C65A2F1E3E044455FC2', 'status_code': 200, 'api_response_data': {'LockName': '342', 'Type': 15, 'Created': '2025-05-27T13:02:17.696Z', 'Updated': '2025-05-27T13:02:17.696Z', 'LockID': '1227F13116654C65A2F1E3E044455FC2', 'HouseID': '97f02fea-fe79-4b35-87f2-2eb43733e26b', 'HouseName': 'Lake Villa ', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9488677508088585, 'batteryInfo': {'level': 0.9488677508088585, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T22:30:17.800Z', 'lastChangeDate': '2025-05-27T13:02:17.696Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T13:02:17.696Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '3f39ced187feec616e61aaaeec9c8bf7', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:3E', 'SerialNumber': 'LFIEG001PQ', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T20:46:58.038Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6835c1b5c5a4fb3a7fcd0f48', 'mfgBridgeID': 'C8WAS00259', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-12T20:44:36.621Z', 'updated': '2025-06-17T22:02:06.641Z', 'lastOnline': '2025-06-17T22:02:06.641Z'}, 'locks': [{'_id': '65c03a193c112b1cf7bfc418', 'macAddress': '98:1B:B5:76:87:3E', 'LockID': '1227F13116654C65A2F1E3E044455FC2'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '53ffe9a8-9d37-4d01-8af8-5a59d4ba345f', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '1227F13116654C65A2F1E3E044455FC2', 'url_called': 'https://api.august.com/locks/1227F13116654C65A2F1E3E044455FC2', 'status_code': 200, 'api_response_data': {'LockName': '342', 'Type': 15, 'Created': '2025-05-27T13:02:17.696Z', 'Updated': '2025-05-27T13:02:17.696Z', 'LockID': '1227F13116654C65A2F1E3E044455FC2', 'HouseID': '97f02fea-fe79-4b35-87f2-2eb43733e26b', 'HouseName': 'Lake Villa ', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9471995585117838, 'batteryInfo': {'level': 0.9471995585117838, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T22:35:50.739Z', 'lastChangeDate': '2025-05-27T13:02:17.696Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T13:02:17.696Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '3f39ced187feec616e61aaaeec9c8bf7', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:3E', 'SerialNumber': 'LFIEG001PQ', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-01T22:35:45.798Z', 'isLockStatusChanged': True, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6835c1b5c5a4fb3a7fcd0f48', 'mfgBridgeID': 'C8WAS00259', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-12T20:44:36.621Z', 'updated': '2025-06-17T22:02:06.641Z', 'lastOnline': '2025-06-17T22:02:06.641Z'}, 'locks': [{'_id': '65c03a193c112b1cf7bfc418', 'macAddress': '98:1B:B5:76:87:3E', 'LockID': '1227F13116654C65A2F1E3E044455FC2'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '53ffe9a8-9d37-4d01-8af8-5a59d4ba345f', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L350" t="b">
@@ -20130,7 +20130,7 @@
       </c>
       <c r="K356" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '81CDB9BBE47C4808976ADD55CA66882F', 'url_called': 'https://api.august.com/locks/81CDB9BBE47C4808976ADD55CA66882F', 'status_code': 200, 'api_response_data': {'LockName': '343.1', 'Type': 15, 'Created': '2025-05-20T23:32:03.206Z', 'Updated': '2025-05-20T23:32:03.206Z', 'LockID': '81CDB9BBE47C4808976ADD55CA66882F', 'HouseID': 'c27b9d29-6b4a-48e6-be75-7fa16ee78cd4', 'HouseName': 'Quincy', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9471995585117838, 'batteryInfo': {'level': 0.9471995585117838, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T22:29:45.143Z', 'lastChangeDate': '2025-05-20T23:32:03.206Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-15T23:32:03.206Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '65973fa874735fd6b1523aa412b986aa', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:BD', 'SerialNumber': 'LFIEG001TY', 'LockStatus': {'status': 'unlocked', 'dateTime': '2025-06-29T21:34:55.735Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '682d12529de441d0d7c81e93', 'mfgBridgeID': 'C8WC1004J4', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-28T09:18:13.618Z', 'updated': '2025-06-28T09:34:44.989Z', 'lastOnline': '2025-06-28T09:34:44.989Z'}, 'locks': [{'_id': '65c03a193c112b38cfbfc3ba', 'macAddress': '98:1B:B5:76:87:BD', 'LockID': '81CDB9BBE47C4808976ADD55CA66882F'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '6231e69f-d273-4c5e-b3e2-d4152e7aceaf', 'ruleHash': {}, 'invitations': [{'invitationID': '5d57ac28-c0be-429c-aca8-bcdc1e6f2529', 'identifier': 'tel:+917990354874', 'deviceID': '81CDB9BBE47C4808976ADD55CA66882F', 'deviceType': 'lock', 'rule': 'always', 'type': 'superuser', 'DateCreated': 1747925521026, 'callingUserID': 'f9d50410-134c-4452-8a14-02826f80de07', 'Name': 'Mitul Nakum ', 'createdAt': '2025-05-22T14:52:01.026Z', 'updatedAt': '2025-05-22T14:52:01.026Z'}], 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '81CDB9BBE47C4808976ADD55CA66882F', 'url_called': 'https://api.august.com/locks/81CDB9BBE47C4808976ADD55CA66882F', 'status_code': 200, 'api_response_data': {'LockName': '343.1', 'Type': 15, 'Created': '2025-05-20T23:32:03.206Z', 'Updated': '2025-05-20T23:32:03.206Z', 'LockID': '81CDB9BBE47C4808976ADD55CA66882F', 'HouseID': 'c27b9d29-6b4a-48e6-be75-7fa16ee78cd4', 'HouseName': 'Quincy', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9436542809344246, 'batteryInfo': {'level': 0.9436542809344246, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T22:35:18.968Z', 'lastChangeDate': '2025-05-20T23:32:03.206Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-15T23:32:03.206Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '65973fa874735fd6b1523aa412b986aa', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:BD', 'SerialNumber': 'LFIEG001TY', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-01T22:35:16.940Z', 'isLockStatusChanged': True, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '682d12529de441d0d7c81e93', 'mfgBridgeID': 'C8WC1004J4', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-30T09:38:16.851Z', 'updated': '2025-06-30T10:05:01.127Z', 'lastOnline': '2025-06-30T10:05:01.127Z'}, 'locks': [{'_id': '65c03a193c112b38cfbfc3ba', 'macAddress': '98:1B:B5:76:87:BD', 'LockID': '81CDB9BBE47C4808976ADD55CA66882F'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '6231e69f-d273-4c5e-b3e2-d4152e7aceaf', 'ruleHash': {}, 'invitations': [{'invitationID': '5d57ac28-c0be-429c-aca8-bcdc1e6f2529', 'identifier': 'tel:+917990354874', 'deviceID': '81CDB9BBE47C4808976ADD55CA66882F', 'deviceType': 'lock', 'rule': 'always', 'type': 'superuser', 'DateCreated': 1747925521026, 'callingUserID': 'f9d50410-134c-4452-8a14-02826f80de07', 'Name': 'Mitul Nakum ', 'createdAt': '2025-05-22T14:52:01.026Z', 'updatedAt': '2025-05-22T14:52:01.026Z'}], 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L356" t="b">
@@ -20516,7 +20516,7 @@
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '9790145A19DF47A4AB9B43CE93B5E376', 'url_called': 'https://api.august.com/locks/9790145A19DF47A4AB9B43CE93B5E376', 'status_code': 200, 'api_response_data': {'LockName': '343.2', 'Type': 15, 'Created': '2025-05-20T23:22:01.790Z', 'Updated': '2025-05-20T23:22:01.790Z', 'LockID': '9790145A19DF47A4AB9B43CE93B5E376', 'HouseID': 'c27b9d29-6b4a-48e6-be75-7fa16ee78cd4', 'HouseName': 'Quincy', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9471995585117838, 'batteryInfo': {'level': 0.9471995585117838, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T22:29:52.689Z', 'lastChangeDate': '2025-05-20T23:22:01.790Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-15T23:22:01.790Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'c0bb7079cdb13154b8ec81a2d1816cc8', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:82', 'SerialNumber': 'LFIEG001RZ', 'LockStatus': {'status': 'unlocked', 'dateTime': '2025-06-29T23:24:34.751Z', 'isLockStatusChanged': True, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '682d0fff3e875f541080712f', 'mfgBridgeID': 'C8WC1004SW', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-29T23:22:41.760Z', 'updated': '2025-06-29T23:24:28.217Z', 'lastOnline': '2025-06-29T23:24:28.217Z'}, 'locks': [{'_id': '65c03a193c112b22dbbfc3e7', 'macAddress': '98:1B:B5:76:87:82', 'LockID': '9790145A19DF47A4AB9B43CE93B5E376'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '5bf412b0-26f3-4cb4-8585-d1edc1cd9865', 'ruleHash': {}, 'invitations': [{'invitationID': 'f9fb01d3-e250-4f1c-b873-199c15fc23d2', 'identifier': 'tel:+917990354874', 'deviceID': '9790145A19DF47A4AB9B43CE93B5E376', 'deviceType': 'lock', 'rule': 'always', 'type': 'superuser', 'DateCreated': 1747925529493, 'callingUserID': 'f9d50410-134c-4452-8a14-02826f80de07', 'Name': 'Mitul Nakum ', 'createdAt': '2025-05-22T14:52:09.493Z', 'updatedAt': '2025-05-22T14:52:09.493Z'}], 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '9790145A19DF47A4AB9B43CE93B5E376', 'url_called': 'https://api.august.com/locks/9790145A19DF47A4AB9B43CE93B5E376', 'status_code': 200, 'api_response_data': {'LockName': '343.2', 'Type': 15, 'Created': '2025-05-20T23:22:01.790Z', 'Updated': '2025-05-20T23:22:01.790Z', 'LockID': '9790145A19DF47A4AB9B43CE93B5E376', 'HouseID': 'c27b9d29-6b4a-48e6-be75-7fa16ee78cd4', 'HouseName': 'Quincy', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9436542809344246, 'batteryInfo': {'level': 0.9436542809344246, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T22:35:17.640Z', 'lastChangeDate': '2025-05-20T23:22:01.790Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-15T23:22:01.790Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'c0bb7079cdb13154b8ec81a2d1816cc8', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:82', 'SerialNumber': 'LFIEG001RZ', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-01T23:24:46.483Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '682d0fff3e875f541080712f', 'mfgBridgeID': 'C8WC1004SW', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-29T23:22:41.760Z', 'updated': '2025-06-29T23:24:28.217Z', 'lastOnline': '2025-06-29T23:24:28.217Z'}, 'locks': [{'_id': '65c03a193c112b22dbbfc3e7', 'macAddress': '98:1B:B5:76:87:82', 'LockID': '9790145A19DF47A4AB9B43CE93B5E376'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '5bf412b0-26f3-4cb4-8585-d1edc1cd9865', 'ruleHash': {}, 'invitations': [{'invitationID': 'f9fb01d3-e250-4f1c-b873-199c15fc23d2', 'identifier': 'tel:+917990354874', 'deviceID': '9790145A19DF47A4AB9B43CE93B5E376', 'deviceType': 'lock', 'rule': 'always', 'type': 'superuser', 'DateCreated': 1747925529493, 'callingUserID': 'f9d50410-134c-4452-8a14-02826f80de07', 'Name': 'Mitul Nakum ', 'createdAt': '2025-05-22T14:52:09.493Z', 'updatedAt': '2025-05-22T14:52:09.493Z'}], 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L363" t="b">
@@ -20902,7 +20902,7 @@
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '091AE71EEEEE40679F1547662830ECEA', 'url_called': 'https://api.august.com/locks/091AE71EEEEE40679F1547662830ECEA', 'status_code': 200, 'api_response_data': {'LockName': '344', 'Type': 15, 'Created': '2025-05-20T23:11:18.636Z', 'Updated': '2025-05-20T23:11:18.636Z', 'LockID': '091AE71EEEEE40679F1547662830ECEA', 'HouseID': 'c27b9d29-6b4a-48e6-be75-7fa16ee78cd4', 'HouseName': 'Quincy', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9436542809344246, 'batteryInfo': {'level': 0.9436542809344246, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-28T22:34:54.841Z', 'lastChangeDate': '2025-05-20T23:11:18.636Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-15T23:11:18.636Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '8be4a896769e3ddab53ca1cc29531c8f', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:4E', 'SerialNumber': 'LFIEG001Q7', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T23:26:17.184Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '682d0d5c9de441ed4ec81e84', 'mfgBridgeID': 'C8WAS0025Q', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-12T13:21:04.041Z', 'updated': '2025-06-17T22:02:04.028Z', 'lastOnline': '2025-06-17T22:02:04.028Z'}, 'locks': [{'_id': '65c03a19816397efdfc9d275', 'macAddress': '98:1B:B5:76:87:4E', 'LockID': '091AE71EEEEE40679F1547662830ECEA'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'f4a38c3c-905f-46e5-b40b-67546811aeaf', 'ruleHash': {}, 'invitations': [{'invitationID': '4d00aa53-7a70-4e13-b190-678ebdffee5d', 'identifier': 'tel:+917990354874', 'deviceID': '091AE71EEEEE40679F1547662830ECEA', 'deviceType': 'lock', 'rule': 'always', 'type': 'superuser', 'DateCreated': 1747925531416, 'callingUserID': 'f9d50410-134c-4452-8a14-02826f80de07', 'Name': 'Mitul Nakum ', 'createdAt': '2025-05-22T14:52:11.416Z', 'updatedAt': '2025-05-22T14:52:11.416Z'}], 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '091AE71EEEEE40679F1547662830ECEA', 'url_called': 'https://api.august.com/locks/091AE71EEEEE40679F1547662830ECEA', 'status_code': 200, 'api_response_data': {'LockName': '344', 'Type': 15, 'Created': '2025-05-20T23:11:18.636Z', 'Updated': '2025-05-20T23:11:18.636Z', 'LockID': '091AE71EEEEE40679F1547662830ECEA', 'HouseID': 'c27b9d29-6b4a-48e6-be75-7fa16ee78cd4', 'HouseName': 'Quincy', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9436542809344246, 'batteryInfo': {'level': 0.9436542809344246, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T22:01:37.114Z', 'lastChangeDate': '2025-05-20T23:11:18.636Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-15T23:11:18.636Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '8be4a896769e3ddab53ca1cc29531c8f', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:4E', 'SerialNumber': 'LFIEG001Q7', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T06:29:46.986Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '682d0d5c9de441ed4ec81e84', 'mfgBridgeID': 'C8WAS0025Q', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-07-01T13:45:05.091Z', 'updated': '2025-07-01T18:29:38.002Z', 'lastOnline': '2025-07-01T18:29:38.002Z'}, 'locks': [{'_id': '65c03a19816397efdfc9d275', 'macAddress': '98:1B:B5:76:87:4E', 'LockID': '091AE71EEEEE40679F1547662830ECEA'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'f4a38c3c-905f-46e5-b40b-67546811aeaf', 'ruleHash': {}, 'invitations': [{'invitationID': '4d00aa53-7a70-4e13-b190-678ebdffee5d', 'identifier': 'tel:+917990354874', 'deviceID': '091AE71EEEEE40679F1547662830ECEA', 'deviceType': 'lock', 'rule': 'always', 'type': 'superuser', 'DateCreated': 1747925531416, 'callingUserID': 'f9d50410-134c-4452-8a14-02826f80de07', 'Name': 'Mitul Nakum ', 'createdAt': '2025-05-22T14:52:11.416Z', 'updatedAt': '2025-05-22T14:52:11.416Z'}], 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L370" t="b">
@@ -21234,7 +21234,7 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': 'B85AFACCE6E7400EAAF739E35A081DBC', 'url_called': 'https://api.august.com/locks/B85AFACCE6E7400EAAF739E35A081DBC', 'status_code': 200, 'api_response_data': {'LockName': '345', 'Type': 15, 'Created': '2025-05-20T23:00:41.509Z', 'Updated': '2025-05-20T23:00:41.509Z', 'LockID': 'B85AFACCE6E7400EAAF739E35A081DBC', 'HouseID': 'c27b9d29-6b4a-48e6-be75-7fa16ee78cd4', 'HouseName': 'Quincy', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9504725386759674, 'batteryInfo': {'level': 0.9504725386759674, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-28T22:35:43.857Z', 'lastChangeDate': '2025-05-20T23:00:41.509Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-15T23:00:41.509Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'e1374678ad82d09c47615aee72aad63c', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:84', 'SerialNumber': 'LFIEG001S1', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-30T03:19:55.442Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '682d0b0a7a50d7358d732953', 'mfgBridgeID': 'C8WAS0037U', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-29T15:08:51.400Z', 'updated': '2025-06-29T15:19:49.211Z', 'lastOnline': '2025-06-29T15:19:49.211Z'}, 'locks': [{'_id': '65c03a193c112bdd44bfc3e6', 'macAddress': '98:1B:B5:76:87:84', 'LockID': 'B85AFACCE6E7400EAAF739E35A081DBC'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '62632a64-0944-4101-a274-f16c2778266e', 'ruleHash': {}, 'invitations': [{'invitationID': '337332de-3862-429d-a60b-07447b2b0e68', 'identifier': 'tel:+917990354874', 'deviceID': 'B85AFACCE6E7400EAAF739E35A081DBC', 'deviceType': 'lock', 'rule': 'always', 'type': 'superuser', 'DateCreated': 1747925524498, 'callingUserID': 'f9d50410-134c-4452-8a14-02826f80de07', 'Name': 'Mitul Nakum ', 'createdAt': '2025-05-22T14:52:04.498Z', 'updatedAt': '2025-05-22T14:52:04.498Z'}], 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': 'B85AFACCE6E7400EAAF739E35A081DBC', 'url_called': 'https://api.august.com/locks/B85AFACCE6E7400EAAF739E35A081DBC', 'status_code': 200, 'api_response_data': {'LockName': '345', 'Type': 15, 'Created': '2025-05-20T23:00:41.509Z', 'Updated': '2025-05-20T23:00:41.509Z', 'LockID': 'B85AFACCE6E7400EAAF739E35A081DBC', 'HouseID': 'c27b9d29-6b4a-48e6-be75-7fa16ee78cd4', 'HouseName': 'Quincy', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9504725386759674, 'batteryInfo': {'level': 0.9504725386759674, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T22:34:51.111Z', 'lastChangeDate': '2025-05-20T23:00:41.509Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-15T23:00:41.509Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'e1374678ad82d09c47615aee72aad63c', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:84', 'SerialNumber': 'LFIEG001S1', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-01T22:34:48.391Z', 'isLockStatusChanged': True, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '682d0b0a7a50d7358d732953', 'mfgBridgeID': 'C8WAS0037U', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-30T18:42:52.969Z', 'updated': '2025-06-30T19:12:24.400Z', 'lastOnline': '2025-06-30T19:12:24.400Z'}, 'locks': [{'_id': '65c03a193c112bdd44bfc3e6', 'macAddress': '98:1B:B5:76:87:84', 'LockID': 'B85AFACCE6E7400EAAF739E35A081DBC'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '62632a64-0944-4101-a274-f16c2778266e', 'ruleHash': {}, 'invitations': [{'invitationID': '337332de-3862-429d-a60b-07447b2b0e68', 'identifier': 'tel:+917990354874', 'deviceID': 'B85AFACCE6E7400EAAF739E35A081DBC', 'deviceType': 'lock', 'rule': 'always', 'type': 'superuser', 'DateCreated': 1747925524498, 'callingUserID': 'f9d50410-134c-4452-8a14-02826f80de07', 'Name': 'Mitul Nakum ', 'createdAt': '2025-05-22T14:52:04.498Z', 'updatedAt': '2025-05-22T14:52:04.498Z'}], 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L376" t="b">
@@ -21566,7 +21566,7 @@
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '6F15FC25A03948449910148A4DCD46A3', 'url_called': 'https://api.august.com/locks/6F15FC25A03948449910148A4DCD46A3', 'status_code': 200, 'api_response_data': {'LockName': '346', 'Type': 15, 'Created': '2025-05-20T22:49:08.755Z', 'Updated': '2025-05-20T22:49:08.755Z', 'LockID': '6F15FC25A03948449910148A4DCD46A3', 'HouseID': 'c27b9d29-6b4a-48e6-be75-7fa16ee78cd4', 'HouseName': 'Quincy', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9504725386759674, 'batteryInfo': {'level': 0.9504725386759674, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-28T15:31:46.631Z', 'lastChangeDate': '2025-05-20T22:49:08.755Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-15T22:49:08.755Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '3c5ecd9c6483847f7fdf29a05fba6002', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:FB', 'SerialNumber': 'LFIEG001KF', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T23:10:38.415Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '682d0863eb34706604a17fd9', 'mfgBridgeID': 'C8WAS00390', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-27T23:03:55.326Z', 'updated': '2025-06-27T23:10:23.101Z', 'lastOnline': '2025-06-27T23:10:23.101Z'}, 'locks': [{'_id': '65c03a1a3c112b5e76bfc449', 'macAddress': '98:1B:B5:76:86:FB', 'LockID': '6F15FC25A03948449910148A4DCD46A3'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'e00f7839-3921-44e1-8ad6-f782db3b499e', 'ruleHash': {}, 'invitations': [{'invitationID': '5c3da642-e938-4b74-a089-84f0ca9ae633', 'identifier': 'tel:+917990354874', 'deviceID': '6F15FC25A03948449910148A4DCD46A3', 'deviceType': 'lock', 'rule': 'always', 'type': 'superuser', 'DateCreated': 1747925522461, 'callingUserID': 'f9d50410-134c-4452-8a14-02826f80de07', 'Name': 'Mitul Nakum ', 'createdAt': '2025-05-22T14:52:02.461Z', 'updatedAt': '2025-05-22T14:52:02.461Z'}], 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '6F15FC25A03948449910148A4DCD46A3', 'url_called': 'https://api.august.com/locks/6F15FC25A03948449910148A4DCD46A3', 'status_code': 200, 'api_response_data': {'LockName': '346', 'Type': 15, 'Created': '2025-05-20T22:49:08.755Z', 'Updated': '2025-05-20T22:49:08.755Z', 'LockID': '6F15FC25A03948449910148A4DCD46A3', 'HouseID': 'c27b9d29-6b4a-48e6-be75-7fa16ee78cd4', 'HouseName': 'Quincy', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9471995585117838, 'batteryInfo': {'level': 0.9471995585117838, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T21:18:45.409Z', 'lastChangeDate': '2025-05-20T22:49:08.755Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-15T22:49:08.755Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '3c5ecd9c6483847f7fdf29a05fba6002', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:FB', 'SerialNumber': 'LFIEG001KF', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T02:22:08.486Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '682d0863eb34706604a17fd9', 'mfgBridgeID': 'C8WAS00390', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-07-01T14:20:52.216Z', 'updated': '2025-07-01T14:22:06.853Z', 'lastOnline': '2025-07-01T14:22:06.853Z'}, 'locks': [{'_id': '65c03a1a3c112b5e76bfc449', 'macAddress': '98:1B:B5:76:86:FB', 'LockID': '6F15FC25A03948449910148A4DCD46A3'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'e00f7839-3921-44e1-8ad6-f782db3b499e', 'ruleHash': {}, 'invitations': [{'invitationID': '5c3da642-e938-4b74-a089-84f0ca9ae633', 'identifier': 'tel:+917990354874', 'deviceID': '6F15FC25A03948449910148A4DCD46A3', 'deviceType': 'lock', 'rule': 'always', 'type': 'superuser', 'DateCreated': 1747925522461, 'callingUserID': 'f9d50410-134c-4452-8a14-02826f80de07', 'Name': 'Mitul Nakum ', 'createdAt': '2025-05-22T14:52:02.461Z', 'updatedAt': '2025-05-22T14:52:02.461Z'}], 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L382" t="b">
@@ -21952,7 +21952,7 @@
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '3712629ADD174D3C9403ED810842D7B4', 'url_called': 'https://api.august.com/locks/3712629ADD174D3C9403ED810842D7B4', 'status_code': 200, 'api_response_data': {'LockName': '347', 'Type': 15, 'Created': '2025-05-20T22:39:42.176Z', 'Updated': '2025-05-20T22:39:42.176Z', 'LockID': '3712629ADD174D3C9403ED810842D7B4', 'HouseID': 'c27b9d29-6b4a-48e6-be75-7fa16ee78cd4', 'HouseName': 'Quincy', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9488677508088585, 'batteryInfo': {'level': 0.9488677508088585, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-28T13:56:25.051Z', 'lastChangeDate': '2025-05-20T22:39:42.176Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-15T22:39:42.176Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'a24ebf4360fb9cf9b216d849798e1667', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:7C', 'SerialNumber': 'LFIEG001RS', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-30T00:59:46.085Z', 'isLockStatusChanged': True, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '682d05fb6a7e10216ff7ae3a', 'mfgBridgeID': 'C8WAS0037Y', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-29T00:53:10.459Z', 'updated': '2025-06-29T00:59:35.137Z', 'lastOnline': '2025-06-29T00:59:35.137Z'}, 'locks': [{'_id': '65c03a19816397e406c9d257', 'macAddress': '98:1B:B5:76:87:7C', 'LockID': '3712629ADD174D3C9403ED810842D7B4'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'db613a71-8e8d-48f7-9c8f-62e3e2ff9547', 'ruleHash': {}, 'invitations': [{'invitationID': '55007eb9-86ba-4223-9a67-89b5a6cbbd04', 'identifier': 'tel:+917990354874', 'deviceID': '3712629ADD174D3C9403ED810842D7B4', 'deviceType': 'lock', 'rule': 'always', 'type': 'superuser', 'DateCreated': 1747925528545, 'callingUserID': 'f9d50410-134c-4452-8a14-02826f80de07', 'Name': 'Mitul Nakum ', 'createdAt': '2025-05-22T14:52:08.545Z', 'updatedAt': '2025-05-22T14:52:08.545Z'}], 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '3712629ADD174D3C9403ED810842D7B4', 'url_called': 'https://api.august.com/locks/3712629ADD174D3C9403ED810842D7B4', 'status_code': 200, 'api_response_data': {'LockName': '347', 'Type': 15, 'Created': '2025-05-20T22:39:42.176Z', 'Updated': '2025-05-20T22:39:42.176Z', 'LockID': '3712629ADD174D3C9403ED810842D7B4', 'HouseID': 'c27b9d29-6b4a-48e6-be75-7fa16ee78cd4', 'HouseName': 'Quincy', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9471995585117838, 'batteryInfo': {'level': 0.9471995585117838, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T15:50:02.341Z', 'lastChangeDate': '2025-05-20T22:39:42.176Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-15T22:39:42.176Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'a24ebf4360fb9cf9b216d849798e1667', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:7C', 'SerialNumber': 'LFIEG001RS', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T01:14:59.838Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '682d05fb6a7e10216ff7ae3a', 'mfgBridgeID': 'C8WAS0037Y', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-30T13:02:49.784Z', 'updated': '2025-06-30T13:14:48.246Z', 'lastOnline': '2025-06-30T13:14:48.246Z'}, 'locks': [{'_id': '65c03a19816397e406c9d257', 'macAddress': '98:1B:B5:76:87:7C', 'LockID': '3712629ADD174D3C9403ED810842D7B4'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'db613a71-8e8d-48f7-9c8f-62e3e2ff9547', 'ruleHash': {}, 'invitations': [{'invitationID': '55007eb9-86ba-4223-9a67-89b5a6cbbd04', 'identifier': 'tel:+917990354874', 'deviceID': '3712629ADD174D3C9403ED810842D7B4', 'deviceType': 'lock', 'rule': 'always', 'type': 'superuser', 'DateCreated': 1747925528545, 'callingUserID': 'f9d50410-134c-4452-8a14-02826f80de07', 'Name': 'Mitul Nakum ', 'createdAt': '2025-05-22T14:52:08.545Z', 'updatedAt': '2025-05-22T14:52:08.545Z'}], 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L389" t="b">
@@ -22284,7 +22284,7 @@
       </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '8EB3548B9D6C402CB105D97CD361A846', 'url_called': 'https://api.august.com/locks/8EB3548B9D6C402CB105D97CD361A846', 'status_code': 200, 'api_response_data': {'LockName': '348', 'Type': 15, 'Created': '2025-05-20T22:28:29.221Z', 'Updated': '2025-05-20T22:28:29.221Z', 'LockID': '8EB3548B9D6C402CB105D97CD361A846', 'HouseID': 'c27b9d29-6b4a-48e6-be75-7fa16ee78cd4', 'HouseName': 'Quincy', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9488677508088585, 'batteryInfo': {'level': 0.9488677508088585, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-28T19:42:29.893Z', 'lastChangeDate': '2025-05-20T22:28:29.221Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-15T22:28:29.221Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '866c5ff481fbdf9cdccd5ecce22379f5', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:12', 'SerialNumber': 'LFIEG001L7', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T19:07:35.159Z', 'isLockStatusChanged': True, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '682d0384f7ca7c00f5f7fd24', 'mfgBridgeID': 'C8WAS00385', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-29T18:47:06.056Z', 'updated': '2025-06-29T19:07:26.576Z', 'lastOnline': '2025-06-29T19:07:26.576Z'}, 'locks': [{'_id': '65c03a19816397678fc9d299', 'macAddress': '98:1B:B5:76:87:12', 'LockID': '8EB3548B9D6C402CB105D97CD361A846'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'eeb4fe88-fd49-45af-b7a5-df27100c3bbf', 'ruleHash': {}, 'invitations': [{'invitationID': '2df068c6-86ba-48e4-a295-e0c76bfc21fb', 'identifier': 'tel:+917990354874', 'deviceID': '8EB3548B9D6C402CB105D97CD361A846', 'deviceType': 'lock', 'rule': 'always', 'type': 'superuser', 'DateCreated': 1747925523060, 'callingUserID': 'f9d50410-134c-4452-8a14-02826f80de07', 'Name': 'Mitul Nakum ', 'createdAt': '2025-05-22T14:52:03.061Z', 'updatedAt': '2025-05-22T14:52:03.061Z'}], 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '8EB3548B9D6C402CB105D97CD361A846', 'url_called': 'https://api.august.com/locks/8EB3548B9D6C402CB105D97CD361A846', 'status_code': 200, 'api_response_data': {'LockName': '348', 'Type': 15, 'Created': '2025-05-20T22:28:29.221Z', 'Updated': '2025-05-20T22:28:29.221Z', 'LockID': '8EB3548B9D6C402CB105D97CD361A846', 'HouseID': 'c27b9d29-6b4a-48e6-be75-7fa16ee78cd4', 'HouseName': 'Quincy', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9471995585117838, 'batteryInfo': {'level': 0.9471995585117838, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T20:47:52.421Z', 'lastChangeDate': '2025-05-20T22:28:29.221Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-15T22:28:29.221Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '866c5ff481fbdf9cdccd5ecce22379f5', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:12', 'SerialNumber': 'LFIEG001L7', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-01T23:12:20.801Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '682d0384f7ca7c00f5f7fd24', 'mfgBridgeID': 'C8WAS00385', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-30T10:59:11.117Z', 'updated': '2025-06-30T11:12:09.181Z', 'lastOnline': '2025-06-30T11:12:09.181Z'}, 'locks': [{'_id': '65c03a19816397678fc9d299', 'macAddress': '98:1B:B5:76:87:12', 'LockID': '8EB3548B9D6C402CB105D97CD361A846'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'eeb4fe88-fd49-45af-b7a5-df27100c3bbf', 'ruleHash': {}, 'invitations': [{'invitationID': '2df068c6-86ba-48e4-a295-e0c76bfc21fb', 'identifier': 'tel:+917990354874', 'deviceID': '8EB3548B9D6C402CB105D97CD361A846', 'deviceType': 'lock', 'rule': 'always', 'type': 'superuser', 'DateCreated': 1747925523060, 'callingUserID': 'f9d50410-134c-4452-8a14-02826f80de07', 'Name': 'Mitul Nakum ', 'createdAt': '2025-05-22T14:52:03.061Z', 'updatedAt': '2025-05-22T14:52:03.061Z'}], 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L395" t="b">
@@ -22670,7 +22670,7 @@
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '4791FF0543D74D83BD35062846C93DF5', 'url_called': 'https://api.august.com/locks/4791FF0543D74D83BD35062846C93DF5', 'status_code': 200, 'api_response_data': {'LockName': '349', 'Type': 15, 'Created': '2025-05-20T22:17:59.956Z', 'Updated': '2025-05-20T22:17:59.956Z', 'LockID': '4791FF0543D74D83BD35062846C93DF5', 'HouseID': 'c27b9d29-6b4a-48e6-be75-7fa16ee78cd4', 'HouseName': 'Quincy', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9436542809344246, 'batteryInfo': {'level': 0.9436542809344246, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-28T22:14:09.754Z', 'lastChangeDate': '2025-05-20T22:17:59.956Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-15T22:17:59.956Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '89dd38444c5ba5f2ed172d913b8341b9', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:3D', 'SerialNumber': 'LFIEG001PP', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T18:51:56.126Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '682d0111f879cc7bf77e9137', 'mfgBridgeID': 'C8WAS00398', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T01:07:52.926Z', 'updated': '2025-06-26T01:08:24.900Z', 'lastOnline': '2025-06-26T01:08:24.900Z'}, 'locks': [{'_id': '65c03a193c112b670fbfc419', 'macAddress': '98:1B:B5:76:87:3D', 'LockID': '4791FF0543D74D83BD35062846C93DF5'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '53150a8e-4e84-4287-97cd-8de800fe9593', 'ruleHash': {}, 'invitations': [{'invitationID': '70ff5eed-8430-4dfd-b991-1b3ec5a1e371', 'identifier': 'tel:+917990354874', 'deviceID': '4791FF0543D74D83BD35062846C93DF5', 'deviceType': 'lock', 'rule': 'always', 'type': 'superuser', 'DateCreated': 1747925524034, 'callingUserID': 'f9d50410-134c-4452-8a14-02826f80de07', 'Name': 'Mitul Nakum ', 'createdAt': '2025-05-22T14:52:04.034Z', 'updatedAt': '2025-05-22T14:52:04.034Z'}], 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '4791FF0543D74D83BD35062846C93DF5', 'url_called': 'https://api.august.com/locks/4791FF0543D74D83BD35062846C93DF5', 'status_code': 200, 'api_response_data': {'LockName': '349', 'Type': 15, 'Created': '2025-05-20T22:17:59.956Z', 'Updated': '2025-05-20T22:17:59.956Z', 'LockID': '4791FF0543D74D83BD35062846C93DF5', 'HouseID': 'c27b9d29-6b4a-48e6-be75-7fa16ee78cd4', 'HouseName': 'Quincy', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9417678528589022, 'batteryInfo': {'level': 0.9417678528589022, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T15:02:29.768Z', 'lastChangeDate': '2025-05-20T22:17:59.956Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-15T22:17:59.956Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '89dd38444c5ba5f2ed172d913b8341b9', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:3D', 'SerialNumber': 'LFIEG001PP', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-01T18:57:09.505Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '682d0111f879cc7bf77e9137', 'mfgBridgeID': 'C8WAS00398', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-30T06:56:35.532Z', 'updated': '2025-06-30T06:56:53.666Z', 'lastOnline': '2025-06-30T06:56:53.666Z'}, 'locks': [{'_id': '65c03a193c112b670fbfc419', 'macAddress': '98:1B:B5:76:87:3D', 'LockID': '4791FF0543D74D83BD35062846C93DF5'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '53150a8e-4e84-4287-97cd-8de800fe9593', 'ruleHash': {}, 'invitations': [{'invitationID': '70ff5eed-8430-4dfd-b991-1b3ec5a1e371', 'identifier': 'tel:+917990354874', 'deviceID': '4791FF0543D74D83BD35062846C93DF5', 'deviceType': 'lock', 'rule': 'always', 'type': 'superuser', 'DateCreated': 1747925524034, 'callingUserID': 'f9d50410-134c-4452-8a14-02826f80de07', 'Name': 'Mitul Nakum ', 'createdAt': '2025-05-22T14:52:04.034Z', 'updatedAt': '2025-05-22T14:52:04.034Z'}], 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L402" t="b">
@@ -23056,7 +23056,7 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '440C24B90D354F199A2553488F7383C5', 'url_called': 'https://api.august.com/locks/440C24B90D354F199A2553488F7383C5', 'status_code': 200, 'api_response_data': {'LockName': '350', 'Type': 15, 'Created': '2025-05-20T22:08:03.665Z', 'Updated': '2025-05-20T22:08:03.665Z', 'LockID': '440C24B90D354F199A2553488F7383C5', 'HouseID': 'c27b9d29-6b4a-48e6-be75-7fa16ee78cd4', 'HouseName': 'Quincy', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9488677508088585, 'batteryInfo': {'level': 0.9488677508088585, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-28T22:35:37.181Z', 'lastChangeDate': '2025-05-20T22:08:03.665Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-15T22:08:03.665Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'fc5219ba4314c2cdfec37e65e9b7a81a', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:66', 'SerialNumber': 'LFIEG001R1', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T20:47:01.653Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '682cfebb0f3150d809004cd2', 'mfgBridgeID': 'C8WAS0037E', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T21:18:13.511Z', 'updated': '2025-06-26T21:18:47.003Z', 'lastOnline': '2025-06-26T21:18:47.003Z'}, 'locks': [{'_id': '65c03a193c112b1e59bfc3fd', 'macAddress': '98:1B:B5:76:87:66', 'LockID': '440C24B90D354F199A2553488F7383C5'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'bb4840ae-1391-4ea9-a650-e0c658ff96c7', 'ruleHash': {}, 'invitations': [{'invitationID': '157e1dd9-5aa5-4a38-8d86-1e760b35ac30', 'identifier': 'tel:+917990354874', 'deviceID': '440C24B90D354F199A2553488F7383C5', 'deviceType': 'lock', 'rule': 'always', 'type': 'superuser', 'DateCreated': 1747925521619, 'callingUserID': 'f9d50410-134c-4452-8a14-02826f80de07', 'Name': 'Mitul Nakum ', 'createdAt': '2025-05-22T14:52:01.619Z', 'updatedAt': '2025-05-22T14:52:01.619Z'}], 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '440C24B90D354F199A2553488F7383C5', 'url_called': 'https://api.august.com/locks/440C24B90D354F199A2553488F7383C5', 'status_code': 200, 'api_response_data': {'LockName': '350', 'Type': 15, 'Created': '2025-05-20T22:08:03.665Z', 'Updated': '2025-05-20T22:08:03.665Z', 'LockID': '440C24B90D354F199A2553488F7383C5', 'HouseID': 'c27b9d29-6b4a-48e6-be75-7fa16ee78cd4', 'HouseName': 'Quincy', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9471995585117838, 'batteryInfo': {'level': 0.9471995585117838, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T22:34:24.649Z', 'lastChangeDate': '2025-05-20T22:08:03.665Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-15T22:08:03.665Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'fc5219ba4314c2cdfec37e65e9b7a81a', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:66', 'SerialNumber': 'LFIEG001R1', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-01T22:34:22.766Z', 'isLockStatusChanged': True, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '682cfebb0f3150d809004cd2', 'mfgBridgeID': 'C8WAS0037E', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-30T20:28:22.147Z', 'updated': '2025-06-30T20:28:24.104Z', 'lastOnline': '2025-06-30T20:28:24.104Z'}, 'locks': [{'_id': '65c03a193c112b1e59bfc3fd', 'macAddress': '98:1B:B5:76:87:66', 'LockID': '440C24B90D354F199A2553488F7383C5'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'bb4840ae-1391-4ea9-a650-e0c658ff96c7', 'ruleHash': {}, 'invitations': [{'invitationID': '157e1dd9-5aa5-4a38-8d86-1e760b35ac30', 'identifier': 'tel:+917990354874', 'deviceID': '440C24B90D354F199A2553488F7383C5', 'deviceType': 'lock', 'rule': 'always', 'type': 'superuser', 'DateCreated': 1747925521619, 'callingUserID': 'f9d50410-134c-4452-8a14-02826f80de07', 'Name': 'Mitul Nakum ', 'createdAt': '2025-05-22T14:52:01.619Z', 'updatedAt': '2025-05-22T14:52:01.619Z'}], 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L409" t="b">
@@ -23388,7 +23388,7 @@
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '35B9333077ED4B18B69C8B810219A060', 'url_called': 'https://api.august.com/locks/35B9333077ED4B18B69C8B810219A060', 'status_code': 200, 'api_response_data': {'LockName': '351', 'Type': 15, 'Created': '2025-05-20T21:56:18.285Z', 'Updated': '2025-05-20T21:56:18.285Z', 'LockID': '35B9333077ED4B18B69C8B810219A060', 'HouseID': 'c27b9d29-6b4a-48e6-be75-7fa16ee78cd4', 'HouseName': 'Quincy', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9417678528589022, 'batteryInfo': {'level': 0.9417678528589022, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-28T22:35:48.376Z', 'lastChangeDate': '2025-05-20T21:56:18.285Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-15T21:56:18.285Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '14f22382f58a3fd83e96794cf1b1a8ab', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:3A', 'SerialNumber': 'LFIEG001PJ', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T22:07:27.864Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '682cfbef103ad70e09e28851', 'mfgBridgeID': 'C8WAS0026G', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-27T06:59:12.091Z', 'updated': '2025-06-27T07:01:31.202Z', 'lastOnline': '2025-06-27T07:01:31.202Z'}, 'locks': [{'_id': '65c03a193c112b1e9dbfc41b', 'macAddress': '98:1B:B5:76:87:3A', 'LockID': '35B9333077ED4B18B69C8B810219A060'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '9c3c47d5-67af-49b0-b9d5-f6252e0251f3', 'ruleHash': {}, 'invitations': [{'invitationID': 'ac9d3c57-36b5-4750-9a66-c06c3b3b0599', 'identifier': 'tel:+917990354874', 'deviceID': '35B9333077ED4B18B69C8B810219A060', 'deviceType': 'lock', 'rule': 'always', 'type': 'superuser', 'DateCreated': 1747925529052, 'callingUserID': 'f9d50410-134c-4452-8a14-02826f80de07', 'Name': 'Mitul Nakum ', 'createdAt': '2025-05-22T14:52:09.052Z', 'updatedAt': '2025-05-22T14:52:09.052Z'}], 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '35B9333077ED4B18B69C8B810219A060', 'url_called': 'https://api.august.com/locks/35B9333077ED4B18B69C8B810219A060', 'status_code': 200, 'api_response_data': {'LockName': '351', 'Type': 15, 'Created': '2025-05-20T21:56:18.285Z', 'Updated': '2025-05-20T21:56:18.285Z', 'LockID': '35B9333077ED4B18B69C8B810219A060', 'HouseID': 'c27b9d29-6b4a-48e6-be75-7fa16ee78cd4', 'HouseName': 'Quincy', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9417678528589022, 'batteryInfo': {'level': 0.9417678528589022, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T20:42:35.825Z', 'lastChangeDate': '2025-05-20T21:56:18.285Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-15T21:56:18.285Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '14f22382f58a3fd83e96794cf1b1a8ab', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:3A', 'SerialNumber': 'LFIEG001PJ', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-01T22:07:38.267Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '682cfbef103ad70e09e28851', 'mfgBridgeID': 'C8WAS0026G', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-27T06:59:12.091Z', 'updated': '2025-06-27T07:01:31.202Z', 'lastOnline': '2025-06-27T07:01:31.202Z'}, 'locks': [{'_id': '65c03a193c112b1e9dbfc41b', 'macAddress': '98:1B:B5:76:87:3A', 'LockID': '35B9333077ED4B18B69C8B810219A060'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '9c3c47d5-67af-49b0-b9d5-f6252e0251f3', 'ruleHash': {}, 'invitations': [{'invitationID': 'ac9d3c57-36b5-4750-9a66-c06c3b3b0599', 'identifier': 'tel:+917990354874', 'deviceID': '35B9333077ED4B18B69C8B810219A060', 'deviceType': 'lock', 'rule': 'always', 'type': 'superuser', 'DateCreated': 1747925529052, 'callingUserID': 'f9d50410-134c-4452-8a14-02826f80de07', 'Name': 'Mitul Nakum ', 'createdAt': '2025-05-22T14:52:09.052Z', 'updatedAt': '2025-05-22T14:52:09.052Z'}], 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L415" t="b">
@@ -24126,7 +24126,7 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '29DAF1C294A04AADB56C289716669D50', 'url_called': 'https://api.august.com/locks/29DAF1C294A04AADB56C289716669D50', 'status_code': 200, 'api_response_data': {'LockName': '424', 'Type': 15, 'Created': '2025-05-28T21:17:14.406Z', 'Updated': '2025-05-28T21:17:14.406Z', 'LockID': '29DAF1C294A04AADB56C289716669D50', 'HouseID': '7c420c0f-c083-4153-aab2-2cacee058319', 'HouseName': 'Rye 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9436542809344246, 'batteryInfo': {'level': 0.9436542809344246, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T19:41:52.538Z', 'lastChangeDate': '2025-05-28T21:17:14.406Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T21:17:14.406Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'e2b69186e22ddb1061404dec907a37e5', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:85:E5', 'SerialNumber': 'LFIEG00196', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T23:35:36.621Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68377ebc06600c74ed788d17', 'mfgBridgeID': 'C8WAS00297', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T21:17:37.330Z', 'updated': '2025-06-26T21:18:12.831Z', 'lastOnline': '2025-06-26T21:18:12.831Z'}, 'locks': [{'_id': '65c03a1a8163971fedc9d2f9', 'macAddress': '98:1B:B5:76:85:E5', 'LockID': '29DAF1C294A04AADB56C289716669D50'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '4bf21627-694e-495f-8118-73c8688fffeb', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '29DAF1C294A04AADB56C289716669D50', 'url_called': 'https://api.august.com/locks/29DAF1C294A04AADB56C289716669D50', 'status_code': 200, 'api_response_data': {'LockName': '424', 'Type': 15, 'Created': '2025-05-28T21:17:14.406Z', 'Updated': '2025-05-28T21:17:14.406Z', 'LockID': '29DAF1C294A04AADB56C289716669D50', 'HouseID': '7c420c0f-c083-4153-aab2-2cacee058319', 'HouseName': 'Rye 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9417678528589022, 'batteryInfo': {'level': 0.9417678528589022, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T14:00:06.654Z', 'lastChangeDate': '2025-05-28T21:17:14.406Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T21:17:14.406Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'e2b69186e22ddb1061404dec907a37e5', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:85:E5', 'SerialNumber': 'LFIEG00196', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T06:01:12.233Z', 'isLockStatusChanged': True, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68377ebc06600c74ed788d17', 'mfgBridgeID': 'C8WAS00297', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T21:17:37.330Z', 'updated': '2025-06-26T21:18:12.831Z', 'lastOnline': '2025-06-26T21:18:12.831Z'}, 'locks': [{'_id': '65c03a1a8163971fedc9d2f9', 'macAddress': '98:1B:B5:76:85:E5', 'LockID': '29DAF1C294A04AADB56C289716669D50'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '4bf21627-694e-495f-8118-73c8688fffeb', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L428" t="b">
@@ -24458,7 +24458,7 @@
       </c>
       <c r="K434" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '7A8E05273E91456782C2E2388FF50D17', 'url_called': 'https://api.august.com/locks/7A8E05273E91456782C2E2388FF50D17', 'status_code': 200, 'api_response_data': {'LockName': '425', 'Type': 15, 'Created': '2025-05-28T21:30:28.705Z', 'Updated': '2025-05-28T21:30:28.705Z', 'LockID': '7A8E05273E91456782C2E2388FF50D17', 'HouseID': '7c420c0f-c083-4153-aab2-2cacee058319', 'HouseName': 'Rye 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.937744174098043, 'batteryInfo': {'level': 0.937744174098043, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T19:42:55.361Z', 'lastChangeDate': '2025-05-28T21:30:28.705Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T21:30:28.705Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '4685cd51752893b9fe2634e24dd2c4f4', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:63', 'SerialNumber': 'LFIEG001ED', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T18:01:28.924Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '683780ee471577a595c666a6', 'mfgBridgeID': 'C8WAS0029A', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T17:54:36.369Z', 'updated': '2025-06-26T17:55:11.066Z', 'lastOnline': '2025-06-26T17:55:11.066Z'}, 'locks': [{'_id': '65c03a1a8163972af8c9d2c0', 'macAddress': '98:1B:B5:76:86:63', 'LockID': '7A8E05273E91456782C2E2388FF50D17'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '7f83a0b9-a4a1-4f40-ab6b-b4e020b32733', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '7A8E05273E91456782C2E2388FF50D17', 'url_called': 'https://api.august.com/locks/7A8E05273E91456782C2E2388FF50D17', 'status_code': 200, 'api_response_data': {'LockName': '425', 'Type': 15, 'Created': '2025-05-28T21:30:28.705Z', 'Updated': '2025-05-28T21:30:28.705Z', 'LockID': '7A8E05273E91456782C2E2388FF50D17', 'HouseID': '7c420c0f-c083-4153-aab2-2cacee058319', 'HouseName': 'Rye 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9333554558324977, 'batteryInfo': {'level': 0.9333554558324977, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T13:39:13.254Z', 'lastChangeDate': '2025-05-28T21:30:28.705Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T21:30:28.705Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '4685cd51752893b9fe2634e24dd2c4f4', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:63', 'SerialNumber': 'LFIEG001ED', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T01:47:42.810Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '683780ee471577a595c666a6', 'mfgBridgeID': 'C8WAS0029A', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-07-01T13:44:43.941Z', 'updated': '2025-07-01T13:47:31.953Z', 'lastOnline': '2025-07-01T13:47:31.953Z'}, 'locks': [{'_id': '65c03a1a8163972af8c9d2c0', 'macAddress': '98:1B:B5:76:86:63', 'LockID': '7A8E05273E91456782C2E2388FF50D17'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '7f83a0b9-a4a1-4f40-ab6b-b4e020b32733', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L434" t="b">
@@ -24790,7 +24790,7 @@
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': 'AE18B54E5FC74FE2865CFF08AB4BFB18', 'url_called': 'https://api.august.com/locks/AE18B54E5FC74FE2865CFF08AB4BFB18', 'status_code': 200, 'api_response_data': {'LockName': '426', 'Type': 15, 'Created': '2025-05-28T20:42:12.149Z', 'Updated': '2025-05-28T20:42:12.149Z', 'LockID': 'AE18B54E5FC74FE2865CFF08AB4BFB18', 'HouseID': '7c420c0f-c083-4153-aab2-2cacee058319', 'HouseName': 'Rye 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9711144092325412, 'batteryInfo': {'level': 0.9711144092325412, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-05-28T21:34:33.412Z', 'lastChangeDate': '2025-05-28T20:42:12.149Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T20:42:12.149Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '7c5e688457ad3c19beab28a30fb9abfa', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:67', 'SerialNumber': 'LFIEG001EH', 'LockStatus': {'status': 'unknown', 'dateTime': '2025-06-29T18:04:53.735Z', 'isLockStatusChanged': False, 'valid': True, 'unknownReason': 'unknown_error_during_connect', 'doorState': 'unknown'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '683776badded48509f28a058', 'mfgBridgeID': 'C8WAS0026D', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T21:17:47.900Z', 'updated': '2025-06-26T21:18:20.057Z', 'lastOnline': '2025-06-26T21:18:20.057Z'}, 'locks': [{'_id': '65c03a1a8163977c24c9d2bf', 'macAddress': '98:1B:B5:76:86:67', 'LockID': 'AE18B54E5FC74FE2865CFF08AB4BFB18'}], 'enhancedStatus': {'WifiModuleConnectionIssue': 1748468898710, 'WifiModuleConnectionIssueCount': 1}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '004cece9-0bea-4e8f-9648-12af0345589e', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': 'AE18B54E5FC74FE2865CFF08AB4BFB18', 'url_called': 'https://api.august.com/locks/AE18B54E5FC74FE2865CFF08AB4BFB18', 'status_code': 200, 'api_response_data': {'LockName': '426', 'Type': 15, 'Created': '2025-05-28T20:42:12.149Z', 'Updated': '2025-05-28T20:42:12.149Z', 'LockID': 'AE18B54E5FC74FE2865CFF08AB4BFB18', 'HouseID': '7c420c0f-c083-4153-aab2-2cacee058319', 'HouseName': 'Rye 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9711144092325412, 'batteryInfo': {'level': 0.9711144092325412, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-05-28T21:34:33.412Z', 'lastChangeDate': '2025-05-28T20:42:12.149Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T20:42:12.149Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '7c5e688457ad3c19beab28a30fb9abfa', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:67', 'SerialNumber': 'LFIEG001EH', 'LockStatus': {'status': 'unknown', 'dateTime': '2025-07-02T06:05:01.355Z', 'isLockStatusChanged': False, 'valid': True, 'unknownReason': 'unknown_error_during_connect', 'doorState': 'unknown'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '683776badded48509f28a058', 'mfgBridgeID': 'C8WAS0026D', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T21:17:47.900Z', 'updated': '2025-06-26T21:18:20.057Z', 'lastOnline': '2025-06-26T21:18:20.057Z'}, 'locks': [{'_id': '65c03a1a8163977c24c9d2bf', 'macAddress': '98:1B:B5:76:86:67', 'LockID': 'AE18B54E5FC74FE2865CFF08AB4BFB18'}], 'enhancedStatus': {'WifiModuleConnectionIssue': 1748468898710, 'WifiModuleConnectionIssueCount': 1}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '004cece9-0bea-4e8f-9648-12af0345589e', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L440" t="b">
@@ -25122,7 +25122,7 @@
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '7A53B8ABAF2F4859B683C7C1D5F9BC07', 'url_called': 'https://api.august.com/locks/7A53B8ABAF2F4859B683C7C1D5F9BC07', 'status_code': 200, 'api_response_data': {'LockName': '427', 'Type': 15, 'Created': '2025-05-28T20:52:48.648Z', 'Updated': '2025-05-28T20:52:48.648Z', 'LockID': '7A53B8ABAF2F4859B683C7C1D5F9BC07', 'HouseID': '7c420c0f-c083-4153-aab2-2cacee058319', 'HouseName': 'Rye 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9711144092325412, 'batteryInfo': {'level': 0.9711144092325412, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-05-28T22:11:38.981Z', 'lastChangeDate': '2025-05-28T20:52:48.648Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T20:52:48.648Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'fb829cff03e301111faa826041575ddd', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:51', 'SerialNumber': 'LFIEG001DT', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T18:02:49.851Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '683778f98d7e3a0057a134d1', 'mfgBridgeID': 'C8WAS002RD', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-27T00:32:33.114Z', 'updated': '2025-06-27T01:44:43.230Z', 'lastOnline': '2025-06-27T01:44:43.230Z'}, 'locks': [{'_id': '65c03a1a8163971ff4c9d2c8', 'macAddress': '98:1B:B5:76:86:51', 'LockID': '7A53B8ABAF2F4859B683C7C1D5F9BC07'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '31a44ddf-c79f-4a60-9fa4-4a65622ad114', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '7A53B8ABAF2F4859B683C7C1D5F9BC07', 'url_called': 'https://api.august.com/locks/7A53B8ABAF2F4859B683C7C1D5F9BC07', 'status_code': 200, 'api_response_data': {'LockName': '427', 'Type': 15, 'Created': '2025-05-28T20:52:48.648Z', 'Updated': '2025-05-28T20:52:48.648Z', 'LockID': '7A53B8ABAF2F4859B683C7C1D5F9BC07', 'HouseID': '7c420c0f-c083-4153-aab2-2cacee058319', 'HouseName': 'Rye 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9711144092325412, 'batteryInfo': {'level': 0.9711144092325412, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-05-28T22:11:38.981Z', 'lastChangeDate': '2025-05-28T20:52:48.648Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T20:52:48.648Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'fb829cff03e301111faa826041575ddd', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:51', 'SerialNumber': 'LFIEG001DT', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T06:03:03.000Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '683778f98d7e3a0057a134d1', 'mfgBridgeID': 'C8WAS002RD', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-27T00:32:33.114Z', 'updated': '2025-06-27T01:44:43.230Z', 'lastOnline': '2025-06-27T01:44:43.230Z'}, 'locks': [{'_id': '65c03a1a8163971ff4c9d2c8', 'macAddress': '98:1B:B5:76:86:51', 'LockID': '7A53B8ABAF2F4859B683C7C1D5F9BC07'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '31a44ddf-c79f-4a60-9fa4-4a65622ad114', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L446" t="b">
@@ -25508,7 +25508,7 @@
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '88BFCFA31AE342B18512104A779CB2C0', 'url_called': 'https://api.august.com/locks/88BFCFA31AE342B18512104A779CB2C0', 'status_code': 200, 'api_response_data': {'LockName': '428', 'Type': 15, 'Created': '2025-05-28T20:15:31.657Z', 'Updated': '2025-05-28T20:15:31.657Z', 'LockID': '88BFCFA31AE342B18512104A779CB2C0', 'HouseID': '7c420c0f-c083-4153-aab2-2cacee058319', 'HouseName': 'Rye 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9397993581551418, 'batteryInfo': {'level': 0.9397993581551418, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T19:44:50.721Z', 'lastChangeDate': '2025-05-28T20:15:31.657Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T20:15:31.657Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '340fb839cecc0ee37e934098a09bacd0', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:5F', 'SerialNumber': 'LFIEG001E8', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T18:00:03.066Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6837705f4297d1c990b0c3bb', 'mfgBridgeID': 'C8WAS00258', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T17:55:16.506Z', 'updated': '2025-06-26T17:55:50.253Z', 'lastOnline': '2025-06-26T17:55:50.253Z'}, 'locks': [{'_id': '65c03a1a8163970267c9d2c2', 'macAddress': '98:1B:B5:76:86:5F', 'LockID': '88BFCFA31AE342B18512104A779CB2C0'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '0fa1fef6-f179-4fe3-af63-8828fcb2cd2d', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '88BFCFA31AE342B18512104A779CB2C0', 'url_called': 'https://api.august.com/locks/88BFCFA31AE342B18512104A779CB2C0', 'status_code': 200, 'api_response_data': {'LockName': '428', 'Type': 15, 'Created': '2025-05-28T20:15:31.657Z', 'Updated': '2025-05-28T20:15:31.657Z', 'LockID': '88BFCFA31AE342B18512104A779CB2C0', 'HouseID': '7c420c0f-c083-4153-aab2-2cacee058319', 'HouseName': 'Rye 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.937744174098043, 'batteryInfo': {'level': 0.937744174098043, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T22:04:03.313Z', 'lastChangeDate': '2025-05-28T20:15:31.657Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T20:15:31.657Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '340fb839cecc0ee37e934098a09bacd0', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:5F', 'SerialNumber': 'LFIEG001E8', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T06:00:13.488Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6837705f4297d1c990b0c3bb', 'mfgBridgeID': 'C8WAS00258', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T17:55:16.506Z', 'updated': '2025-06-26T17:55:50.253Z', 'lastOnline': '2025-06-26T17:55:50.253Z'}, 'locks': [{'_id': '65c03a1a8163970267c9d2c2', 'macAddress': '98:1B:B5:76:86:5F', 'LockID': '88BFCFA31AE342B18512104A779CB2C0'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '0fa1fef6-f179-4fe3-af63-8828fcb2cd2d', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L453" t="b">
@@ -25840,7 +25840,7 @@
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '7554B521943544EA822541ADBA1C6486', 'url_called': 'https://api.august.com/locks/7554B521943544EA822541ADBA1C6486', 'status_code': 200, 'api_response_data': {'LockName': '429', 'Type': 15, 'Created': '2025-05-28T20:29:54.697Z', 'Updated': '2025-05-28T20:29:54.697Z', 'LockID': '7554B521943544EA822541ADBA1C6486', 'HouseID': '7c420c0f-c083-4153-aab2-2cacee058319', 'HouseName': 'Rye 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9563501256125164, 'batteryInfo': {'level': 0.9563501256125164, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-05-28T21:47:44.571Z', 'lastChangeDate': '2025-05-28T20:29:54.697Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T20:29:54.697Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'e679065e61c1803b0c8a378e7f6b2d85', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:DD', 'SerialNumber': 'LFIEG001JF', 'LockStatus': {'status': 'unknown', 'dateTime': '2025-06-29T18:03:17.864Z', 'isLockStatusChanged': False, 'valid': True, 'unknownReason': 'unknown_error_during_connect', 'doorState': 'unknown'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '683773e090d2033749bdcc8e', 'mfgBridgeID': 'C8WAS002RH', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T06:57:12.588Z', 'updated': '2025-06-26T06:59:31.085Z', 'lastOnline': '2025-06-26T06:59:31.085Z'}, 'locks': [{'_id': '65c03a1a3c112b3be3bfc45a', 'macAddress': '98:1B:B5:76:86:DD', 'LockID': '7554B521943544EA822541ADBA1C6486'}], 'enhancedStatus': {'WifiModuleConnectionIssue': 1748469991136, 'WifiModuleConnectionIssueCount': 1}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'e305703f-2b32-4a12-8358-4a2b8db84dc0', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '7554B521943544EA822541ADBA1C6486', 'url_called': 'https://api.august.com/locks/7554B521943544EA822541ADBA1C6486', 'status_code': 200, 'api_response_data': {'LockName': '429', 'Type': 15, 'Created': '2025-05-28T20:29:54.697Z', 'Updated': '2025-05-28T20:29:54.697Z', 'LockID': '7554B521943544EA822541ADBA1C6486', 'HouseID': '7c420c0f-c083-4153-aab2-2cacee058319', 'HouseName': 'Rye 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9563501256125164, 'batteryInfo': {'level': 0.9563501256125164, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-05-28T21:47:44.571Z', 'lastChangeDate': '2025-05-28T20:29:54.697Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T20:29:54.697Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'e679065e61c1803b0c8a378e7f6b2d85', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:DD', 'SerialNumber': 'LFIEG001JF', 'LockStatus': {'status': 'unknown', 'dateTime': '2025-07-02T06:03:31.090Z', 'isLockStatusChanged': False, 'valid': True, 'unknownReason': 'unknown_error_during_connect', 'doorState': 'unknown'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '683773e090d2033749bdcc8e', 'mfgBridgeID': 'C8WAS002RH', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T06:57:12.588Z', 'updated': '2025-06-26T06:59:31.085Z', 'lastOnline': '2025-06-26T06:59:31.085Z'}, 'locks': [{'_id': '65c03a1a3c112b3be3bfc45a', 'macAddress': '98:1B:B5:76:86:DD', 'LockID': '7554B521943544EA822541ADBA1C6486'}], 'enhancedStatus': {'WifiModuleConnectionIssue': 1748469991136, 'WifiModuleConnectionIssueCount': 1}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'e305703f-2b32-4a12-8358-4a2b8db84dc0', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L459" t="b">
@@ -26172,7 +26172,7 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '956277B5D2BB48318D8822938BFA2450', 'url_called': 'https://api.august.com/locks/956277B5D2BB48318D8822938BFA2450', 'status_code': 200, 'api_response_data': {'LockName': '430', 'Type': 15, 'Created': '2025-05-28T20:05:48.410Z', 'Updated': '2025-05-28T20:05:48.410Z', 'LockID': '956277B5D2BB48318D8822938BFA2450', 'HouseID': '7c420c0f-c083-4153-aab2-2cacee058319', 'HouseName': 'Rye 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9417678528589022, 'batteryInfo': {'level': 0.9417678528589022, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T19:46:59.961Z', 'lastChangeDate': '2025-05-28T20:05:48.410Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T20:05:48.410Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '8e43e0a61ff1f0a85a5a3da07907f038', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:75:4A:8F', 'SerialNumber': 'LFICQ001GS', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T18:03:36.566Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68376e04df65dd5215fe04a0', 'mfgBridgeID': 'C8WC1004RH', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-25T17:56:37.090Z', 'updated': '2025-06-25T18:03:17.270Z', 'lastOnline': '2025-06-25T18:03:17.270Z'}, 'locks': [{'_id': '660239120924f89502b004d4', 'macAddress': '98:1B:B5:75:4A:8F', 'LockID': '956277B5D2BB48318D8822938BFA2450'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'e705ebc7-343d-4ec4-b768-08e3ed3642f0', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '956277B5D2BB48318D8822938BFA2450', 'url_called': 'https://api.august.com/locks/956277B5D2BB48318D8822938BFA2450', 'status_code': 200, 'api_response_data': {'LockName': '430', 'Type': 15, 'Created': '2025-05-28T20:05:48.410Z', 'Updated': '2025-05-28T20:05:48.410Z', 'LockID': '956277B5D2BB48318D8822938BFA2450', 'HouseID': '7c420c0f-c083-4153-aab2-2cacee058319', 'HouseName': 'Rye 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9397993581551418, 'batteryInfo': {'level': 0.9397993581551418, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T22:04:56.533Z', 'lastChangeDate': '2025-05-28T20:05:48.410Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T20:05:48.410Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '8e43e0a61ff1f0a85a5a3da07907f038', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:75:4A:8F', 'SerialNumber': 'LFICQ001GS', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T06:03:45.959Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68376e04df65dd5215fe04a0', 'mfgBridgeID': 'C8WC1004RH', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-25T17:56:37.090Z', 'updated': '2025-06-25T18:03:17.270Z', 'lastOnline': '2025-06-25T18:03:17.270Z'}, 'locks': [{'_id': '660239120924f89502b004d4', 'macAddress': '98:1B:B5:75:4A:8F', 'LockID': '956277B5D2BB48318D8822938BFA2450'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'e705ebc7-343d-4ec4-b768-08e3ed3642f0', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L465" t="b">
@@ -26558,7 +26558,7 @@
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': 'B7EE2EABE08F424D82F8A3232A656CB2', 'url_called': 'https://api.august.com/locks/B7EE2EABE08F424D82F8A3232A656CB2', 'status_code': 200, 'api_response_data': {'LockName': '431', 'Type': 15, 'Created': '2025-05-28T19:55:31.655Z', 'Updated': '2025-05-28T19:55:31.655Z', 'LockID': 'B7EE2EABE08F424D82F8A3232A656CB2', 'HouseID': '7c420c0f-c083-4153-aab2-2cacee058319', 'HouseName': 'Rye 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9471995585117838, 'batteryInfo': {'level': 0.9471995585117838, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T19:52:08.619Z', 'lastChangeDate': '2025-05-28T19:55:31.655Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T19:55:31.655Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'e7646a4d3d68c5ab9dd5b6d6605df02d', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:85:1C', 'SerialNumber': 'LFIEG0012G', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T18:01:25.869Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68376baaceb626fe5470dcb9', 'mfgBridgeID': 'C8WC1004KS', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T21:17:52.052Z', 'updated': '2025-06-26T21:18:25.477Z', 'lastOnline': '2025-06-26T21:18:25.477Z'}, 'locks': [{'_id': '65c03a1a8163974d92c9d34b', 'macAddress': '98:1B:B5:76:85:1C', 'LockID': 'B7EE2EABE08F424D82F8A3232A656CB2'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '3205d631-3b31-44db-a7ef-300d51e9d5c2', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': 'B7EE2EABE08F424D82F8A3232A656CB2', 'url_called': 'https://api.august.com/locks/B7EE2EABE08F424D82F8A3232A656CB2', 'status_code': 200, 'api_response_data': {'LockName': '431', 'Type': 15, 'Created': '2025-05-28T19:55:31.655Z', 'Updated': '2025-05-28T19:55:31.655Z', 'LockID': 'B7EE2EABE08F424D82F8A3232A656CB2', 'HouseID': '7c420c0f-c083-4153-aab2-2cacee058319', 'HouseName': 'Rye 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9436542809344246, 'batteryInfo': {'level': 0.9436542809344246, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T22:05:44.961Z', 'lastChangeDate': '2025-05-28T19:55:31.655Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T19:55:31.655Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'e7646a4d3d68c5ab9dd5b6d6605df02d', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:85:1C', 'SerialNumber': 'LFIEG0012G', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T06:01:35.224Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68376baaceb626fe5470dcb9', 'mfgBridgeID': 'C8WC1004KS', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T21:17:52.052Z', 'updated': '2025-06-26T21:18:25.477Z', 'lastOnline': '2025-06-26T21:18:25.477Z'}, 'locks': [{'_id': '65c03a1a8163974d92c9d34b', 'macAddress': '98:1B:B5:76:85:1C', 'LockID': 'B7EE2EABE08F424D82F8A3232A656CB2'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '3205d631-3b31-44db-a7ef-300d51e9d5c2', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L472" t="b">
@@ -27550,7 +27550,7 @@
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '26BB13D666C0444580D4FDF425CF4D7F', 'url_called': 'https://api.august.com/locks/26BB13D666C0444580D4FDF425CF4D7F', 'status_code': 200, 'api_response_data': {'LockName': '433', 'Type': 15, 'Created': '2025-05-28T12:54:06.233Z', 'Updated': '2025-05-28T12:54:06.233Z', 'LockID': '26BB13D666C0444580D4FDF425CF4D7F', 'HouseID': '97f02fea-fe79-4b35-87f2-2eb43733e26b', 'HouseName': 'Lake Villa ', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9471995585117838, 'batteryInfo': {'level': 0.9471995585117838, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T21:59:40.531Z', 'lastChangeDate': '2025-05-28T12:54:06.233Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T12:54:06.233Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '1386c316d51cdf30ab0f32529ae457aa', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:21', 'SerialNumber': 'LFIEG001C6', 'LockStatus': {'status': 'unlocked', 'dateTime': '2025-06-29T22:47:24.728Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '683709402129114098cc91d8', 'mfgBridgeID': 'C8WAS0039E', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T21:16:48.916Z', 'updated': '2025-06-26T21:17:22.207Z', 'lastOnline': '2025-06-26T21:17:22.207Z'}, 'locks': [{'_id': '65c03a1a8163972c68c9d2de', 'macAddress': '98:1B:B5:76:86:21', 'LockID': '26BB13D666C0444580D4FDF425CF4D7F'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '8f0d3c99-17cf-47f8-8ab6-fd90e83f8f13', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '26BB13D666C0444580D4FDF425CF4D7F', 'url_called': 'https://api.august.com/locks/26BB13D666C0444580D4FDF425CF4D7F', 'status_code': 200, 'api_response_data': {'LockName': '433', 'Type': 15, 'Created': '2025-05-28T12:54:06.233Z', 'Updated': '2025-05-28T12:54:06.233Z', 'LockID': '26BB13D666C0444580D4FDF425CF4D7F', 'HouseID': '97f02fea-fe79-4b35-87f2-2eb43733e26b', 'HouseName': 'Lake Villa ', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9436542809344246, 'batteryInfo': {'level': 0.9436542809344246, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T13:32:25.879Z', 'lastChangeDate': '2025-05-28T12:54:06.233Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T12:54:06.233Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '1386c316d51cdf30ab0f32529ae457aa', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:21', 'SerialNumber': 'LFIEG001C6', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T06:02:36.691Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '683709402129114098cc91d8', 'mfgBridgeID': 'C8WAS0039E', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-07-01T18:43:53.299Z', 'updated': '2025-07-01T18:46:51.361Z', 'lastOnline': '2025-07-01T18:46:51.361Z'}, 'locks': [{'_id': '65c03a1a8163972c68c9d2de', 'macAddress': '98:1B:B5:76:86:21', 'LockID': '26BB13D666C0444580D4FDF425CF4D7F'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '8f0d3c99-17cf-47f8-8ab6-fd90e83f8f13', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L490" t="b">
@@ -27936,7 +27936,7 @@
       </c>
       <c r="K497" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '654A07FC8F7A4175909913526A99724B', 'url_called': 'https://api.august.com/locks/654A07FC8F7A4175909913526A99724B', 'status_code': 200, 'api_response_data': {'LockName': '434', 'Type': 15, 'Created': '2025-05-27T18:44:43.648Z', 'Updated': '2025-05-27T18:44:43.648Z', 'LockID': '654A07FC8F7A4175909913526A99724B', 'HouseID': '12d1d7de-6e2f-43ce-869d-a6fa5c0e4edf', 'HouseName': 'Lake Villa 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9397993581551418, 'batteryInfo': {'level': 0.9397993581551418, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T22:21:42.137Z', 'lastChangeDate': '2025-05-27T18:44:43.648Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T18:44:43.648Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '69ab60dbd1a1b02d5c250d16e148d837', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:85:2A', 'SerialNumber': 'LFIEG0012Z', 'LockStatus': {'status': 'unlocked', 'dateTime': '2025-06-29T18:01:20.075Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68360975d8d5e4a1be9887c8', 'mfgBridgeID': 'C8WC1004YT', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T21:17:21.188Z', 'updated': '2025-06-26T21:17:54.703Z', 'lastOnline': '2025-06-26T21:17:54.703Z'}, 'locks': [{'_id': '65c03a1a816397b5a5c9d344', 'macAddress': '98:1B:B5:76:85:2A', 'LockID': '654A07FC8F7A4175909913526A99724B'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '06c63073-33f1-4a68-b702-8de685777e22', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '654A07FC8F7A4175909913526A99724B', 'url_called': 'https://api.august.com/locks/654A07FC8F7A4175909913526A99724B', 'status_code': 200, 'api_response_data': {'LockName': '434', 'Type': 15, 'Created': '2025-05-27T18:44:43.648Z', 'Updated': '2025-05-27T18:44:43.648Z', 'LockID': '654A07FC8F7A4175909913526A99724B', 'HouseID': '12d1d7de-6e2f-43ce-869d-a6fa5c0e4edf', 'HouseName': 'Lake Villa 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9397993581551418, 'batteryInfo': {'level': 0.9397993581551418, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-30T21:20:19.431Z', 'lastChangeDate': '2025-05-27T18:44:43.648Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T18:44:43.648Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '69ab60dbd1a1b02d5c250d16e148d837', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:85:2A', 'SerialNumber': 'LFIEG0012Z', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T06:01:33.588Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68360975d8d5e4a1be9887c8', 'mfgBridgeID': 'C8WC1004YT', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T21:17:21.188Z', 'updated': '2025-06-26T21:17:54.703Z', 'lastOnline': '2025-06-26T21:17:54.703Z'}, 'locks': [{'_id': '65c03a1a816397b5a5c9d344', 'macAddress': '98:1B:B5:76:85:2A', 'LockID': '654A07FC8F7A4175909913526A99724B'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '06c63073-33f1-4a68-b702-8de685777e22', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L497" t="b">
@@ -28322,7 +28322,7 @@
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '2E76149400C54B5FAB776192797AF3E4', 'url_called': 'https://api.august.com/locks/2E76149400C54B5FAB776192797AF3E4', 'status_code': 200, 'api_response_data': {'LockName': '435', 'Type': 15, 'Created': '2025-05-27T18:59:44.709Z', 'Updated': '2025-05-27T18:59:44.709Z', 'LockID': '2E76149400C54B5FAB776192797AF3E4', 'HouseID': '12d1d7de-6e2f-43ce-869d-a6fa5c0e4edf', 'HouseName': 'Lake Villa 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9333554558324977, 'batteryInfo': {'level': 0.9333554558324977, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T18:50:42.315Z', 'lastChangeDate': '2025-05-27T18:59:44.709Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T18:59:44.709Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'e8b50561f898b0bc43e13a2a58d8a831', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:85:B9', 'SerialNumber': 'LFIEG0017R', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T18:02:48.745Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68360d171627a267e7417ca8', 'mfgBridgeID': 'C8WC1004T0', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T21:16:42.262Z', 'updated': '2025-06-26T21:17:15.898Z', 'lastOnline': '2025-06-26T21:17:15.898Z'}, 'locks': [{'_id': '65c03a1a81639727b4c9d30b', 'macAddress': '98:1B:B5:76:85:B9', 'LockID': '2E76149400C54B5FAB776192797AF3E4'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '3bf1fb3e-cf08-42d3-a43b-ccd6a12bd49b', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '2E76149400C54B5FAB776192797AF3E4', 'url_called': 'https://api.august.com/locks/2E76149400C54B5FAB776192797AF3E4', 'status_code': 200, 'api_response_data': {'LockName': '435', 'Type': 15, 'Created': '2025-05-27T18:59:44.709Z', 'Updated': '2025-05-27T18:59:44.709Z', 'LockID': '2E76149400C54B5FAB776192797AF3E4', 'HouseID': '12d1d7de-6e2f-43ce-869d-a6fa5c0e4edf', 'HouseName': 'Lake Villa 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9310129155310278, 'batteryInfo': {'level': 0.9310129155310278, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T22:26:45.837Z', 'lastChangeDate': '2025-05-27T18:59:44.709Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T18:59:44.709Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'e8b50561f898b0bc43e13a2a58d8a831', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:85:B9', 'SerialNumber': 'LFIEG0017R', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T06:20:09.866Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68360d171627a267e7417ca8', 'mfgBridgeID': 'C8WC1004T0', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T21:16:42.262Z', 'updated': '2025-06-26T21:17:15.898Z', 'lastOnline': '2025-06-26T21:17:15.898Z'}, 'locks': [{'_id': '65c03a1a81639727b4c9d30b', 'macAddress': '98:1B:B5:76:85:B9', 'LockID': '2E76149400C54B5FAB776192797AF3E4'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '3bf1fb3e-cf08-42d3-a43b-ccd6a12bd49b', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L504" t="b">
@@ -28654,7 +28654,7 @@
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '842BAEDA3E134328B50DF8228A493C45', 'url_called': 'https://api.august.com/locks/842BAEDA3E134328B50DF8228A493C45', 'status_code': 200, 'api_response_data': {'LockName': '436', 'Type': 15, 'Created': '2025-05-27T19:22:01.811Z', 'Updated': '2025-05-27T19:22:01.811Z', 'LockID': '842BAEDA3E134328B50DF8228A493C45', 'HouseID': '12d1d7de-6e2f-43ce-869d-a6fa5c0e4edf', 'HouseName': 'Lake Villa 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9397993581551418, 'batteryInfo': {'level': 0.9397993581551418, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T18:54:55.895Z', 'lastChangeDate': '2025-05-27T19:22:01.811Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T19:22:01.811Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '363e494469d9002b378964eaee59fd7a', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:4C', 'SerialNumber': 'LFIEG001DL', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T18:00:05.991Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6836122ddeafa3dc4a37ddac', 'mfgBridgeID': 'C8WC1004YG', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T01:07:53.881Z', 'updated': '2025-06-26T01:08:27.557Z', 'lastOnline': '2025-06-26T01:08:27.557Z'}, 'locks': [{'_id': '65c03a1a81639722bdc9d2cc', 'macAddress': '98:1B:B5:76:86:4C', 'LockID': '842BAEDA3E134328B50DF8228A493C45'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '8f9644dd-38cf-4e01-b1a8-55156afcd237', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '842BAEDA3E134328B50DF8228A493C45', 'url_called': 'https://api.august.com/locks/842BAEDA3E134328B50DF8228A493C45', 'status_code': 200, 'api_response_data': {'LockName': '436', 'Type': 15, 'Created': '2025-05-27T19:22:01.811Z', 'Updated': '2025-05-27T19:22:01.811Z', 'LockID': '842BAEDA3E134328B50DF8228A493C45', 'HouseID': '12d1d7de-6e2f-43ce-869d-a6fa5c0e4edf', 'HouseName': 'Lake Villa 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9397993581551418, 'batteryInfo': {'level': 0.9397993581551418, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T18:54:55.895Z', 'lastChangeDate': '2025-05-27T19:22:01.811Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T19:22:01.811Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '363e494469d9002b378964eaee59fd7a', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:4C', 'SerialNumber': 'LFIEG001DL', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T06:00:18.653Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6836122ddeafa3dc4a37ddac', 'mfgBridgeID': 'C8WC1004YG', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T01:07:53.881Z', 'updated': '2025-06-26T01:08:27.557Z', 'lastOnline': '2025-06-26T01:08:27.557Z'}, 'locks': [{'_id': '65c03a1a81639722bdc9d2cc', 'macAddress': '98:1B:B5:76:86:4C', 'LockID': '842BAEDA3E134328B50DF8228A493C45'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '8f9644dd-38cf-4e01-b1a8-55156afcd237', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L510" t="b">
@@ -28986,7 +28986,7 @@
       </c>
       <c r="K516" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '4E5571C5A23946009C5A8E7D0B9CF266', 'url_called': 'https://api.august.com/locks/4E5571C5A23946009C5A8E7D0B9CF266', 'status_code': 200, 'api_response_data': {'LockName': '437.1', 'Type': 15, 'Created': '2025-05-27T20:03:02.840Z', 'Updated': '2025-05-27T20:03:02.840Z', 'LockID': '4E5571C5A23946009C5A8E7D0B9CF266', 'HouseID': '12d1d7de-6e2f-43ce-869d-a6fa5c0e4edf', 'HouseName': 'Lake Villa 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9417678528589022, 'batteryInfo': {'level': 0.9417678528589022, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T22:21:17.246Z', 'lastChangeDate': '2025-05-27T20:03:02.840Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T20:03:02.840Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '65a835049340e2dd4b43c8686d61469d', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:7A', 'SerialNumber': 'LFIEG001RQ', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T18:04:32.324Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68361c01d4ae3ab565b69b53', 'mfgBridgeID': 'C8WAS0026H', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T01:07:38.714Z', 'updated': '2025-06-26T01:08:12.805Z', 'lastOnline': '2025-06-26T01:08:12.805Z'}, 'locks': [{'_id': '65c03a198163976116c9d259', 'macAddress': '98:1B:B5:76:87:7A', 'LockID': '4E5571C5A23946009C5A8E7D0B9CF266'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '9c61479d-8056-4c40-9791-57c5480f93b0', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '4E5571C5A23946009C5A8E7D0B9CF266', 'url_called': 'https://api.august.com/locks/4E5571C5A23946009C5A8E7D0B9CF266', 'status_code': 200, 'api_response_data': {'LockName': '437.1', 'Type': 15, 'Created': '2025-05-27T20:03:02.840Z', 'Updated': '2025-05-27T20:03:02.840Z', 'LockID': '4E5571C5A23946009C5A8E7D0B9CF266', 'HouseID': '12d1d7de-6e2f-43ce-869d-a6fa5c0e4edf', 'HouseName': 'Lake Villa 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9417678528589022, 'batteryInfo': {'level': 0.9417678528589022, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T22:21:17.246Z', 'lastChangeDate': '2025-05-27T20:03:02.840Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T20:03:02.840Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '65a835049340e2dd4b43c8686d61469d', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:7A', 'SerialNumber': 'LFIEG001RQ', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T06:04:53.079Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68361c01d4ae3ab565b69b53', 'mfgBridgeID': 'C8WAS0026H', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T01:07:38.714Z', 'updated': '2025-06-26T01:08:12.805Z', 'lastOnline': '2025-06-26T01:08:12.805Z'}, 'locks': [{'_id': '65c03a198163976116c9d259', 'macAddress': '98:1B:B5:76:87:7A', 'LockID': '4E5571C5A23946009C5A8E7D0B9CF266'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '9c61479d-8056-4c40-9791-57c5480f93b0', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L516" t="b">
@@ -29372,7 +29372,7 @@
       </c>
       <c r="K523" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '466BB0A731A84154BE4899AB11F1B46F', 'url_called': 'https://api.august.com/locks/466BB0A731A84154BE4899AB11F1B46F', 'status_code': 200, 'api_response_data': {'LockName': '437.2', 'Type': 15, 'Created': '2025-05-27T19:43:28.563Z', 'Updated': '2025-05-27T19:43:28.563Z', 'LockID': '466BB0A731A84154BE4899AB11F1B46F', 'HouseID': '12d1d7de-6e2f-43ce-869d-a6fa5c0e4edf', 'HouseName': 'Lake Villa 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9310129155310278, 'batteryInfo': {'level': 0.9310129155310278, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T22:21:16.039Z', 'lastChangeDate': '2025-05-27T19:43:28.563Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T19:43:28.563Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'afcdc9dab56ace150b559ebcf7f87abb', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:96', 'SerialNumber': 'LFIEG001SL', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T18:00:52.159Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68361909cc2b5574d6220efd', 'mfgBridgeID': 'C8WAS00262', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T17:55:45.896Z', 'updated': '2025-06-26T17:56:21.651Z', 'lastOnline': '2025-06-26T17:56:21.651Z'}, 'locks': [{'_id': '65c03a198163971ecdc9d247', 'macAddress': '98:1B:B5:76:87:96', 'LockID': '466BB0A731A84154BE4899AB11F1B46F'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '25881a2d-3f0a-41ef-b32b-163cdc74b298', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '466BB0A731A84154BE4899AB11F1B46F', 'url_called': 'https://api.august.com/locks/466BB0A731A84154BE4899AB11F1B46F', 'status_code': 200, 'api_response_data': {'LockName': '437.2', 'Type': 15, 'Created': '2025-05-27T19:43:28.563Z', 'Updated': '2025-05-27T19:43:28.563Z', 'LockID': '466BB0A731A84154BE4899AB11F1B46F', 'HouseID': '12d1d7de-6e2f-43ce-869d-a6fa5c0e4edf', 'HouseName': 'Lake Villa 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9310129155310278, 'batteryInfo': {'level': 0.9310129155310278, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T22:21:16.039Z', 'lastChangeDate': '2025-05-27T19:43:28.563Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T19:43:28.563Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'afcdc9dab56ace150b559ebcf7f87abb', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:96', 'SerialNumber': 'LFIEG001SL', 'LockStatus': {'status': 'unknown', 'dateTime': '2025-07-02T06:33:23.300Z', 'isLockStatusChanged': False, 'valid': True, 'unknownReason': 'unknown_error_during_connect', 'doorState': 'unknown'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68361909cc2b5574d6220efd', 'mfgBridgeID': 'C8WAS00262', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-07-02T06:28:47.068Z', 'updated': '2025-07-02T06:29:00.525Z', 'lastOnline': '2025-07-02T06:29:00.525Z'}, 'locks': [{'_id': '65c03a198163971ecdc9d247', 'macAddress': '98:1B:B5:76:87:96', 'LockID': '466BB0A731A84154BE4899AB11F1B46F'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '25881a2d-3f0a-41ef-b32b-163cdc74b298', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L523" t="b">
@@ -29704,7 +29704,7 @@
       </c>
       <c r="K529" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': 'A9BFC2E5A7D04303803E3D27A35675F2', 'url_called': 'https://api.august.com/locks/A9BFC2E5A7D04303803E3D27A35675F2', 'status_code': 200, 'api_response_data': {'LockName': '438', 'Type': 15, 'Created': '2025-05-27T19:32:24.134Z', 'Updated': '2025-05-27T19:32:24.134Z', 'LockID': 'A9BFC2E5A7D04303803E3D27A35675F2', 'HouseID': '12d1d7de-6e2f-43ce-869d-a6fa5c0e4edf', 'HouseName': 'Lake Villa 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9520185726469208, 'batteryInfo': {'level': 0.9520185726469208, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T16:30:52.862Z', 'lastChangeDate': '2025-05-27T19:32:24.134Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T19:32:24.134Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '29dd868a60e539a45ba3c85ccbab7dce', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:06', 'SerialNumber': 'LFIEG001KU', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T18:03:17.802Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '683614aedf40fb71d50bfd13', 'mfgBridgeID': 'C8WC1004XT', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T06:47:07.800Z', 'updated': '2025-06-26T06:49:28.087Z', 'lastOnline': '2025-06-26T06:49:28.087Z'}, 'locks': [{'_id': '65c03a19816397d098c9d29f', 'macAddress': '98:1B:B5:76:87:06', 'LockID': 'A9BFC2E5A7D04303803E3D27A35675F2'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'cd7aedf6-b24f-4651-a4fc-1c330f60f14d', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': 'A9BFC2E5A7D04303803E3D27A35675F2', 'url_called': 'https://api.august.com/locks/A9BFC2E5A7D04303803E3D27A35675F2', 'status_code': 200, 'api_response_data': {'LockName': '438', 'Type': 15, 'Created': '2025-05-27T19:32:24.134Z', 'Updated': '2025-05-27T19:32:24.134Z', 'LockID': 'A9BFC2E5A7D04303803E3D27A35675F2', 'HouseID': '12d1d7de-6e2f-43ce-869d-a6fa5c0e4edf', 'HouseName': 'Lake Villa 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9520185726469208, 'batteryInfo': {'level': 0.9520185726469208, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T16:30:52.862Z', 'lastChangeDate': '2025-05-27T19:32:24.134Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T19:32:24.134Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '29dd868a60e539a45ba3c85ccbab7dce', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:06', 'SerialNumber': 'LFIEG001KU', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T06:03:29.328Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '683614aedf40fb71d50bfd13', 'mfgBridgeID': 'C8WC1004XT', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T06:47:07.800Z', 'updated': '2025-06-26T06:49:28.087Z', 'lastOnline': '2025-06-26T06:49:28.087Z'}, 'locks': [{'_id': '65c03a19816397d098c9d29f', 'macAddress': '98:1B:B5:76:87:06', 'LockID': 'A9BFC2E5A7D04303803E3D27A35675F2'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'cd7aedf6-b24f-4651-a4fc-1c330f60f14d', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L529" t="b">
@@ -30090,7 +30090,7 @@
       </c>
       <c r="K536" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '59472FAFFB894F4FA8A3090CD4E9A91F', 'url_called': 'https://api.august.com/locks/59472FAFFB894F4FA8A3090CD4E9A91F', 'status_code': 200, 'api_response_data': {'LockName': '439', 'Type': 15, 'Created': '2025-05-27T18:22:32.222Z', 'Updated': '2025-05-27T18:22:32.222Z', 'LockID': '59472FAFFB894F4FA8A3090CD4E9A91F', 'HouseID': '12d1d7de-6e2f-43ce-869d-a6fa5c0e4edf', 'HouseName': 'Lake Villa 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9782499114116945, 'batteryInfo': {'level': 0.9782499114116945, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T22:33:32.124Z', 'lastChangeDate': '2025-06-23T22:24:43.000Z', 'lastChangeVoltage': 6310, 'deathDate': '2026-06-18T22:24:43.000Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '8bc3d8fccee8608e54b311c70439c45a', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:B5', 'SerialNumber': 'LFIEG001TP', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T22:32:47.993Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6836044e830d111c29870274', 'mfgBridgeID': 'C8WC1004YK', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-27T10:56:20.467Z', 'updated': '2025-06-27T22:32:37.135Z', 'lastOnline': '2025-06-27T22:32:37.135Z'}, 'locks': [{'_id': '65c03a198163970debc9d235', 'macAddress': '98:1B:B5:76:87:B5', 'LockID': '59472FAFFB894F4FA8A3090CD4E9A91F'}], 'enhancedStatus': {'WifiModuleConnectionIssueCount': 1}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'c2b135d2-e670-4d4f-b106-109af9145e58', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '59472FAFFB894F4FA8A3090CD4E9A91F', 'url_called': 'https://api.august.com/locks/59472FAFFB894F4FA8A3090CD4E9A91F', 'status_code': 200, 'api_response_data': {'LockName': '439', 'Type': 15, 'Created': '2025-05-27T18:22:32.222Z', 'Updated': '2025-05-27T18:22:32.222Z', 'LockID': '59472FAFFB894F4FA8A3090CD4E9A91F', 'HouseID': '12d1d7de-6e2f-43ce-869d-a6fa5c0e4edf', 'HouseName': 'Lake Villa 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9782499114116945, 'batteryInfo': {'level': 0.9782499114116945, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T22:33:32.124Z', 'lastChangeDate': '2025-06-23T22:24:43.000Z', 'lastChangeVoltage': 6310, 'deathDate': '2026-06-18T22:24:43.000Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '8bc3d8fccee8608e54b311c70439c45a', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:B5', 'SerialNumber': 'LFIEG001TP', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-01T22:32:59.072Z', 'isLockStatusChanged': True, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6836044e830d111c29870274', 'mfgBridgeID': 'C8WC1004YK', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-27T10:56:20.467Z', 'updated': '2025-06-27T22:32:37.135Z', 'lastOnline': '2025-06-27T22:32:37.135Z'}, 'locks': [{'_id': '65c03a198163970debc9d235', 'macAddress': '98:1B:B5:76:87:B5', 'LockID': '59472FAFFB894F4FA8A3090CD4E9A91F'}], 'enhancedStatus': {'WifiModuleConnectionIssueCount': 1}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'c2b135d2-e670-4d4f-b106-109af9145e58', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L536" t="b">
@@ -30476,7 +30476,7 @@
       </c>
       <c r="K543" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '879FB6199EE649FB82EE884E979F5A03', 'url_called': 'https://api.august.com/locks/879FB6199EE649FB82EE884E979F5A03', 'status_code': 200, 'api_response_data': {'LockName': '440', 'Type': 15, 'Created': '2025-05-27T18:33:00.238Z', 'Updated': '2025-05-27T18:33:00.238Z', 'LockID': '879FB6199EE649FB82EE884E979F5A03', 'HouseID': '12d1d7de-6e2f-43ce-869d-a6fa5c0e4edf', 'HouseName': 'Lake Villa 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9417678528589022, 'batteryInfo': {'level': 0.9417678528589022, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T16:27:30.899Z', 'lastChangeDate': '2025-05-27T18:33:00.238Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T18:33:00.238Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '1dcbf8f75f80ee958c43c28cc8633f19', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:97', 'SerialNumber': 'LFIEG001SP', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T19:52:18.565Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '683606dea43640c5e6bc0323', 'mfgBridgeID': 'C8WC1004XR', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-29T07:50:20.423Z', 'updated': '2025-06-29T07:52:10.038Z', 'lastOnline': '2025-06-29T07:52:10.038Z'}, 'locks': [{'_id': '65c03a193c112b3230bfc3d4', 'macAddress': '98:1B:B5:76:87:97', 'LockID': '879FB6199EE649FB82EE884E979F5A03'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'e09dce32-7c55-43a4-8e7f-2e6803f2768b', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '879FB6199EE649FB82EE884E979F5A03', 'url_called': 'https://api.august.com/locks/879FB6199EE649FB82EE884E979F5A03', 'status_code': 200, 'api_response_data': {'LockName': '440', 'Type': 15, 'Created': '2025-05-27T18:33:00.238Z', 'Updated': '2025-05-27T18:33:00.238Z', 'LockID': '879FB6199EE649FB82EE884E979F5A03', 'HouseID': '12d1d7de-6e2f-43ce-869d-a6fa5c0e4edf', 'HouseName': 'Lake Villa 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9417678528589022, 'batteryInfo': {'level': 0.9417678528589022, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T16:27:30.899Z', 'lastChangeDate': '2025-05-27T18:33:00.238Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T18:33:00.238Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '1dcbf8f75f80ee958c43c28cc8633f19', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:97', 'SerialNumber': 'LFIEG001SP', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-01T20:02:34.641Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '683606dea43640c5e6bc0323', 'mfgBridgeID': 'C8WC1004XR', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-30T07:55:50.144Z', 'updated': '2025-06-30T08:02:17.464Z', 'lastOnline': '2025-06-30T08:02:17.464Z'}, 'locks': [{'_id': '65c03a193c112b3230bfc3d4', 'macAddress': '98:1B:B5:76:87:97', 'LockID': '879FB6199EE649FB82EE884E979F5A03'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'e09dce32-7c55-43a4-8e7f-2e6803f2768b', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L543" t="b">
@@ -30754,7 +30754,7 @@
       </c>
       <c r="K548" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '27653BFBB4AC4FD29FB32EC114267FC0', 'url_called': 'https://api.august.com/locks/27653BFBB4AC4FD29FB32EC114267FC0', 'status_code': 200, 'api_response_data': {'LockName': '441', 'Type': 15, 'Created': '2025-05-27T16:14:23.719Z', 'Updated': '2025-05-27T16:14:23.719Z', 'LockID': '27653BFBB4AC4FD29FB32EC114267FC0', 'HouseID': '12d1d7de-6e2f-43ce-869d-a6fa5c0e4edf', 'HouseName': 'Lake Villa 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9549528167226526, 'batteryInfo': {'level': 0.9549528167226526, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T18:58:42.451Z', 'lastChangeDate': '2025-05-27T16:14:23.719Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T16:14:23.719Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'eac87a98b615093bdd6c6fd0d80395e8', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:B8', 'SerialNumber': 'LFIEG001TS', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T23:25:38.303Z', 'isLockStatusChanged': True, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6835e66b4e878b7e54aae44b', 'mfgBridgeID': 'C8WC1004XW', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-29T18:50:21.474Z', 'updated': '2025-06-29T23:25:29.077Z', 'lastOnline': '2025-06-29T23:25:29.077Z'}, 'locks': [{'_id': '65c03a19816397b83ac9d233', 'macAddress': '98:1B:B5:76:87:B8', 'LockID': '27653BFBB4AC4FD29FB32EC114267FC0'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '1ed968e2-dca4-4daf-9c11-459448047f14', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '27653BFBB4AC4FD29FB32EC114267FC0', 'url_called': 'https://api.august.com/locks/27653BFBB4AC4FD29FB32EC114267FC0', 'status_code': 200, 'api_response_data': {'LockName': '441', 'Type': 15, 'Created': '2025-05-27T16:14:23.719Z', 'Updated': '2025-05-27T16:14:23.719Z', 'LockID': '27653BFBB4AC4FD29FB32EC114267FC0', 'HouseID': '12d1d7de-6e2f-43ce-869d-a6fa5c0e4edf', 'HouseName': 'Lake Villa 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9520185726469208, 'batteryInfo': {'level': 0.9520185726469208, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-30T22:16:52.849Z', 'lastChangeDate': '2025-05-27T16:14:23.719Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T16:14:23.719Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'eac87a98b615093bdd6c6fd0d80395e8', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:B8', 'SerialNumber': 'LFIEG001TS', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-01T23:51:08.045Z', 'isLockStatusChanged': True, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6835e66b4e878b7e54aae44b', 'mfgBridgeID': 'C8WC1004XW', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-30T11:30:04.412Z', 'updated': '2025-06-30T11:50:41.009Z', 'lastOnline': '2025-06-30T11:50:41.009Z'}, 'locks': [{'_id': '65c03a19816397b83ac9d233', 'macAddress': '98:1B:B5:76:87:B8', 'LockID': '27653BFBB4AC4FD29FB32EC114267FC0'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '1ed968e2-dca4-4daf-9c11-459448047f14', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L548" t="b">
@@ -31086,7 +31086,7 @@
       </c>
       <c r="K554" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '74777BB358FF4E18AAFBAB4ABA0ED75D', 'url_called': 'https://api.august.com/locks/74777BB358FF4E18AAFBAB4ABA0ED75D', 'status_code': 200, 'api_response_data': {'LockName': '442', 'Type': 15, 'Created': '2025-05-27T18:08:39.253Z', 'Updated': '2025-05-27T18:08:39.253Z', 'LockID': '74777BB358FF4E18AAFBAB4ABA0ED75D', 'HouseID': '12d1d7de-6e2f-43ce-869d-a6fa5c0e4edf', 'HouseName': 'Lake Villa 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9454632933266112, 'batteryInfo': {'level': 0.9454632933266112, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T16:26:09.328Z', 'lastChangeDate': '2025-05-27T18:08:39.253Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T18:08:39.253Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'ca3104cf21783da4d825a48a68206add', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:9D', 'SerialNumber': 'LFIEG001SW', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T20:45:27.135Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6836011e07b66c60fb91744d', 'mfgBridgeID': 'C8WC1004Q0', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T21:18:04.930Z', 'updated': '2025-06-26T21:18:40.681Z', 'lastOnline': '2025-06-26T21:18:40.681Z'}, 'locks': [{'_id': '65c03a1981639758cbc9d243', 'macAddress': '98:1B:B5:76:87:9D', 'LockID': '74777BB358FF4E18AAFBAB4ABA0ED75D'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '7c39d7d1-0ad9-4749-b89a-e5f2e3830839', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '74777BB358FF4E18AAFBAB4ABA0ED75D', 'url_called': 'https://api.august.com/locks/74777BB358FF4E18AAFBAB4ABA0ED75D', 'status_code': 200, 'api_response_data': {'LockName': '442', 'Type': 15, 'Created': '2025-05-27T18:08:39.253Z', 'Updated': '2025-05-27T18:08:39.253Z', 'LockID': '74777BB358FF4E18AAFBAB4ABA0ED75D', 'HouseID': '12d1d7de-6e2f-43ce-869d-a6fa5c0e4edf', 'HouseName': 'Lake Villa 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9454632933266112, 'batteryInfo': {'level': 0.9454632933266112, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T16:26:09.328Z', 'lastChangeDate': '2025-05-27T18:08:39.253Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T18:08:39.253Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'ca3104cf21783da4d825a48a68206add', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:9D', 'SerialNumber': 'LFIEG001SW', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-01T20:45:45.468Z', 'isLockStatusChanged': True, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6836011e07b66c60fb91744d', 'mfgBridgeID': 'C8WC1004Q0', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T21:18:04.930Z', 'updated': '2025-06-26T21:18:40.681Z', 'lastOnline': '2025-06-26T21:18:40.681Z'}, 'locks': [{'_id': '65c03a1981639758cbc9d243', 'macAddress': '98:1B:B5:76:87:9D', 'LockID': '74777BB358FF4E18AAFBAB4ABA0ED75D'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '7c39d7d1-0ad9-4749-b89a-e5f2e3830839', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L554" t="b">
@@ -32074,7 +32074,7 @@
       </c>
       <c r="K572" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': 'C5A1312A4133473693F52989ADEBEEC0', 'url_called': 'https://api.august.com/locks/C5A1312A4133473693F52989ADEBEEC0', 'status_code': 200, 'api_response_data': {'LockName': '444', 'Type': 15, 'Created': '2025-05-23T14:30:52.987Z', 'Updated': '2025-05-23T14:30:52.987Z', 'LockID': 'C5A1312A4133473693F52989ADEBEEC0', 'HouseID': '4c216d95-58e3-4b92-9eed-014d4c2acf2c', 'HouseName': 'Quincy 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.937744174098043, 'batteryInfo': {'level': 0.937744174098043, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T22:19:56.853Z', 'lastChangeDate': '2025-05-23T14:30:52.987Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-18T14:30:52.987Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'a6265a9be43d64a5f8ca0719590e53b3', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:B1', 'SerialNumber': 'LFIEG001TH', 'LockStatus': {'status': 'unknown', 'dateTime': '2025-06-30T03:31:12.619Z', 'isLockStatusChanged': True, 'valid': True, 'unknownReason': 'unknown_error_during_connect', 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6830872869a5b159fb2460be', 'mfgBridgeID': 'C8WC1004XX', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-29T21:17:03.034Z', 'updated': '2025-06-29T21:48:13.308Z', 'lastOnline': '2025-06-29T21:48:13.308Z'}, 'locks': [{'_id': '65c03a19816397b04bc9d237', 'macAddress': '98:1B:B5:76:87:B1', 'LockID': 'C5A1312A4133473693F52989ADEBEEC0'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '0ba2d987-a205-4816-b4f7-39caf783a835', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': 'C5A1312A4133473693F52989ADEBEEC0', 'url_called': 'https://api.august.com/locks/C5A1312A4133473693F52989ADEBEEC0', 'status_code': 200, 'api_response_data': {'LockName': '444', 'Type': 15, 'Created': '2025-05-23T14:30:52.987Z', 'Updated': '2025-05-23T14:30:52.987Z', 'LockID': 'C5A1312A4133473693F52989ADEBEEC0', 'HouseID': '4c216d95-58e3-4b92-9eed-014d4c2acf2c', 'HouseName': 'Quincy 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9397993581551418, 'batteryInfo': {'level': 0.9397993581551418, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T19:35:01.924Z', 'lastChangeDate': '2025-05-23T14:30:52.987Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-18T14:30:52.987Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'a6265a9be43d64a5f8ca0719590e53b3', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:B1', 'SerialNumber': 'LFIEG001TH', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T05:12:05.030Z', 'isLockStatusChanged': True, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6830872869a5b159fb2460be', 'mfgBridgeID': 'C8WC1004XX', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-07-02T05:07:39.513Z', 'updated': '2025-07-02T05:11:58.489Z', 'lastOnline': '2025-07-02T05:11:58.489Z'}, 'locks': [{'_id': '65c03a19816397b04bc9d237', 'macAddress': '98:1B:B5:76:87:B1', 'LockID': 'C5A1312A4133473693F52989ADEBEEC0'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '0ba2d987-a205-4816-b4f7-39caf783a835', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L572" t="b">
@@ -32406,7 +32406,7 @@
       </c>
       <c r="K578" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '802E41892AFA470F9E375B27A369FB6C', 'url_called': 'https://api.august.com/locks/802E41892AFA470F9E375B27A369FB6C', 'status_code': 200, 'api_response_data': {'LockName': '445', 'Type': 15, 'Created': '2025-05-23T14:37:14.469Z', 'Updated': '2025-05-23T14:37:14.469Z', 'LockID': '802E41892AFA470F9E375B27A369FB6C', 'HouseID': '4c216d95-58e3-4b92-9eed-014d4c2acf2c', 'HouseName': 'Quincy 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9504725386759674, 'batteryInfo': {'level': 0.9504725386759674, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T19:01:37.282Z', 'lastChangeDate': '2025-05-23T14:37:14.469Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-18T14:37:14.469Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'a85622a4acdf9a31d1bce0c948539373', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:53', 'SerialNumber': 'LFIEG001QD', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-30T04:05:48.194Z', 'isLockStatusChanged': True, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68308a196a7e103972f7b826', 'mfgBridgeID': 'C8WC1004W9', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-30T03:59:33.252Z', 'updated': '2025-06-30T04:05:40.688Z', 'lastOnline': '2025-06-30T04:05:40.688Z'}, 'locks': [{'_id': '65c03a19816397035cc9d273', 'macAddress': '98:1B:B5:76:87:53', 'LockID': '802E41892AFA470F9E375B27A369FB6C'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '7f65885e-5985-4ee3-86b2-72c16e9b67d7', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '802E41892AFA470F9E375B27A369FB6C', 'url_called': 'https://api.august.com/locks/802E41892AFA470F9E375B27A369FB6C', 'status_code': 200, 'api_response_data': {'LockName': '445', 'Type': 15, 'Created': '2025-05-23T14:37:14.469Z', 'Updated': '2025-05-23T14:37:14.469Z', 'LockID': '802E41892AFA470F9E375B27A369FB6C', 'HouseID': '4c216d95-58e3-4b92-9eed-014d4c2acf2c', 'HouseName': 'Quincy 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9471995585117838, 'batteryInfo': {'level': 0.9471995585117838, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T15:47:05.650Z', 'lastChangeDate': '2025-05-23T14:37:14.469Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-18T14:37:14.469Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'a85622a4acdf9a31d1bce0c948539373', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:53', 'SerialNumber': 'LFIEG001QD', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T04:06:00.205Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68308a196a7e103972f7b826', 'mfgBridgeID': 'C8WC1004W9', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-30T03:59:33.252Z', 'updated': '2025-06-30T04:05:40.688Z', 'lastOnline': '2025-06-30T04:05:40.688Z'}, 'locks': [{'_id': '65c03a19816397035cc9d273', 'macAddress': '98:1B:B5:76:87:53', 'LockID': '802E41892AFA470F9E375B27A369FB6C'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '7f65885e-5985-4ee3-86b2-72c16e9b67d7', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L578" t="b">
@@ -32738,7 +32738,7 @@
       </c>
       <c r="K584" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '47D14D7149CE4D1C823EC260F2F42A76', 'url_called': 'https://api.august.com/locks/47D14D7149CE4D1C823EC260F2F42A76', 'status_code': 200, 'api_response_data': {'LockName': '446', 'Type': 15, 'Created': '2025-05-23T16:36:13.661Z', 'Updated': '2025-05-23T16:36:13.661Z', 'LockID': '47D14D7149CE4D1C823EC260F2F42A76', 'HouseID': '4c216d95-58e3-4b92-9eed-014d4c2acf2c', 'HouseName': 'Quincy 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9535104728274746, 'batteryInfo': {'level': 0.9535104728274746, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T22:19:32.838Z', 'lastChangeDate': '2025-05-23T16:36:13.661Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-18T16:36:13.661Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'd28034550a92f3cb62fd3b9bbe1f5f73', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:37', 'SerialNumber': 'LFIEG001CY', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T20:39:34.215Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6841c0649f00f415f5f484e9', 'mfgBridgeID': 'C8WC1004P5', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-25T18:03:33.475Z', 'updated': '2025-06-25T18:04:35.633Z', 'lastOnline': '2025-06-25T18:04:35.633Z'}, 'locks': [{'_id': '65c03a1a81639772ffc9d2d7', 'macAddress': '98:1B:B5:76:86:37', 'LockID': '47D14D7149CE4D1C823EC260F2F42A76'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '33b60908-4574-4881-a661-0f766a4eb789', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '47D14D7149CE4D1C823EC260F2F42A76', 'url_called': 'https://api.august.com/locks/47D14D7149CE4D1C823EC260F2F42A76', 'status_code': 200, 'api_response_data': {'LockName': '446', 'Type': 15, 'Created': '2025-05-23T16:36:13.661Z', 'Updated': '2025-05-23T16:36:13.661Z', 'LockID': '47D14D7149CE4D1C823EC260F2F42A76', 'HouseID': '4c216d95-58e3-4b92-9eed-014d4c2acf2c', 'HouseName': 'Quincy 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9520185726469208, 'batteryInfo': {'level': 0.9520185726469208, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T13:16:36.449Z', 'lastChangeDate': '2025-05-23T16:36:13.661Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-18T16:36:13.661Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'd28034550a92f3cb62fd3b9bbe1f5f73', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:37', 'SerialNumber': 'LFIEG001CY', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-01T20:39:31.232Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6841c0649f00f415f5f484e9', 'mfgBridgeID': 'C8WC1004P5', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-25T18:03:33.475Z', 'updated': '2025-06-25T18:04:35.633Z', 'lastOnline': '2025-06-25T18:04:35.633Z'}, 'locks': [{'_id': '65c03a1a81639772ffc9d2d7', 'macAddress': '98:1B:B5:76:86:37', 'LockID': '47D14D7149CE4D1C823EC260F2F42A76'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '33b60908-4574-4881-a661-0f766a4eb789', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L584" t="b">
@@ -33124,7 +33124,7 @@
       </c>
       <c r="K591" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '5D3C32272FB443169B0859E8695CA476', 'url_called': 'https://api.august.com/locks/5D3C32272FB443169B0859E8695CA476', 'status_code': 200, 'api_response_data': {'LockName': '447', 'Type': 15, 'Created': '2025-05-23T16:08:39.204Z', 'Updated': '2025-05-23T16:08:39.204Z', 'LockID': '5D3C32272FB443169B0859E8695CA476', 'HouseID': '4c216d95-58e3-4b92-9eed-014d4c2acf2c', 'HouseName': 'Quincy 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9563501256125164, 'batteryInfo': {'level': 0.9563501256125164, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T22:19:12.781Z', 'lastChangeDate': '2025-05-23T16:08:39.204Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-18T16:08:39.204Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '1ec93f2de78026ff4c30425472816e6d', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:31', 'SerialNumber': 'LFIEG001CR', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-30T04:18:55.071Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68309edf7aaa7ae0d2f3bd5f', 'mfgBridgeID': 'C8WC1004T2', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-13T18:09:37.639Z', 'updated': '2025-06-17T22:02:05.599Z', 'lastOnline': '2025-06-17T22:02:05.599Z'}, 'locks': [{'_id': '65c03a1a816397e6f2c9d2d9', 'macAddress': '98:1B:B5:76:86:31', 'LockID': '5D3C32272FB443169B0859E8695CA476'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '0b34b883-396d-462c-800b-57148a732c32', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '5D3C32272FB443169B0859E8695CA476', 'url_called': 'https://api.august.com/locks/5D3C32272FB443169B0859E8695CA476', 'status_code': 200, 'api_response_data': {'LockName': '447', 'Type': 15, 'Created': '2025-05-23T16:08:39.204Z', 'Updated': '2025-05-23T16:08:39.204Z', 'LockID': '5D3C32272FB443169B0859E8695CA476', 'HouseID': '4c216d95-58e3-4b92-9eed-014d4c2acf2c', 'HouseName': 'Quincy 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9535104728274746, 'batteryInfo': {'level': 0.9535104728274746, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T19:32:23.670Z', 'lastChangeDate': '2025-05-23T16:08:39.204Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-18T16:08:39.204Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '1ec93f2de78026ff4c30425472816e6d', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:31', 'SerialNumber': 'LFIEG001CR', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T04:19:06.099Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68309edf7aaa7ae0d2f3bd5f', 'mfgBridgeID': 'C8WC1004T2', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-13T18:09:37.639Z', 'updated': '2025-06-17T22:02:05.599Z', 'lastOnline': '2025-06-17T22:02:05.599Z'}, 'locks': [{'_id': '65c03a1a816397e6f2c9d2d9', 'macAddress': '98:1B:B5:76:86:31', 'LockID': '5D3C32272FB443169B0859E8695CA476'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '0b34b883-396d-462c-800b-57148a732c32', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L591" t="b">
@@ -33456,7 +33456,7 @@
       </c>
       <c r="K597" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': 'E0419B0729594EAD9DC2A734D0B8CD7E', 'url_called': 'https://api.august.com/locks/E0419B0729594EAD9DC2A734D0B8CD7E', 'status_code': 200, 'api_response_data': {'LockName': '448', 'Type': 15, 'Created': '2025-05-23T15:51:07.778Z', 'Updated': '2025-05-23T15:51:07.778Z', 'LockID': 'E0419B0729594EAD9DC2A734D0B8CD7E', 'HouseID': '4c216d95-58e3-4b92-9eed-014d4c2acf2c', 'HouseName': 'Quincy 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9504725386759674, 'batteryInfo': {'level': 0.9504725386759674, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-26T18:13:35.947Z', 'lastChangeDate': '2025-05-23T15:51:07.778Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-18T15:51:07.778Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'd8b94e9ebc18b22dd2acdb6b4d29d44a', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:75:49:BB', 'SerialNumber': 'LFICQ0018Q', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T17:42:45.823Z', 'isLockStatusChanged': True, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68309c8e8bc89778de3e756e', 'mfgBridgeID': 'C8WC1004WF', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-29T17:40:23.281Z', 'updated': '2025-06-29T17:42:38.707Z', 'lastOnline': '2025-06-29T17:42:38.707Z'}, 'locks': [{'_id': '660239130924f826efb0052d', 'macAddress': '98:1B:B5:75:49:BB', 'LockID': 'E0419B0729594EAD9DC2A734D0B8CD7E'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'e34189f4-d689-4d2e-8016-4c782f15dc95', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': 'E0419B0729594EAD9DC2A734D0B8CD7E', 'url_called': 'https://api.august.com/locks/E0419B0729594EAD9DC2A734D0B8CD7E', 'status_code': 200, 'api_response_data': {'LockName': '448', 'Type': 15, 'Created': '2025-05-23T15:51:07.778Z', 'Updated': '2025-05-23T15:51:07.778Z', 'LockID': 'E0419B0729594EAD9DC2A734D0B8CD7E', 'HouseID': '4c216d95-58e3-4b92-9eed-014d4c2acf2c', 'HouseName': 'Quincy 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9471995585117838, 'batteryInfo': {'level': 0.9471995585117838, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T22:22:09.430Z', 'lastChangeDate': '2025-05-23T15:51:07.778Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-18T15:51:07.778Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'd8b94e9ebc18b22dd2acdb6b4d29d44a', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:75:49:BB', 'SerialNumber': 'LFICQ0018Q', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-01T22:22:07.958Z', 'isLockStatusChanged': True, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68309c8e8bc89778de3e756e', 'mfgBridgeID': 'C8WC1004WF', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-30T10:15:17.449Z', 'updated': '2025-06-30T10:17:28.964Z', 'lastOnline': '2025-06-30T10:17:28.964Z'}, 'locks': [{'_id': '660239130924f826efb0052d', 'macAddress': '98:1B:B5:75:49:BB', 'LockID': 'E0419B0729594EAD9DC2A734D0B8CD7E'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'e34189f4-d689-4d2e-8016-4c782f15dc95', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L597" t="b">
@@ -33842,7 +33842,7 @@
       </c>
       <c r="K604" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': 'D112A3B6E4A14EC98CC28A5C17D6D3C0', 'url_called': 'https://api.august.com/locks/D112A3B6E4A14EC98CC28A5C17D6D3C0', 'status_code': 200, 'api_response_data': {'LockName': '449', 'Type': 15, 'Created': '2025-05-23T14:50:07.318Z', 'Updated': '2025-05-23T14:50:07.318Z', 'LockID': 'D112A3B6E4A14EC98CC28A5C17D6D3C0', 'HouseID': '4c216d95-58e3-4b92-9eed-014d4c2acf2c', 'HouseName': 'Quincy 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9436542809344246, 'batteryInfo': {'level': 0.9436542809344246, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T21:53:48.141Z', 'lastChangeDate': '2025-05-23T14:50:07.318Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-18T14:50:07.318Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'ca875b3af7e625989f6a765dce940846', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:75:49:B5', 'SerialNumber': 'LFICQ0018G', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T20:06:16.330Z', 'isLockStatusChanged': True, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68308cc56c129388ecb57e50', 'mfgBridgeID': 'C8WC1004WL', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-29T19:54:38.287Z', 'updated': '2025-06-29T20:06:10.605Z', 'lastOnline': '2025-06-29T20:06:10.605Z'}, 'locks': [{'_id': '660239130924f8f596b00531', 'macAddress': '98:1B:B5:75:49:B5', 'LockID': 'D112A3B6E4A14EC98CC28A5C17D6D3C0'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'd1bd1b80-d855-4018-b165-cbacbdf6e686', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': 'D112A3B6E4A14EC98CC28A5C17D6D3C0', 'url_called': 'https://api.august.com/locks/D112A3B6E4A14EC98CC28A5C17D6D3C0', 'status_code': 200, 'api_response_data': {'LockName': '449', 'Type': 15, 'Created': '2025-05-23T14:50:07.318Z', 'Updated': '2025-05-23T14:50:07.318Z', 'LockID': 'D112A3B6E4A14EC98CC28A5C17D6D3C0', 'HouseID': '4c216d95-58e3-4b92-9eed-014d4c2acf2c', 'HouseName': 'Quincy 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9417678528589022, 'batteryInfo': {'level': 0.9417678528589022, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T19:27:31.543Z', 'lastChangeDate': '2025-05-23T14:50:07.318Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-18T14:50:07.318Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'ca875b3af7e625989f6a765dce940846', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:75:49:B5', 'SerialNumber': 'LFICQ0018G', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-01T20:11:32.038Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68308cc56c129388ecb57e50', 'mfgBridgeID': 'C8WC1004WL', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-30T08:09:57.388Z', 'updated': '2025-06-30T08:11:14.049Z', 'lastOnline': '2025-06-30T08:11:14.049Z'}, 'locks': [{'_id': '660239130924f8f596b00531', 'macAddress': '98:1B:B5:75:49:B5', 'LockID': 'D112A3B6E4A14EC98CC28A5C17D6D3C0'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'd1bd1b80-d855-4018-b165-cbacbdf6e686', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L604" t="b">
@@ -34228,7 +34228,7 @@
       </c>
       <c r="K611" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '30F7C678F21F4C53A94A14BEA7658419', 'url_called': 'https://api.august.com/locks/30F7C678F21F4C53A94A14BEA7658419', 'status_code': 200, 'api_response_data': {'LockName': '450', 'Type': 15, 'Created': '2025-05-23T15:02:05.691Z', 'Updated': '2025-05-23T15:02:05.691Z', 'LockID': '30F7C678F21F4C53A94A14BEA7658419', 'HouseID': '4c216d95-58e3-4b92-9eed-014d4c2acf2c', 'HouseName': 'Quincy 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9504725386759674, 'batteryInfo': {'level': 0.9504725386759674, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T22:18:55.707Z', 'lastChangeDate': '2025-05-23T15:02:05.691Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-18T15:02:05.691Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '98998097aefd99bf28be90c5430caab4', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:75:49:B8', 'SerialNumber': 'LFICQ0018K', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T21:03:48.328Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68308fa7b2a5bfdc22ba38e3', 'mfgBridgeID': 'C8WC1004EH', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-28T09:01:44.883Z', 'updated': '2025-06-28T09:03:33.034Z', 'lastOnline': '2025-06-28T09:03:33.034Z'}, 'locks': [{'_id': '660239130924f82c5cb0052f', 'macAddress': '98:1B:B5:75:49:B8', 'LockID': '30F7C678F21F4C53A94A14BEA7658419'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '878f80f7-3283-4790-9574-7cc9efd1db4d', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '30F7C678F21F4C53A94A14BEA7658419', 'url_called': 'https://api.august.com/locks/30F7C678F21F4C53A94A14BEA7658419', 'status_code': 200, 'api_response_data': {'LockName': '450', 'Type': 15, 'Created': '2025-05-23T15:02:05.691Z', 'Updated': '2025-05-23T15:02:05.691Z', 'LockID': '30F7C678F21F4C53A94A14BEA7658419', 'HouseID': '4c216d95-58e3-4b92-9eed-014d4c2acf2c', 'HouseName': 'Quincy 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9471995585117838, 'batteryInfo': {'level': 0.9471995585117838, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T19:24:58.476Z', 'lastChangeDate': '2025-05-23T15:02:05.691Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-18T15:02:05.691Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '98998097aefd99bf28be90c5430caab4', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:75:49:B8', 'SerialNumber': 'LFICQ0018K', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-01T21:04:04.225Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68308fa7b2a5bfdc22ba38e3', 'mfgBridgeID': 'C8WC1004EH', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-28T09:01:44.883Z', 'updated': '2025-06-28T09:03:33.034Z', 'lastOnline': '2025-06-28T09:03:33.034Z'}, 'locks': [{'_id': '660239130924f82c5cb0052f', 'macAddress': '98:1B:B5:75:49:B8', 'LockID': '30F7C678F21F4C53A94A14BEA7658419'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '878f80f7-3283-4790-9574-7cc9efd1db4d', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L611" t="b">
@@ -34560,7 +34560,7 @@
       </c>
       <c r="K617" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': 'A098BE42580D493CAA11602245E7473D', 'url_called': 'https://api.august.com/locks/A098BE42580D493CAA11602245E7473D', 'status_code': 200, 'api_response_data': {'LockName': '451', 'Type': 15, 'Created': '2025-05-23T15:29:10.290Z', 'Updated': '2025-05-23T15:29:10.290Z', 'LockID': 'A098BE42580D493CAA11602245E7473D', 'HouseID': '4c216d95-58e3-4b92-9eed-014d4c2acf2c', 'HouseName': 'Quincy 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9397993581551418, 'batteryInfo': {'level': 0.9397993581551418, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-28T22:18:56.771Z', 'lastChangeDate': '2025-05-23T15:29:10.290Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-18T15:29:10.290Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '5efce80cfc5ee1f61281ae8d8ae400b7', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:75:49:B7', 'SerialNumber': 'LFICQ0018J', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T17:30:20.226Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '683095c66447bb1ec25e53fc', 'mfgBridgeID': 'C8WC1004U4', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-25T17:54:36.591Z', 'updated': '2025-06-25T19:01:39.709Z', 'lastOnline': '2025-06-25T19:01:39.709Z'}, 'locks': [{'_id': '660239130924f84a70b00530', 'macAddress': '98:1B:B5:75:49:B7', 'LockID': 'A098BE42580D493CAA11602245E7473D'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '49a02222-407d-45c0-a017-e1a04175a480', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': 'A098BE42580D493CAA11602245E7473D', 'url_called': 'https://api.august.com/locks/A098BE42580D493CAA11602245E7473D', 'status_code': 200, 'api_response_data': {'LockName': '451', 'Type': 15, 'Created': '2025-05-23T15:29:10.290Z', 'Updated': '2025-05-23T15:29:10.290Z', 'LockID': 'A098BE42580D493CAA11602245E7473D', 'HouseID': '4c216d95-58e3-4b92-9eed-014d4c2acf2c', 'HouseName': 'Quincy 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9355977177510795, 'batteryInfo': {'level': 0.9355977177510795, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T21:25:15.030Z', 'lastChangeDate': '2025-05-23T15:29:10.290Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-18T15:29:10.290Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '5efce80cfc5ee1f61281ae8d8ae400b7', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:75:49:B7', 'SerialNumber': 'LFICQ0018J', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T05:30:21.013Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '683095c66447bb1ec25e53fc', 'mfgBridgeID': 'C8WC1004U4', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-25T17:54:36.591Z', 'updated': '2025-06-25T19:01:39.709Z', 'lastOnline': '2025-06-25T19:01:39.709Z'}, 'locks': [{'_id': '660239130924f84a70b00530', 'macAddress': '98:1B:B5:75:49:B7', 'LockID': 'A098BE42580D493CAA11602245E7473D'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '49a02222-407d-45c0-a017-e1a04175a480', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L617" t="b">
@@ -37372,7 +37372,7 @@
       </c>
       <c r="K667" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '9F5945B4A5264FDD920A2CCC14DC5AA0', 'url_called': 'https://api.august.com/locks/9F5945B4A5264FDD920A2CCC14DC5AA0', 'status_code': 200, 'api_response_data': {'LockName': '528', 'Type': 15, 'Created': '2025-05-30T14:01:57.950Z', 'Updated': '2025-05-30T14:01:57.950Z', 'LockID': '9F5945B4A5264FDD920A2CCC14DC5AA0', 'HouseID': '7c420c0f-c083-4153-aab2-2cacee058319', 'HouseName': 'Rye 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9417678528589022, 'batteryInfo': {'level': 0.9417678528589022, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-28T22:12:52.955Z', 'lastChangeDate': '2025-05-30T14:01:57.950Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-25T14:01:57.950Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '4930a267e3b4cd07f57830555dd95838', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:2B', 'SerialNumber': 'LFIEG001P2', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T18:04:14.194Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6839bb9f7c9cdb9e1ce68262', 'mfgBridgeID': 'C8WAS00380', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T06:54:46.323Z', 'updated': '2025-06-26T06:57:05.183Z', 'lastOnline': '2025-06-26T06:57:05.183Z'}, 'locks': [{'_id': '65c03a198163974ac9c9d28b', 'macAddress': '98:1B:B5:76:87:2B', 'LockID': '9F5945B4A5264FDD920A2CCC14DC5AA0'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '5db62ed8-553b-4e26-b33b-1d6bc43b8c6e', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '9F5945B4A5264FDD920A2CCC14DC5AA0', 'url_called': 'https://api.august.com/locks/9F5945B4A5264FDD920A2CCC14DC5AA0', 'status_code': 200, 'api_response_data': {'LockName': '528', 'Type': 15, 'Created': '2025-05-30T14:01:57.950Z', 'Updated': '2025-05-30T14:01:57.950Z', 'LockID': '9F5945B4A5264FDD920A2CCC14DC5AA0', 'HouseID': '7c420c0f-c083-4153-aab2-2cacee058319', 'HouseName': 'Rye 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.937744174098043, 'batteryInfo': {'level': 0.937744174098043, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T21:00:02.762Z', 'lastChangeDate': '2025-05-30T14:01:57.950Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-25T14:01:57.950Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '4930a267e3b4cd07f57830555dd95838', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:2B', 'SerialNumber': 'LFIEG001P2', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T06:04:28.818Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6839bb9f7c9cdb9e1ce68262', 'mfgBridgeID': 'C8WAS00380', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T06:54:46.323Z', 'updated': '2025-06-26T06:57:05.183Z', 'lastOnline': '2025-06-26T06:57:05.183Z'}, 'locks': [{'_id': '65c03a198163974ac9c9d28b', 'macAddress': '98:1B:B5:76:87:2B', 'LockID': '9F5945B4A5264FDD920A2CCC14DC5AA0'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '5db62ed8-553b-4e26-b33b-1d6bc43b8c6e', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L667" t="b">
@@ -37704,7 +37704,7 @@
       </c>
       <c r="K673" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': 'DECCBA2585A44EE4868C455EB4EF5801', 'url_called': 'https://api.august.com/locks/DECCBA2585A44EE4868C455EB4EF5801', 'status_code': 200, 'api_response_data': {'LockName': '529', 'Type': 15, 'Created': '2025-05-30T14:26:10.245Z', 'Updated': '2025-05-30T14:26:10.245Z', 'LockID': 'DECCBA2585A44EE4868C455EB4EF5801', 'HouseID': '7c420c0f-c083-4153-aab2-2cacee058319', 'HouseName': 'Rye 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9397993581551418, 'batteryInfo': {'level': 0.9397993581551418, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T18:19:06.515Z', 'lastChangeDate': '2025-05-30T14:26:10.245Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-25T14:26:10.245Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'a05ad50b6723fdc72d8e526a9dbb07a0', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:3C', 'SerialNumber': 'LFIEG001PL', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T18:03:30.507Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6841f82de43af392e1f064b3', 'mfgBridgeID': 'C8WAS0035X', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-25T17:49:37.550Z', 'updated': '2025-06-25T18:03:13.765Z', 'lastOnline': '2025-06-25T18:03:13.765Z'}, 'locks': [{'_id': '65c03a193c112ba765bfc41a', 'macAddress': '98:1B:B5:76:87:3C', 'LockID': 'DECCBA2585A44EE4868C455EB4EF5801'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '3ff86443-c93f-445b-9eca-0650cb07ced9', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': 'DECCBA2585A44EE4868C455EB4EF5801', 'url_called': 'https://api.august.com/locks/DECCBA2585A44EE4868C455EB4EF5801', 'status_code': 200, 'api_response_data': {'LockName': '529', 'Type': 15, 'Created': '2025-05-30T14:26:10.245Z', 'Updated': '2025-05-30T14:26:10.245Z', 'LockID': 'DECCBA2585A44EE4868C455EB4EF5801', 'HouseID': '7c420c0f-c083-4153-aab2-2cacee058319', 'HouseName': 'Rye 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9436542809344246, 'batteryInfo': {'level': 0.9436542809344246, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T15:06:45.038Z', 'lastChangeDate': '2025-05-30T14:26:10.245Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-25T14:26:10.245Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'a05ad50b6723fdc72d8e526a9dbb07a0', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:3C', 'SerialNumber': 'LFIEG001PL', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-01T20:33:48.766Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6841f82de43af392e1f064b3', 'mfgBridgeID': 'C8WAS0035X', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-30T20:29:03.231Z', 'updated': '2025-06-30T20:33:32.051Z', 'lastOnline': '2025-06-30T20:33:32.051Z'}, 'locks': [{'_id': '65c03a193c112ba765bfc41a', 'macAddress': '98:1B:B5:76:87:3C', 'LockID': 'DECCBA2585A44EE4868C455EB4EF5801'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '3ff86443-c93f-445b-9eca-0650cb07ced9', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L673" t="b">
@@ -38036,7 +38036,7 @@
       </c>
       <c r="K679" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '71ED886C29464DA48186E515D1BA4906', 'url_called': 'https://api.august.com/locks/71ED886C29464DA48186E515D1BA4906', 'status_code': 200, 'api_response_data': {'LockName': '530', 'Type': 15, 'Created': '2025-05-30T13:46:21.887Z', 'Updated': '2025-05-30T13:46:21.887Z', 'LockID': '71ED886C29464DA48186E515D1BA4906', 'HouseID': '7c420c0f-c083-4153-aab2-2cacee058319', 'HouseName': 'Rye 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9504725386759674, 'batteryInfo': {'level': 0.9504725386759674, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-28T20:57:20.695Z', 'lastChangeDate': '2025-05-30T13:46:21.887Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-25T13:46:21.887Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '046cc389806dd17ad10a0d33e1ee5526', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:47', 'SerialNumber': 'LFIEG001Q0', 'LockStatus': {'status': 'unlocked', 'dateTime': '2025-06-29T17:59:27.146Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6839b806a5ee346bfebfcd5a', 'mfgBridgeID': 'C8WAS0025C', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T21:17:21.426Z', 'updated': '2025-06-26T21:17:55.163Z', 'lastOnline': '2025-06-26T21:17:55.163Z'}, 'locks': [{'_id': '65c03a198163971140c9d278', 'macAddress': '98:1B:B5:76:87:47', 'LockID': '71ED886C29464DA48186E515D1BA4906'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'c1fd8345-eda1-4dba-a76c-4dde07f61068', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '71ED886C29464DA48186E515D1BA4906', 'url_called': 'https://api.august.com/locks/71ED886C29464DA48186E515D1BA4906', 'status_code': 200, 'api_response_data': {'LockName': '530', 'Type': 15, 'Created': '2025-05-30T13:46:21.887Z', 'Updated': '2025-05-30T13:46:21.887Z', 'LockID': '71ED886C29464DA48186E515D1BA4906', 'HouseID': '7c420c0f-c083-4153-aab2-2cacee058319', 'HouseName': 'Rye 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9454632933266112, 'batteryInfo': {'level': 0.9454632933266112, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T20:58:58.541Z', 'lastChangeDate': '2025-05-30T13:46:21.887Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-25T13:46:21.887Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '046cc389806dd17ad10a0d33e1ee5526', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:47', 'SerialNumber': 'LFIEG001Q0', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T05:59:39.016Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6839b806a5ee346bfebfcd5a', 'mfgBridgeID': 'C8WAS0025C', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T21:17:21.426Z', 'updated': '2025-06-26T21:17:55.163Z', 'lastOnline': '2025-06-26T21:17:55.163Z'}, 'locks': [{'_id': '65c03a198163971140c9d278', 'macAddress': '98:1B:B5:76:87:47', 'LockID': '71ED886C29464DA48186E515D1BA4906'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'c1fd8345-eda1-4dba-a76c-4dde07f61068', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L679" t="b">
@@ -38422,7 +38422,7 @@
       </c>
       <c r="K686" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '59EAF0A9379B47DD8801E97C0E4F3A86', 'url_called': 'https://api.august.com/locks/59EAF0A9379B47DD8801E97C0E4F3A86', 'status_code': 200, 'api_response_data': {'LockName': '531', 'Type': 15, 'Created': '2025-05-30T13:36:29.883Z', 'Updated': '2025-05-30T13:36:29.883Z', 'LockID': '59EAF0A9379B47DD8801E97C0E4F3A86', 'HouseID': '7c420c0f-c083-4153-aab2-2cacee058319', 'HouseName': 'Rye 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.937744174098043, 'batteryInfo': {'level': 0.937744174098043, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-28T20:58:47.325Z', 'lastChangeDate': '2025-05-30T13:36:29.883Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-25T13:36:29.883Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'd13c6c2227acfd0da91b77ad008fec09', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:5B', 'SerialNumber': 'LFIEG001QP', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T17:59:38.963Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6839b5b6e0d6b303ca978f8b', 'mfgBridgeID': 'C8WAS0026U', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T17:55:49.167Z', 'updated': '2025-06-26T17:56:21.780Z', 'lastOnline': '2025-06-26T17:56:21.780Z'}, 'locks': [{'_id': '65c03a1981639750bcc9d26d', 'macAddress': '98:1B:B5:76:87:5B', 'LockID': '59EAF0A9379B47DD8801E97C0E4F3A86'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'dbb42b32-6c43-4392-b7e0-591dfa36ba4f', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '59EAF0A9379B47DD8801E97C0E4F3A86', 'url_called': 'https://api.august.com/locks/59EAF0A9379B47DD8801E97C0E4F3A86', 'status_code': 200, 'api_response_data': {'LockName': '531', 'Type': 15, 'Created': '2025-05-30T13:36:29.883Z', 'Updated': '2025-05-30T13:36:29.883Z', 'LockID': '59EAF0A9379B47DD8801E97C0E4F3A86', 'HouseID': '7c420c0f-c083-4153-aab2-2cacee058319', 'HouseName': 'Rye 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9355977177510795, 'batteryInfo': {'level': 0.9355977177510795, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T22:16:32.148Z', 'lastChangeDate': '2025-05-30T13:36:29.883Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-25T13:36:29.883Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'd13c6c2227acfd0da91b77ad008fec09', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:5B', 'SerialNumber': 'LFIEG001QP', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T01:47:46.877Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6839b5b6e0d6b303ca978f8b', 'mfgBridgeID': 'C8WAS0026U', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-07-01T13:43:14.271Z', 'updated': '2025-07-01T13:47:42.058Z', 'lastOnline': '2025-07-01T13:47:42.058Z'}, 'locks': [{'_id': '65c03a1981639750bcc9d26d', 'macAddress': '98:1B:B5:76:87:5B', 'LockID': '59EAF0A9379B47DD8801E97C0E4F3A86'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'dbb42b32-6c43-4392-b7e0-591dfa36ba4f', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L686" t="b">
@@ -38754,7 +38754,7 @@
       </c>
       <c r="K692" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': 'E6861838F0FD4EADA106A850A2E4EA5F', 'url_called': 'https://api.august.com/locks/E6861838F0FD4EADA106A850A2E4EA5F', 'status_code': 200, 'api_response_data': {'LockName': '532.1', 'Type': 15, 'Created': '2025-05-30T13:04:54.700Z', 'Updated': '2025-05-30T13:04:54.700Z', 'LockID': 'E6861838F0FD4EADA106A850A2E4EA5F', 'HouseID': '7c420c0f-c083-4153-aab2-2cacee058319', 'HouseName': 'Rye 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9454632933266112, 'batteryInfo': {'level': 0.9454632933266112, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-28T18:58:04.858Z', 'lastChangeDate': '2025-05-30T13:04:54.700Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-25T13:04:54.700Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '2895c39c6acfb2100c10efa96308209f', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:DB', 'SerialNumber': 'LFIEG001JD', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T18:00:53.146Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6839b375f734b73de356c323', 'mfgBridgeID': 'C8WAS0024Y', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T21:16:37.250Z', 'updated': '2025-06-26T21:17:11.161Z', 'lastOnline': '2025-06-26T21:17:11.161Z'}, 'locks': [{'_id': '65c03a1a816397752fc9d2bb', 'macAddress': '98:1B:B5:76:86:DB', 'LockID': 'E6861838F0FD4EADA106A850A2E4EA5F'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'c5866f18-e9ac-435d-ad15-a66fecf9e46f', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': 'E6861838F0FD4EADA106A850A2E4EA5F', 'url_called': 'https://api.august.com/locks/E6861838F0FD4EADA106A850A2E4EA5F', 'status_code': 200, 'api_response_data': {'LockName': '532.1', 'Type': 15, 'Created': '2025-05-30T13:04:54.700Z', 'Updated': '2025-05-30T13:04:54.700Z', 'LockID': 'E6861838F0FD4EADA106A850A2E4EA5F', 'HouseID': '7c420c0f-c083-4153-aab2-2cacee058319', 'HouseName': 'Rye 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9417678528589022, 'batteryInfo': {'level': 0.9417678528589022, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T22:16:53.403Z', 'lastChangeDate': '2025-05-30T13:04:54.700Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-25T13:04:54.700Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '2895c39c6acfb2100c10efa96308209f', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:DB', 'SerialNumber': 'LFIEG001JD', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T06:01:12.183Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6839b375f734b73de356c323', 'mfgBridgeID': 'C8WAS0024Y', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T21:16:37.250Z', 'updated': '2025-06-26T21:17:11.161Z', 'lastOnline': '2025-06-26T21:17:11.161Z'}, 'locks': [{'_id': '65c03a1a816397752fc9d2bb', 'macAddress': '98:1B:B5:76:86:DB', 'LockID': 'E6861838F0FD4EADA106A850A2E4EA5F'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'c5866f18-e9ac-435d-ad15-a66fecf9e46f', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L692" t="b">
@@ -39140,7 +39140,7 @@
       </c>
       <c r="K699" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '25740173AA76468580ECC673ADCC6B57', 'url_called': 'https://api.august.com/locks/25740173AA76468580ECC673ADCC6B57', 'status_code': 200, 'api_response_data': {'LockName': '532.2', 'Type': 15, 'Created': '2025-05-30T13:23:19.711Z', 'Updated': '2025-05-30T13:23:19.711Z', 'LockID': '25740173AA76468580ECC673ADCC6B57', 'HouseID': '7c420c0f-c083-4153-aab2-2cacee058319', 'HouseName': 'Rye 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9417678528589022, 'batteryInfo': {'level': 0.9417678528589022, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-28T18:19:12.361Z', 'lastChangeDate': '2025-05-30T13:23:19.711Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-25T13:23:19.711Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '426432f591dd8f46ced27d522999d778', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:4A', 'SerialNumber': 'LFIEG001Q3', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T18:02:13.969Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6839b2a081166f840ed385f8', 'mfgBridgeID': 'C8WAS0025X', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T17:55:26.332Z', 'updated': '2025-06-26T17:56:01.279Z', 'lastOnline': '2025-06-26T17:56:01.279Z'}, 'locks': [{'_id': '65c03a19816397de1fc9d277', 'macAddress': '98:1B:B5:76:87:4A', 'LockID': '25740173AA76468580ECC673ADCC6B57'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '49aed28a-d1ae-45c7-919e-153e2704ceb9', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '25740173AA76468580ECC673ADCC6B57', 'url_called': 'https://api.august.com/locks/25740173AA76468580ECC673ADCC6B57', 'status_code': 200, 'api_response_data': {'LockName': '532.2', 'Type': 15, 'Created': '2025-05-30T13:23:19.711Z', 'Updated': '2025-05-30T13:23:19.711Z', 'LockID': '25740173AA76468580ECC673ADCC6B57', 'HouseID': '7c420c0f-c083-4153-aab2-2cacee058319', 'HouseName': 'Rye 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9397993581551418, 'batteryInfo': {'level': 0.9397993581551418, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T14:35:16.317Z', 'lastChangeDate': '2025-05-30T13:23:19.711Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-25T13:23:19.711Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '426432f591dd8f46ced27d522999d778', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:4A', 'SerialNumber': 'LFIEG001Q3', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T06:02:28.623Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6839b2a081166f840ed385f8', 'mfgBridgeID': 'C8WAS0025X', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T17:55:26.332Z', 'updated': '2025-06-26T17:56:01.279Z', 'lastOnline': '2025-06-26T17:56:01.279Z'}, 'locks': [{'_id': '65c03a19816397de1fc9d277', 'macAddress': '98:1B:B5:76:87:4A', 'LockID': '25740173AA76468580ECC673ADCC6B57'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '49aed28a-d1ae-45c7-919e-153e2704ceb9', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L699" t="b">
@@ -39472,7 +39472,7 @@
       </c>
       <c r="K705" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '1A861D6DA5E94FAA822AEDD613FA47EF', 'url_called': 'https://api.august.com/locks/1A861D6DA5E94FAA822AEDD613FA47EF', 'status_code': 200, 'api_response_data': {'LockName': '533', 'Type': 15, 'Created': '2025-05-28T13:07:46.379Z', 'Updated': '2025-05-28T13:07:46.379Z', 'LockID': '1A861D6DA5E94FAA822AEDD613FA47EF', 'HouseID': '97f02fea-fe79-4b35-87f2-2eb43733e26b', 'HouseName': 'Lake Villa ', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9417678528589022, 'batteryInfo': {'level': 0.9417678528589022, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T22:14:46.409Z', 'lastChangeDate': '2025-05-28T13:07:46.379Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T13:07:46.379Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'eeda2a783f813569c77271cdce0ea4a2', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:16', 'SerialNumber': 'LFIEG001LC', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T17:59:45.804Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68370bec01427d846539ece2', 'mfgBridgeID': 'C8WAS0024Z', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T21:17:42.827Z', 'updated': '2025-06-26T21:18:16.276Z', 'lastOnline': '2025-06-26T21:18:16.276Z'}, 'locks': [{'_id': '65c03a193c112bf52cbfc432', 'macAddress': '98:1B:B5:76:87:16', 'LockID': '1A861D6DA5E94FAA822AEDD613FA47EF'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'bca47f2d-2182-4ee4-b88b-abab277d685f', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '1A861D6DA5E94FAA822AEDD613FA47EF', 'url_called': 'https://api.august.com/locks/1A861D6DA5E94FAA822AEDD613FA47EF', 'status_code': 200, 'api_response_data': {'LockName': '533', 'Type': 15, 'Created': '2025-05-28T13:07:46.379Z', 'Updated': '2025-05-28T13:07:46.379Z', 'LockID': '1A861D6DA5E94FAA822AEDD613FA47EF', 'HouseID': '97f02fea-fe79-4b35-87f2-2eb43733e26b', 'HouseName': 'Lake Villa ', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9417678528589022, 'batteryInfo': {'level': 0.9417678528589022, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T20:56:12.677Z', 'lastChangeDate': '2025-05-28T13:07:46.379Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-23T13:07:46.379Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'eeda2a783f813569c77271cdce0ea4a2', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:16', 'SerialNumber': 'LFIEG001LC', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T05:59:53.494Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68370bec01427d846539ece2', 'mfgBridgeID': 'C8WAS0024Z', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T21:17:42.827Z', 'updated': '2025-06-26T21:18:16.276Z', 'lastOnline': '2025-06-26T21:18:16.276Z'}, 'locks': [{'_id': '65c03a193c112bf52cbfc432', 'macAddress': '98:1B:B5:76:87:16', 'LockID': '1A861D6DA5E94FAA822AEDD613FA47EF'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'bca47f2d-2182-4ee4-b88b-abab277d685f', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L705" t="b">
@@ -39858,7 +39858,7 @@
       </c>
       <c r="K712" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '52B7119C37834475B3D169ABFF781B31', 'url_called': 'https://api.august.com/locks/52B7119C37834475B3D169ABFF781B31', 'status_code': 200, 'api_response_data': {'LockName': '534', 'Type': 15, 'Created': '2025-05-27T22:04:12.416Z', 'Updated': '2025-05-27T22:04:12.416Z', 'LockID': '52B7119C37834475B3D169ABFF781B31', 'HouseID': '12d1d7de-6e2f-43ce-869d-a6fa5c0e4edf', 'HouseName': 'Lake Villa 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9417678528589022, 'batteryInfo': {'level': 0.9417678528589022, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T21:54:16.933Z', 'lastChangeDate': '2025-05-27T22:04:12.416Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T22:04:12.416Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'dde0d66499ddd23992a5f34037f527e3', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:0E', 'SerialNumber': 'LFIEG001L3', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T18:02:27.406Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6841f6dd96d7d9b1b44bffbd', 'mfgBridgeID': 'C8WAS0025Z', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-25T17:58:07.987Z', 'updated': '2025-06-25T17:58:38.580Z', 'lastOnline': '2025-06-25T17:58:38.580Z'}, 'locks': [{'_id': '65c03a19816397d8f3c9d29b', 'macAddress': '98:1B:B5:76:87:0E', 'LockID': '52B7119C37834475B3D169ABFF781B31'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '0bd67446-1785-4c2f-bc9d-efb62b7b728b', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '52B7119C37834475B3D169ABFF781B31', 'url_called': 'https://api.august.com/locks/52B7119C37834475B3D169ABFF781B31', 'status_code': 200, 'api_response_data': {'LockName': '534', 'Type': 15, 'Created': '2025-05-27T22:04:12.416Z', 'Updated': '2025-05-27T22:04:12.416Z', 'LockID': '52B7119C37834475B3D169ABFF781B31', 'HouseID': '12d1d7de-6e2f-43ce-869d-a6fa5c0e4edf', 'HouseName': 'Lake Villa 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9397993581551418, 'batteryInfo': {'level': 0.9397993581551418, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T22:17:27.537Z', 'lastChangeDate': '2025-05-27T22:04:12.416Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T22:04:12.416Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'dde0d66499ddd23992a5f34037f527e3', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:0E', 'SerialNumber': 'LFIEG001L3', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T06:02:35.465Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6841f6dd96d7d9b1b44bffbd', 'mfgBridgeID': 'C8WAS0025Z', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-25T17:58:07.987Z', 'updated': '2025-06-25T17:58:38.580Z', 'lastOnline': '2025-06-25T17:58:38.580Z'}, 'locks': [{'_id': '65c03a19816397d8f3c9d29b', 'macAddress': '98:1B:B5:76:87:0E', 'LockID': '52B7119C37834475B3D169ABFF781B31'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '0bd67446-1785-4c2f-bc9d-efb62b7b728b', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L712" t="b">
@@ -40244,7 +40244,7 @@
       </c>
       <c r="K719" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': 'D17DD8697B9C4FB0B4A5135E0F5B82B1', 'url_called': 'https://api.august.com/locks/D17DD8697B9C4FB0B4A5135E0F5B82B1', 'status_code': 200, 'api_response_data': {'LockName': '535', 'Type': 15, 'Created': '2025-05-27T21:56:40.335Z', 'Updated': '2025-05-27T21:56:40.335Z', 'LockID': 'D17DD8697B9C4FB0B4A5135E0F5B82B1', 'HouseID': '12d1d7de-6e2f-43ce-869d-a6fa5c0e4edf', 'HouseName': 'Lake Villa 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9471995585117838, 'batteryInfo': {'level': 0.9471995585117838, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-28T21:36:34.698Z', 'lastChangeDate': '2025-05-27T21:56:40.335Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T21:56:40.335Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'de3261edaf75e55d5a58ffab8dfe6ec9', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:75:4A:8D', 'SerialNumber': 'LFICQ001GQ', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T18:01:04.806Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6841f5d991c04c3a27cf11f1', 'mfgBridgeID': 'C8WC1004YH', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T17:55:03.876Z', 'updated': '2025-06-26T17:55:37.937Z', 'lastOnline': '2025-06-26T17:55:37.937Z'}, 'locks': [{'_id': '660239120924f8dcc7b004d5', 'macAddress': '98:1B:B5:75:4A:8D', 'LockID': 'D17DD8697B9C4FB0B4A5135E0F5B82B1'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'ccffeedf-1df8-4d48-b326-a5ec4cf25f79', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': 'D17DD8697B9C4FB0B4A5135E0F5B82B1', 'url_called': 'https://api.august.com/locks/D17DD8697B9C4FB0B4A5135E0F5B82B1', 'status_code': 200, 'api_response_data': {'LockName': '535', 'Type': 15, 'Created': '2025-05-27T21:56:40.335Z', 'Updated': '2025-05-27T21:56:40.335Z', 'LockID': 'D17DD8697B9C4FB0B4A5135E0F5B82B1', 'HouseID': '12d1d7de-6e2f-43ce-869d-a6fa5c0e4edf', 'HouseName': 'Lake Villa 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9454632933266112, 'batteryInfo': {'level': 0.9454632933266112, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T22:17:32.043Z', 'lastChangeDate': '2025-05-27T21:56:40.335Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T21:56:40.335Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'de3261edaf75e55d5a58ffab8dfe6ec9', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:75:4A:8D', 'SerialNumber': 'LFICQ001GQ', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T06:01:18.303Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6841f5d991c04c3a27cf11f1', 'mfgBridgeID': 'C8WC1004YH', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T17:55:03.876Z', 'updated': '2025-06-26T17:55:37.937Z', 'lastOnline': '2025-06-26T17:55:37.937Z'}, 'locks': [{'_id': '660239120924f8dcc7b004d5', 'macAddress': '98:1B:B5:75:4A:8D', 'LockID': 'D17DD8697B9C4FB0B4A5135E0F5B82B1'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'ccffeedf-1df8-4d48-b326-a5ec4cf25f79', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L719" t="b">
@@ -40576,7 +40576,7 @@
       </c>
       <c r="K725" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '02C7FD8A7C5240E8AB5A6B4B49EE2EAD', 'url_called': 'https://api.august.com/locks/02C7FD8A7C5240E8AB5A6B4B49EE2EAD', 'status_code': 200, 'api_response_data': {'LockName': '536', 'Type': 15, 'Created': '2025-05-27T21:48:37.938Z', 'Updated': '2025-05-27T21:48:37.938Z', 'LockID': '02C7FD8A7C5240E8AB5A6B4B49EE2EAD', 'HouseID': '12d1d7de-6e2f-43ce-869d-a6fa5c0e4edf', 'HouseName': 'Lake Villa 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9454632933266112, 'batteryInfo': {'level': 0.9454632933266112, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-28T15:33:35.252Z', 'lastChangeDate': '2025-05-27T21:48:37.938Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T21:48:37.938Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '2ef9aa63f646187cafbd850d3c28cffa', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:75:4A:86', 'SerialNumber': 'LFICQ001GF', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T18:01:04.710Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6841f4055bba5a43b0db8b66', 'mfgBridgeID': 'C8WC1004W2', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T21:17:31.048Z', 'updated': '2025-06-26T21:18:05.466Z', 'lastOnline': '2025-06-26T21:18:05.466Z'}, 'locks': [{'_id': '660239120924f85beab004db', 'macAddress': '98:1B:B5:75:4A:86', 'LockID': '02C7FD8A7C5240E8AB5A6B4B49EE2EAD'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'bc1f6ce3-1aae-42c5-98f5-68e15970dc9e', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '02C7FD8A7C5240E8AB5A6B4B49EE2EAD', 'url_called': 'https://api.august.com/locks/02C7FD8A7C5240E8AB5A6B4B49EE2EAD', 'status_code': 200, 'api_response_data': {'LockName': '536', 'Type': 15, 'Created': '2025-05-27T21:48:37.938Z', 'Updated': '2025-05-27T21:48:37.938Z', 'LockID': '02C7FD8A7C5240E8AB5A6B4B49EE2EAD', 'HouseID': '12d1d7de-6e2f-43ce-869d-a6fa5c0e4edf', 'HouseName': 'Lake Villa 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9436542809344246, 'batteryInfo': {'level': 0.9436542809344246, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T22:17:47.192Z', 'lastChangeDate': '2025-05-27T21:48:37.938Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T21:48:37.938Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '2ef9aa63f646187cafbd850d3c28cffa', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:75:4A:86', 'SerialNumber': 'LFICQ001GF', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T06:01:25.215Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6841f4055bba5a43b0db8b66', 'mfgBridgeID': 'C8WC1004W2', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T21:17:31.048Z', 'updated': '2025-06-26T21:18:05.466Z', 'lastOnline': '2025-06-26T21:18:05.466Z'}, 'locks': [{'_id': '660239120924f85beab004db', 'macAddress': '98:1B:B5:75:4A:86', 'LockID': '02C7FD8A7C5240E8AB5A6B4B49EE2EAD'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'bc1f6ce3-1aae-42c5-98f5-68e15970dc9e', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L725" t="b">
@@ -40908,7 +40908,7 @@
       </c>
       <c r="K731" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': 'E4256C5A39C1418AB3CA041F71854057', 'url_called': 'https://api.august.com/locks/E4256C5A39C1418AB3CA041F71854057', 'status_code': 200, 'api_response_data': {'LockName': '537.1', 'Type': 15, 'Created': '2025-05-27T21:40:03.042Z', 'Updated': '2025-05-27T21:40:03.042Z', 'LockID': 'E4256C5A39C1418AB3CA041F71854057', 'HouseID': '12d1d7de-6e2f-43ce-869d-a6fa5c0e4edf', 'HouseName': 'Lake Villa 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9436542809344246, 'batteryInfo': {'level': 0.9436542809344246, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-28T15:20:36.872Z', 'lastChangeDate': '2025-05-27T21:40:03.042Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T21:40:03.042Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '5555eb2924812c865e9c471b330a765c', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:75:4A:92', 'SerialNumber': 'LFICQ001GW', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T18:08:50.512Z', 'isLockStatusChanged': True, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6841f4e8a34baccb3442fcab', 'mfgBridgeID': 'C8WC1004TW', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-29T18:07:35.309Z', 'updated': '2025-06-29T18:08:36.860Z', 'lastOnline': '2025-06-29T18:08:36.860Z'}, 'locks': [{'_id': '660239120924f8ac22b004d2', 'macAddress': '98:1B:B5:75:4A:92', 'LockID': 'E4256C5A39C1418AB3CA041F71854057'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'bd29bae0-8cc4-4f6a-bd0c-84119196a049', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': 'E4256C5A39C1418AB3CA041F71854057', 'url_called': 'https://api.august.com/locks/E4256C5A39C1418AB3CA041F71854057', 'status_code': 200, 'api_response_data': {'LockName': '537.1', 'Type': 15, 'Created': '2025-05-27T21:40:03.042Z', 'Updated': '2025-05-27T21:40:03.042Z', 'LockID': 'E4256C5A39C1418AB3CA041F71854057', 'HouseID': '12d1d7de-6e2f-43ce-869d-a6fa5c0e4edf', 'HouseName': 'Lake Villa 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9436542809344246, 'batteryInfo': {'level': 0.9436542809344246, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T22:17:57.704Z', 'lastChangeDate': '2025-05-27T21:40:03.042Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T21:40:03.042Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '5555eb2924812c865e9c471b330a765c', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:75:4A:92', 'SerialNumber': 'LFICQ001GW', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T06:08:54.385Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6841f4e8a34baccb3442fcab', 'mfgBridgeID': 'C8WC1004TW', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-29T18:07:35.309Z', 'updated': '2025-06-29T18:08:36.860Z', 'lastOnline': '2025-06-29T18:08:36.860Z'}, 'locks': [{'_id': '660239120924f8ac22b004d2', 'macAddress': '98:1B:B5:75:4A:92', 'LockID': 'E4256C5A39C1418AB3CA041F71854057'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'bd29bae0-8cc4-4f6a-bd0c-84119196a049', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L731" t="b">
@@ -41294,7 +41294,7 @@
       </c>
       <c r="K738" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '9D052CD5D1EC4D15AD069C043BEC6B4C', 'url_called': 'https://api.august.com/locks/9D052CD5D1EC4D15AD069C043BEC6B4C', 'status_code': 200, 'api_response_data': {'LockName': '537.2', 'Type': 15, 'Created': '2025-05-27T21:25:34.304Z', 'Updated': '2025-05-27T21:25:34.304Z', 'LockID': '9D052CD5D1EC4D15AD069C043BEC6B4C', 'HouseID': '12d1d7de-6e2f-43ce-869d-a6fa5c0e4edf', 'HouseName': 'Lake Villa 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9471995585117838, 'batteryInfo': {'level': 0.9471995585117838, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-27T22:13:59.184Z', 'lastChangeDate': '2025-05-27T21:25:34.304Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T21:25:34.304Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '188a55da9429d2fc1d84d3a3f11132aa', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:75:4A:8B', 'SerialNumber': 'LFICQ001GL', 'LockStatus': {'status': 'unlocked', 'dateTime': '2025-06-29T18:02:38.027Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6841ef4af1755d256859dfe4', 'mfgBridgeID': 'C8WC1004WJ', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-19T18:10:35.373Z', 'updated': '2025-06-19T18:12:20.946Z', 'lastOnline': '2025-06-19T18:12:20.946Z'}, 'locks': [{'_id': '660239120924f85d91b004d6', 'macAddress': '98:1B:B5:75:4A:8B', 'LockID': '9D052CD5D1EC4D15AD069C043BEC6B4C'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '5b70819b-77db-4ef6-ab45-4454f934df7b', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '9D052CD5D1EC4D15AD069C043BEC6B4C', 'url_called': 'https://api.august.com/locks/9D052CD5D1EC4D15AD069C043BEC6B4C', 'status_code': 200, 'api_response_data': {'LockName': '537.2', 'Type': 15, 'Created': '2025-05-27T21:25:34.304Z', 'Updated': '2025-05-27T21:25:34.304Z', 'LockID': '9D052CD5D1EC4D15AD069C043BEC6B4C', 'HouseID': '12d1d7de-6e2f-43ce-869d-a6fa5c0e4edf', 'HouseName': 'Lake Villa 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9436542809344246, 'batteryInfo': {'level': 0.9436542809344246, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T22:17:59.966Z', 'lastChangeDate': '2025-05-27T21:25:34.304Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T21:25:34.304Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '188a55da9429d2fc1d84d3a3f11132aa', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:75:4A:8B', 'SerialNumber': 'LFICQ001GL', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T06:02:47.266Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6841ef4af1755d256859dfe4', 'mfgBridgeID': 'C8WC1004WJ', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-19T18:10:35.373Z', 'updated': '2025-06-19T18:12:20.946Z', 'lastOnline': '2025-06-19T18:12:20.946Z'}, 'locks': [{'_id': '660239120924f85d91b004d6', 'macAddress': '98:1B:B5:75:4A:8B', 'LockID': '9D052CD5D1EC4D15AD069C043BEC6B4C'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '5b70819b-77db-4ef6-ab45-4454f934df7b', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L738" t="b">
@@ -41626,7 +41626,7 @@
       </c>
       <c r="K744" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': 'F9287BC182654F788A3E9F0CF2747361', 'url_called': 'https://api.august.com/locks/F9287BC182654F788A3E9F0CF2747361', 'status_code': 200, 'api_response_data': {'LockName': '538', 'Type': 15, 'Created': '2025-05-27T21:16:36.702Z', 'Updated': '2025-05-27T21:16:36.702Z', 'LockID': 'F9287BC182654F788A3E9F0CF2747361', 'HouseID': '12d1d7de-6e2f-43ce-869d-a6fa5c0e4edf', 'HouseName': 'Lake Villa 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.937744174098043, 'batteryInfo': {'level': 0.937744174098043, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-28T15:19:41.039Z', 'lastChangeDate': '2025-05-27T21:16:36.702Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T21:16:36.702Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '2ec5398612e963deeccaf0babd2102ba', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:85:29', 'SerialNumber': 'LFIEG0012Y', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T18:04:48.472Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6841ee3a9ca31b4aa6dcce2b', 'mfgBridgeID': 'C8WC1004WX', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-27T20:06:03.135Z', 'updated': '2025-06-27T20:09:13.167Z', 'lastOnline': '2025-06-27T20:09:13.167Z'}, 'locks': [{'_id': '65c03a1a3c112b409abfc504', 'macAddress': '98:1B:B5:76:85:29', 'LockID': 'F9287BC182654F788A3E9F0CF2747361'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '68ffc6cc-187a-4ed7-b40f-71fcbd769dbb', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': 'F9287BC182654F788A3E9F0CF2747361', 'url_called': 'https://api.august.com/locks/F9287BC182654F788A3E9F0CF2747361', 'status_code': 200, 'api_response_data': {'LockName': '538', 'Type': 15, 'Created': '2025-05-27T21:16:36.702Z', 'Updated': '2025-05-27T21:16:36.702Z', 'LockID': 'F9287BC182654F788A3E9F0CF2747361', 'HouseID': '12d1d7de-6e2f-43ce-869d-a6fa5c0e4edf', 'HouseName': 'Lake Villa 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9285656944121001, 'batteryInfo': {'level': 0.9285656944121001, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T22:18:09.183Z', 'lastChangeDate': '2025-05-27T21:16:36.702Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T21:16:36.702Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '2ec5398612e963deeccaf0babd2102ba', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:85:29', 'SerialNumber': 'LFIEG0012Y', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T06:05:08.254Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6841ee3a9ca31b4aa6dcce2b', 'mfgBridgeID': 'C8WC1004WX', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-27T20:06:03.135Z', 'updated': '2025-06-27T20:09:13.167Z', 'lastOnline': '2025-06-27T20:09:13.167Z'}, 'locks': [{'_id': '65c03a1a3c112b409abfc504', 'macAddress': '98:1B:B5:76:85:29', 'LockID': 'F9287BC182654F788A3E9F0CF2747361'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '68ffc6cc-187a-4ed7-b40f-71fcbd769dbb', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L744" t="b">
@@ -42012,7 +42012,7 @@
       </c>
       <c r="K751" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': 'F85DE3AE415541889AD5231F86677A7A', 'url_called': 'https://api.august.com/locks/F85DE3AE415541889AD5231F86677A7A', 'status_code': 200, 'api_response_data': {'LockName': '539', 'Type': 15, 'Created': '2025-05-27T20:57:18.129Z', 'Updated': '2025-05-27T20:57:18.129Z', 'LockID': 'F85DE3AE415541889AD5231F86677A7A', 'HouseID': '12d1d7de-6e2f-43ce-869d-a6fa5c0e4edf', 'HouseName': 'Lake Villa 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9577068517683074, 'batteryInfo': {'level': 0.9577068517683074, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-28T15:19:12.551Z', 'lastChangeDate': '2025-05-27T20:57:18.129Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T20:57:18.129Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '64f2ec310f2c851c8fc03cc5903d1400', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:94', 'SerialNumber': 'LFIEG001SJ', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T20:43:08.760Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6841ed97b84e07c7d8f856fa', 'mfgBridgeID': 'C8WC1004UU', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T01:06:57.511Z', 'updated': '2025-06-26T01:07:30.685Z', 'lastOnline': '2025-06-26T01:07:30.685Z'}, 'locks': [{'_id': '65c03a198163977c6dc9d248', 'macAddress': '98:1B:B5:76:87:94', 'LockID': 'F85DE3AE415541889AD5231F86677A7A'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'a06acf16-4a3f-4a1e-a2e9-718d02f025e5', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': 'F85DE3AE415541889AD5231F86677A7A', 'url_called': 'https://api.august.com/locks/F85DE3AE415541889AD5231F86677A7A', 'status_code': 200, 'api_response_data': {'LockName': '539', 'Type': 15, 'Created': '2025-05-27T20:57:18.129Z', 'Updated': '2025-05-27T20:57:18.129Z', 'LockID': 'F85DE3AE415541889AD5231F86677A7A', 'HouseID': '12d1d7de-6e2f-43ce-869d-a6fa5c0e4edf', 'HouseName': 'Lake Villa 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9563501256125164, 'batteryInfo': {'level': 0.9563501256125164, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T20:51:56.760Z', 'lastChangeDate': '2025-05-27T20:57:18.129Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T20:57:18.129Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '64f2ec310f2c851c8fc03cc5903d1400', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:94', 'SerialNumber': 'LFIEG001SJ', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T02:27:39.389Z', 'isLockStatusChanged': True, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6841ed97b84e07c7d8f856fa', 'mfgBridgeID': 'C8WC1004UU', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-30T20:29:16.578Z', 'updated': '2025-06-30T20:32:37.422Z', 'lastOnline': '2025-06-30T20:32:37.422Z'}, 'locks': [{'_id': '65c03a198163977c6dc9d248', 'macAddress': '98:1B:B5:76:87:94', 'LockID': 'F85DE3AE415541889AD5231F86677A7A'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'a06acf16-4a3f-4a1e-a2e9-718d02f025e5', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L751" t="b">
@@ -42676,7 +42676,7 @@
       </c>
       <c r="K763" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '1BF8E3A3BE8648E48ED7DBDB66BBA20D', 'url_called': 'https://api.august.com/locks/1BF8E3A3BE8648E48ED7DBDB66BBA20D', 'status_code': 200, 'api_response_data': {'LockName': '541', 'Type': 15, 'Created': '2025-05-27T20:18:09.521Z', 'Updated': '2025-05-27T20:18:09.521Z', 'LockID': '1BF8E3A3BE8648E48ED7DBDB66BBA20D', 'HouseID': '12d1d7de-6e2f-43ce-869d-a6fa5c0e4edf', 'HouseName': 'Lake Villa 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9471995585117838, 'batteryInfo': {'level': 0.9471995585117838, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-28T15:16:53.555Z', 'lastChangeDate': '2025-05-27T20:18:09.521Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T20:18:09.521Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '550645a64ce6480a0dc6e3816b43dc26', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:90', 'SerialNumber': 'LFIEG001SE', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-30T01:02:41.391Z', 'isLockStatusChanged': True, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68361f6e2580acc6298e6bd8', 'mfgBridgeID': 'C8WC1004PS', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-30T00:51:17.782Z', 'updated': '2025-06-30T01:02:32.426Z', 'lastOnline': '2025-06-30T01:02:32.426Z'}, 'locks': [{'_id': '65c03a1981639737f6c9d24c', 'macAddress': '98:1B:B5:76:87:90', 'LockID': '1BF8E3A3BE8648E48ED7DBDB66BBA20D'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '3c3b0fb2-9ff3-4632-8eab-81fa435a19bb', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '1BF8E3A3BE8648E48ED7DBDB66BBA20D', 'url_called': 'https://api.august.com/locks/1BF8E3A3BE8648E48ED7DBDB66BBA20D', 'status_code': 200, 'api_response_data': {'LockName': '541', 'Type': 15, 'Created': '2025-05-27T20:18:09.521Z', 'Updated': '2025-05-27T20:18:09.521Z', 'LockID': '1BF8E3A3BE8648E48ED7DBDB66BBA20D', 'HouseID': '12d1d7de-6e2f-43ce-869d-a6fa5c0e4edf', 'HouseName': 'Lake Villa 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9454632933266112, 'batteryInfo': {'level': 0.9454632933266112, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T22:18:37.907Z', 'lastChangeDate': '2025-05-27T20:18:09.521Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T20:18:09.521Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '550645a64ce6480a0dc6e3816b43dc26', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:90', 'SerialNumber': 'LFIEG001SE', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T04:51:36.516Z', 'isLockStatusChanged': True, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68361f6e2580acc6298e6bd8', 'mfgBridgeID': 'C8WC1004PS', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-07-02T04:00:10.259Z', 'updated': '2025-07-02T04:51:28.581Z', 'lastOnline': '2025-07-02T04:51:28.581Z'}, 'locks': [{'_id': '65c03a1981639737f6c9d24c', 'macAddress': '98:1B:B5:76:87:90', 'LockID': '1BF8E3A3BE8648E48ED7DBDB66BBA20D'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '3c3b0fb2-9ff3-4632-8eab-81fa435a19bb', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L763" t="b">
@@ -43008,7 +43008,7 @@
       </c>
       <c r="K769" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '4D5BA61B94BB477DABD0DDD0FDBB9AF3', 'url_called': 'https://api.august.com/locks/4D5BA61B94BB477DABD0DDD0FDBB9AF3', 'status_code': 200, 'api_response_data': {'LockName': '542', 'Type': 15, 'Created': '2025-05-27T20:28:58.500Z', 'Updated': '2025-05-27T20:28:58.500Z', 'LockID': '4D5BA61B94BB477DABD0DDD0FDBB9AF3', 'HouseID': '12d1d7de-6e2f-43ce-869d-a6fa5c0e4edf', 'HouseName': 'Lake Villa 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9397993581551418, 'batteryInfo': {'level': 0.9397993581551418, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-28T15:16:54.081Z', 'lastChangeDate': '2025-05-27T20:28:58.500Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T20:28:58.500Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '0b4f7f6a8ae822c7a28ecd0b42e5ceef', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:58', 'SerialNumber': 'LFIEG001E1', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T21:05:33.809Z', 'isLockStatusChanged': True, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68362240deafa3651637dde4', 'mfgBridgeID': 'C8WC1004UL', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-29T21:05:10.531Z', 'updated': '2025-06-29T21:05:27.699Z', 'lastOnline': '2025-06-29T21:05:27.699Z'}, 'locks': [{'_id': '65c03a1a8163975471c9d2c4', 'macAddress': '98:1B:B5:76:86:58', 'LockID': '4D5BA61B94BB477DABD0DDD0FDBB9AF3'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'fd4ebf91-0440-4ba4-89ee-a51556a704f1', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '4D5BA61B94BB477DABD0DDD0FDBB9AF3', 'url_called': 'https://api.august.com/locks/4D5BA61B94BB477DABD0DDD0FDBB9AF3', 'status_code': 200, 'api_response_data': {'LockName': '542', 'Type': 15, 'Created': '2025-05-27T20:28:58.500Z', 'Updated': '2025-05-27T20:28:58.500Z', 'LockID': '4D5BA61B94BB477DABD0DDD0FDBB9AF3', 'HouseID': '12d1d7de-6e2f-43ce-869d-a6fa5c0e4edf', 'HouseName': 'Lake Villa 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9355977177510795, 'batteryInfo': {'level': 0.9355977177510795, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T22:18:26.215Z', 'lastChangeDate': '2025-05-27T20:28:58.500Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-22T20:28:58.500Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '0b4f7f6a8ae822c7a28ecd0b42e5ceef', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:58', 'SerialNumber': 'LFIEG001E1', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-01T22:18:24.960Z', 'isLockStatusChanged': True, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '68362240deafa3651637dde4', 'mfgBridgeID': 'C8WC1004UL', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-29T21:05:10.531Z', 'updated': '2025-06-29T21:05:27.699Z', 'lastOnline': '2025-06-29T21:05:27.699Z'}, 'locks': [{'_id': '65c03a1a8163975471c9d2c4', 'macAddress': '98:1B:B5:76:86:58', 'LockID': '4D5BA61B94BB477DABD0DDD0FDBB9AF3'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'fd4ebf91-0440-4ba4-89ee-a51556a704f1', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L769" t="b">
@@ -43996,7 +43996,7 @@
       </c>
       <c r="K787" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '29CEFE9DDFB947A59F1F356C2CBCCF4F', 'url_called': 'https://api.august.com/locks/29CEFE9DDFB947A59F1F356C2CBCCF4F', 'status_code': 200, 'api_response_data': {'LockName': '544', 'Type': 15, 'Created': '2025-05-23T20:00:59.017Z', 'Updated': '2025-05-23T20:00:59.017Z', 'LockID': '29CEFE9DDFB947A59F1F356C2CBCCF4F', 'HouseID': '4c216d95-58e3-4b92-9eed-014d4c2acf2c', 'HouseName': 'Quincy 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9520185726469208, 'batteryInfo': {'level': 0.9520185726469208, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-28T15:13:46.754Z', 'lastChangeDate': '2025-05-23T20:00:59.017Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-18T20:00:59.017Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '15500d53c6682a4ea844ba6bf25af755', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:B7', 'SerialNumber': 'LFIEG001TR', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-30T00:49:13.028Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6830d55a587ca4608431b1a8', 'mfgBridgeID': 'C8WAS0037T', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-29T12:38:01.219Z', 'updated': '2025-06-29T12:49:04.940Z', 'lastOnline': '2025-06-29T12:49:04.940Z'}, 'locks': [{'_id': '65c03a1981639701ccc9d234', 'macAddress': '98:1B:B5:76:87:B7', 'LockID': '29CEFE9DDFB947A59F1F356C2CBCCF4F'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '5b093695-d4f6-4957-a416-9f02882b790c', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '29CEFE9DDFB947A59F1F356C2CBCCF4F', 'url_called': 'https://api.august.com/locks/29CEFE9DDFB947A59F1F356C2CBCCF4F', 'status_code': 200, 'api_response_data': {'LockName': '544', 'Type': 15, 'Created': '2025-05-23T20:00:59.017Z', 'Updated': '2025-05-23T20:00:59.017Z', 'LockID': '29CEFE9DDFB947A59F1F356C2CBCCF4F', 'HouseID': '4c216d95-58e3-4b92-9eed-014d4c2acf2c', 'HouseName': 'Quincy 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9520185726469208, 'batteryInfo': {'level': 0.9520185726469208, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T22:20:14.768Z', 'lastChangeDate': '2025-05-23T20:00:59.017Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-18T20:00:59.017Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '15500d53c6682a4ea844ba6bf25af755', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:B7', 'SerialNumber': 'LFIEG001TR', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T00:49:23.180Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6830d55a587ca4608431b1a8', 'mfgBridgeID': 'C8WAS0037T', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-29T12:38:01.219Z', 'updated': '2025-06-29T12:49:04.940Z', 'lastOnline': '2025-06-29T12:49:04.940Z'}, 'locks': [{'_id': '65c03a1981639701ccc9d234', 'macAddress': '98:1B:B5:76:87:B7', 'LockID': '29CEFE9DDFB947A59F1F356C2CBCCF4F'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '5b093695-d4f6-4957-a416-9f02882b790c', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L787" t="b">
@@ -44328,7 +44328,7 @@
       </c>
       <c r="K793" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': 'FD74A200A2C94E3DBB043379F9201F31', 'url_called': 'https://api.august.com/locks/FD74A200A2C94E3DBB043379F9201F31', 'status_code': 200, 'api_response_data': {'LockName': '545', 'Type': 15, 'Created': '2025-05-23T19:07:20.057Z', 'Updated': '2025-05-23T19:07:20.057Z', 'LockID': 'FD74A200A2C94E3DBB043379F9201F31', 'HouseID': '4c216d95-58e3-4b92-9eed-014d4c2acf2c', 'HouseName': 'Quincy 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9454632933266112, 'batteryInfo': {'level': 0.9454632933266112, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-28T22:15:52.188Z', 'lastChangeDate': '2025-05-23T19:07:20.057Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-18T19:07:20.057Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '624deff85a6112cb55dbc838c1e246c7', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:A1', 'SerialNumber': 'LFIEG001T0', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T19:16:44.438Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6830c8971be337aca2242bfa', 'mfgBridgeID': 'C8WAS0037R', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-25T17:59:32.391Z', 'updated': '2025-06-25T19:06:02.491Z', 'lastOnline': '2025-06-25T19:06:02.491Z'}, 'locks': [{'_id': '65c03a19816397a8cec9d240', 'macAddress': '98:1B:B5:76:87:A1', 'LockID': 'FD74A200A2C94E3DBB043379F9201F31'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '236f025f-b8c7-425d-89ef-8dc05f9cddbf', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': 'FD74A200A2C94E3DBB043379F9201F31', 'url_called': 'https://api.august.com/locks/FD74A200A2C94E3DBB043379F9201F31', 'status_code': 200, 'api_response_data': {'LockName': '545', 'Type': 15, 'Created': '2025-05-23T19:07:20.057Z', 'Updated': '2025-05-23T19:07:20.057Z', 'LockID': 'FD74A200A2C94E3DBB043379F9201F31', 'HouseID': '4c216d95-58e3-4b92-9eed-014d4c2acf2c', 'HouseName': 'Quincy 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9436542809344246, 'batteryInfo': {'level': 0.9436542809344246, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T20:47:14.851Z', 'lastChangeDate': '2025-05-23T19:07:20.057Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-18T19:07:20.057Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '624deff85a6112cb55dbc838c1e246c7', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:87:A1', 'SerialNumber': 'LFIEG001T0', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-01T20:47:13.588Z', 'isLockStatusChanged': True, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6830c8971be337aca2242bfa', 'mfgBridgeID': 'C8WAS0037R', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-30T19:21:16.074Z', 'updated': '2025-06-30T19:22:01.865Z', 'lastOnline': '2025-06-30T19:22:01.865Z'}, 'locks': [{'_id': '65c03a19816397a8cec9d240', 'macAddress': '98:1B:B5:76:87:A1', 'LockID': 'FD74A200A2C94E3DBB043379F9201F31'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '236f025f-b8c7-425d-89ef-8dc05f9cddbf', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L793" t="b">
@@ -44660,7 +44660,7 @@
       </c>
       <c r="K799" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '58131288E4C8418184899242B85EB362', 'url_called': 'https://api.august.com/locks/58131288E4C8418184899242B85EB362', 'status_code': 200, 'api_response_data': {'LockName': '546', 'Type': 15, 'Created': '2025-05-23T18:56:11.658Z', 'Updated': '2025-05-23T18:56:11.658Z', 'LockID': '58131288E4C8418184899242B85EB362', 'HouseID': '4c216d95-58e3-4b92-9eed-014d4c2acf2c', 'HouseName': 'Quincy 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9417678528589022, 'batteryInfo': {'level': 0.9417678528589022, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-28T22:15:40.286Z', 'lastChangeDate': '2025-05-23T18:56:11.658Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-18T18:56:11.658Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '82fd18e6a63095dd0991a7117c353452', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:85:CE', 'SerialNumber': 'LFIEG0018E', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-30T00:08:51.861Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6841c3b504ce5673a30f85f1', 'mfgBridgeID': 'C8WAS0037J', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T06:08:12.710Z', 'updated': '2025-06-26T06:13:16.697Z', 'lastOnline': '2025-06-26T06:13:16.697Z'}, 'locks': [{'_id': '65c03a1a3c112be1aabfc4b2', 'macAddress': '98:1B:B5:76:85:CE', 'LockID': '58131288E4C8418184899242B85EB362'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '192c6e10-d44e-4765-a729-b1be8b216c69', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '58131288E4C8418184899242B85EB362', 'url_called': 'https://api.august.com/locks/58131288E4C8418184899242B85EB362', 'status_code': 200, 'api_response_data': {'LockName': '546', 'Type': 15, 'Created': '2025-05-23T18:56:11.658Z', 'Updated': '2025-05-23T18:56:11.658Z', 'LockID': '58131288E4C8418184899242B85EB362', 'HouseID': '4c216d95-58e3-4b92-9eed-014d4c2acf2c', 'HouseName': 'Quincy 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9417678528589022, 'batteryInfo': {'level': 0.9417678528589022, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T19:18:28.458Z', 'lastChangeDate': '2025-05-23T18:56:11.658Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-18T18:56:11.658Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '82fd18e6a63095dd0991a7117c353452', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:85:CE', 'SerialNumber': 'LFIEG0018E', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T00:09:05.735Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6841c3b504ce5673a30f85f1', 'mfgBridgeID': 'C8WAS0037J', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T06:08:12.710Z', 'updated': '2025-06-26T06:13:16.697Z', 'lastOnline': '2025-06-26T06:13:16.697Z'}, 'locks': [{'_id': '65c03a1a3c112be1aabfc4b2', 'macAddress': '98:1B:B5:76:85:CE', 'LockID': '58131288E4C8418184899242B85EB362'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '192c6e10-d44e-4765-a729-b1be8b216c69', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L799" t="b">
@@ -45046,7 +45046,7 @@
       </c>
       <c r="K806" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '51E9F258501748E89F88E3436285C493', 'url_called': 'https://api.august.com/locks/51E9F258501748E89F88E3436285C493', 'status_code': 200, 'api_response_data': {'LockName': '547', 'Type': 15, 'Created': '2025-05-23T18:44:19.646Z', 'Updated': '2025-05-23T18:44:19.646Z', 'LockID': '51E9F258501748E89F88E3436285C493', 'HouseID': '4c216d95-58e3-4b92-9eed-014d4c2acf2c', 'HouseName': 'Quincy 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9520185726469208, 'batteryInfo': {'level': 0.9520185726469208, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-28T17:07:57.608Z', 'lastChangeDate': '2025-05-23T18:44:19.646Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-18T18:44:19.646Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '78c97807962f8a949b4b912a477937eb', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:85:DC', 'SerialNumber': 'LFIEG0018X', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T18:55:15.391Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6830c34c1ecf37ef7f9b9a99', 'mfgBridgeID': 'C8WAS0035Y', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-27T07:00:03.178Z', 'updated': '2025-06-27T07:02:21.913Z', 'lastOnline': '2025-06-27T07:02:21.913Z'}, 'locks': [{'_id': '65c03a1a81639750a3c9d2fc', 'macAddress': '98:1B:B5:76:85:DC', 'LockID': '51E9F258501748E89F88E3436285C493'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '54f27557-e3f3-4de1-8263-b0777260aea1', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '51E9F258501748E89F88E3436285C493', 'url_called': 'https://api.august.com/locks/51E9F258501748E89F88E3436285C493', 'status_code': 200, 'api_response_data': {'LockName': '547', 'Type': 15, 'Created': '2025-05-23T18:44:19.646Z', 'Updated': '2025-05-23T18:44:19.646Z', 'LockID': '51E9F258501748E89F88E3436285C493', 'HouseID': '4c216d95-58e3-4b92-9eed-014d4c2acf2c', 'HouseName': 'Quincy 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9504725386759674, 'batteryInfo': {'level': 0.9504725386759674, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T15:41:34.447Z', 'lastChangeDate': '2025-05-23T18:44:19.646Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-18T18:44:19.646Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '78c97807962f8a949b4b912a477937eb', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:85:DC', 'SerialNumber': 'LFIEG0018X', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T03:39:50.183Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6830c34c1ecf37ef7f9b9a99', 'mfgBridgeID': 'C8WAS0035Y', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-27T07:00:03.178Z', 'updated': '2025-06-27T07:02:21.913Z', 'lastOnline': '2025-06-27T07:02:21.913Z'}, 'locks': [{'_id': '65c03a1a81639750a3c9d2fc', 'macAddress': '98:1B:B5:76:85:DC', 'LockID': '51E9F258501748E89F88E3436285C493'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '54f27557-e3f3-4de1-8263-b0777260aea1', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L806" t="b">
@@ -45378,7 +45378,7 @@
       </c>
       <c r="K812" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': 'C642F9F617134A77B4C10AE581AB6303', 'url_called': 'https://api.august.com/locks/C642F9F617134A77B4C10AE581AB6303', 'status_code': 200, 'api_response_data': {'LockName': '548', 'Type': 15, 'Created': '2025-05-23T18:33:41.693Z', 'Updated': '2025-05-23T18:33:41.693Z', 'LockID': 'C642F9F617134A77B4C10AE581AB6303', 'HouseID': '4c216d95-58e3-4b92-9eed-014d4c2acf2c', 'HouseName': 'Quincy 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9471995585117838, 'batteryInfo': {'level': 0.9471995585117838, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-28T22:15:31.930Z', 'lastChangeDate': '2025-05-23T18:33:41.693Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-18T18:33:41.693Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '5e54b0bc64ed7258413a22ef5533b141', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:85:C7', 'SerialNumber': 'LFIEG00186', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T20:57:28.573Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6830c0dd8c9b9b9fa3fbbc34', 'mfgBridgeID': 'C8WAS00387', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-25T18:03:30.152Z', 'updated': '2025-06-25T18:43:26.144Z', 'lastOnline': '2025-06-25T18:43:26.144Z'}, 'locks': [{'_id': '65c03a1a816397d20bc9d305', 'macAddress': '98:1B:B5:76:85:C7', 'LockID': 'C642F9F617134A77B4C10AE581AB6303'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '1ad97843-51d9-4900-acee-0772c0dadf28', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': 'C642F9F617134A77B4C10AE581AB6303', 'url_called': 'https://api.august.com/locks/C642F9F617134A77B4C10AE581AB6303', 'status_code': 200, 'api_response_data': {'LockName': '548', 'Type': 15, 'Created': '2025-05-23T18:33:41.693Z', 'Updated': '2025-05-23T18:33:41.693Z', 'LockID': 'C642F9F617134A77B4C10AE581AB6303', 'HouseID': '4c216d95-58e3-4b92-9eed-014d4c2acf2c', 'HouseName': 'Quincy 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9436542809344246, 'batteryInfo': {'level': 0.9436542809344246, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T19:16:28.916Z', 'lastChangeDate': '2025-05-23T18:33:41.693Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-18T18:33:41.693Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '5e54b0bc64ed7258413a22ef5533b141', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:85:C7', 'SerialNumber': 'LFIEG00186', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T06:44:04.697Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6830c0dd8c9b9b9fa3fbbc34', 'mfgBridgeID': 'C8WAS00387', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-25T18:03:30.152Z', 'updated': '2025-06-25T18:43:26.144Z', 'lastOnline': '2025-06-25T18:43:26.144Z'}, 'locks': [{'_id': '65c03a1a816397d20bc9d305', 'macAddress': '98:1B:B5:76:85:C7', 'LockID': 'C642F9F617134A77B4C10AE581AB6303'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '1ad97843-51d9-4900-acee-0772c0dadf28', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L812" t="b">
@@ -45764,7 +45764,7 @@
       </c>
       <c r="K819" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '7E39324A9BFD438CB6DC1574CB575825', 'url_called': 'https://api.august.com/locks/7E39324A9BFD438CB6DC1574CB575825', 'status_code': 200, 'api_response_data': {'LockName': '549', 'Type': 15, 'Created': '2025-05-23T18:22:27.446Z', 'Updated': '2025-05-23T18:22:27.446Z', 'LockID': '7E39324A9BFD438CB6DC1574CB575825', 'HouseID': '4c216d95-58e3-4b92-9eed-014d4c2acf2c', 'HouseName': 'Quincy 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9436542809344246, 'batteryInfo': {'level': 0.9436542809344246, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-28T22:15:23.658Z', 'lastChangeDate': '2025-05-23T18:22:27.446Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-18T18:22:27.446Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '363c69a6a1856e7a60e4cf6f0b6a1c58', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:85:E7', 'SerialNumber': 'LFIEG00198', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-30T00:10:38.783Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6830be6d473616e927e324e7', 'mfgBridgeID': 'C8WAS0037S', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-26T01:08:03.363Z', 'updated': '2025-06-26T01:08:36.269Z', 'lastOnline': '2025-06-26T01:08:36.269Z'}, 'locks': [{'_id': '65c03a1a8163971b53c9d2f8', 'macAddress': '98:1B:B5:76:85:E7', 'LockID': '7E39324A9BFD438CB6DC1574CB575825'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '844e226e-4ba1-48f5-bcce-b2697a27ec1d', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '7E39324A9BFD438CB6DC1574CB575825', 'url_called': 'https://api.august.com/locks/7E39324A9BFD438CB6DC1574CB575825', 'status_code': 200, 'api_response_data': {'LockName': '549', 'Type': 15, 'Created': '2025-05-23T18:22:27.446Z', 'Updated': '2025-05-23T18:22:27.446Z', 'LockID': '7E39324A9BFD438CB6DC1574CB575825', 'HouseID': '4c216d95-58e3-4b92-9eed-014d4c2acf2c', 'HouseName': 'Quincy 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9417678528589022, 'batteryInfo': {'level': 0.9417678528589022, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T15:44:33.207Z', 'lastChangeDate': '2025-05-23T18:22:27.446Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-18T18:22:27.446Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': '363c69a6a1856e7a60e4cf6f0b6a1c58', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:85:E7', 'SerialNumber': 'LFIEG00198', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-02T00:15:50.836Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6830be6d473616e927e324e7', 'mfgBridgeID': 'C8WAS0037S', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-30T12:15:20.518Z', 'updated': '2025-06-30T12:15:35.909Z', 'lastOnline': '2025-06-30T12:15:35.909Z'}, 'locks': [{'_id': '65c03a1a8163971b53c9d2f8', 'macAddress': '98:1B:B5:76:85:E7', 'LockID': '7E39324A9BFD438CB6DC1574CB575825'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': '844e226e-4ba1-48f5-bcce-b2697a27ec1d', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L819" t="b">
@@ -46150,7 +46150,7 @@
       </c>
       <c r="K826" t="inlineStr">
         <is>
-          <t>{'status': 'success', 'serial_no': '10C400E3DBC84D72932D3B8809466424', 'url_called': 'https://api.august.com/locks/10C400E3DBC84D72932D3B8809466424', 'status_code': 200, 'api_response_data': {'LockName': '550', 'Type': 15, 'Created': '2025-05-23T18:15:48.740Z', 'Updated': '2025-05-23T18:15:48.740Z', 'LockID': '10C400E3DBC84D72932D3B8809466424', 'HouseID': '4c216d95-58e3-4b92-9eed-014d4c2acf2c', 'HouseName': 'Quincy 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9417678528589022, 'batteryInfo': {'level': 0.9417678528589022, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-06-28T22:15:17.725Z', 'lastChangeDate': '2025-05-23T18:15:48.740Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-18T18:15:48.740Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'f8b5268491be926a7c19865cdba1a461', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:1E', 'SerialNumber': 'LFIEG001C3', 'LockStatus': {'status': 'locked', 'dateTime': '2025-06-29T20:45:09.344Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6830bbb26795b306b5ee6e74', 'mfgBridgeID': 'C8WC1004W8', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-13T18:39:14.835Z', 'updated': '2025-06-17T22:02:04.305Z', 'lastOnline': '2025-06-17T22:02:04.305Z'}, 'locks': [{'_id': '65c03a1a816397a54ec9d2dd', 'macAddress': '98:1B:B5:76:86:1E', 'LockID': '10C400E3DBC84D72932D3B8809466424'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'b92c5a86-51e1-44ac-940a-f6e38161248c', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
+          <t>{'status': 'success', 'serial_no': '10C400E3DBC84D72932D3B8809466424', 'url_called': 'https://api.august.com/locks/10C400E3DBC84D72932D3B8809466424', 'status_code': 200, 'api_response_data': {'LockName': '550', 'Type': 15, 'Created': '2025-05-23T18:15:48.740Z', 'Updated': '2025-05-23T18:15:48.740Z', 'LockID': '10C400E3DBC84D72932D3B8809466424', 'HouseID': '4c216d95-58e3-4b92-9eed-014d4c2acf2c', 'HouseName': 'Quincy 2', 'Calibrated': False, 'timeZone': 'America/Chicago', 'battery': 0.9397993581551418, 'batteryInfo': {'level': 0.9397993581551418, 'warningState': 'lock_state_battery_warning_none', 'infoUpdatedDate': '2025-07-01T19:15:03.981Z', 'lastChangeDate': '2025-05-23T18:15:48.740Z', 'lastChangeVoltage': 6200, 'deathDate': '2026-05-18T18:15:48.740Z'}, 'supportsEntryCodes': True, 'remoteOperateSecret': 'f8b5268491be926a7c19865cdba1a461', 'skuNumber': 'YRD624-BLE-619', 'macAddress': '98:1B:B5:76:86:1E', 'SerialNumber': 'LFIEG001C3', 'LockStatus': {'status': 'locked', 'dateTime': '2025-07-01T20:45:20.860Z', 'isLockStatusChanged': False, 'valid': True, 'doorState': 'init'}, 'currentFirmwareVersion': '1.3.26', 'homeKitEnabled': False, 'zWaveEnabled': False, 'isGalileo': False, 'Bridge': {'_id': '6830bbb26795b306b5ee6e74', 'mfgBridgeID': 'C8WC1004W8', 'deviceModel': 'august-connect-v2', 'firmwareVersion': '1.1.2', 'operative': True, 'status': {'current': 'online', 'lastOffline': '2025-06-13T18:39:14.835Z', 'updated': '2025-06-17T22:02:04.305Z', 'lastOnline': '2025-06-17T22:02:04.305Z'}, 'locks': [{'_id': '65c03a1a816397a54ec9d2dd', 'macAddress': '98:1B:B5:76:86:1E', 'LockID': '10C400E3DBC84D72932D3B8809466424'}], 'enhancedStatus': {}, 'hyperBridge': True}, 'parametersToSet': {}, 'users': {'17fb1dac-6d1b-4690-bee4-6f3701e39855': {'UserType': 'superuser', 'FirstName': 'Yale', 'LastName': 'Allistic', 'identifiers': ['phone:+14786665050', 'phone:+15047018635', 'email:yale@qhotels.co']}}, 'pubsubChannel': 'b92c5a86-51e1-44ac-940a-f6e38161248c', 'ruleHash': {}, 'cameras': [], 'geofenceLimits': {'ios': {'debounceInterval': 90, 'gpsAccuracyMultiplier': 2.5, 'maximumGeofence': 5000, 'minimumGeofence': 100, 'minGPSAccuracyRequired': 80}}, 'accessSchedulesAllowed': True, 'pins': {'created': [], 'loaded': [], 'disabled': [], 'disabling': [], 'enabling': [], 'deleting': [], 'updating': []}}}</t>
         </is>
       </c>
       <c r="L826" t="b">
